--- a/VIRT.xlsx
+++ b/VIRT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3CAFC1-8B7A-46F4-BAF1-AB95557C444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E6A3F3-A26E-4E55-8F70-E6A5296B9141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{F2317BC5-DDE7-4B11-8968-E77385A88B35}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F2317BC5-DDE7-4B11-8968-E77385A88B35}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -251,13 +251,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -444,42 +450,42 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -818,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7DA60B-4FB3-4488-9DA0-E5C9B71C2297}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -845,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="6">
-        <v>41.2</v>
+        <v>41.35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -853,11 +859,11 @@
         <v>3</v>
       </c>
       <c r="H3" s="7">
-        <f>85.911653+8.194847+60.09174</f>
-        <v>154.19824</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>13</v>
+        <f>84.577655+8.194847+60.09174</f>
+        <v>152.86424199999999</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -869,7 +875,7 @@
       </c>
       <c r="H4" s="7">
         <f>+H2*H3</f>
-        <v>6352.9674880000002</v>
+        <v>6320.9364066999997</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -880,10 +886,10 @@
         <v>5</v>
       </c>
       <c r="H5" s="7">
-        <v>723.65</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>13</v>
+        <v>752.101</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -891,24 +897,24 @@
         <v>6</v>
       </c>
       <c r="H6" s="7">
-        <f>112.149+1741.092</f>
-        <v>1853.241</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>13</v>
+        <f>251.754+1743.171</f>
+        <v>1994.925</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -916,46 +922,46 @@
       </c>
       <c r="H7" s="7">
         <f>+H4-H5+H6</f>
-        <v>7482.5584880000006</v>
+        <v>7563.7604067000002</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>0.8249165442330485</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>0.16829361153115824</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>6.7898442357934245E-3</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
@@ -977,10 +983,10 @@
   <dimension ref="A1:AL352"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -991,7 +997,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1046,13 +1052,17 @@
       <c r="C3" s="3">
         <v>521.99800000000005</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>569.78300000000002</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
         <v>691.17200000000003</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>786.59299999999996</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1097,13 +1107,17 @@
       <c r="C4" s="3">
         <v>117.788</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>127.059</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
         <v>141.00800000000001</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>214.488</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1148,13 +1162,17 @@
       <c r="C5" s="3">
         <v>4.0430000000000001</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>-3.8570000000000002</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
         <v>5.6890000000000001</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>-1.508</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1199,13 +1217,17 @@
       <c r="C6" s="3">
         <v>408.09500000000003</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>426.39499999999998</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
         <v>589.98299999999995</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>652.79600000000005</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1250,13 +1272,17 @@
       <c r="C7" s="3">
         <v>105.992</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>107.066</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
         <v>109.053</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>128.40600000000001</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1301,13 +1327,17 @@
       <c r="C8" s="3">
         <v>118.611</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>126.101</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
         <v>151.30699999999999</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>153.85900000000001</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1352,13 +1382,17 @@
       <c r="C9" s="3">
         <v>10.141</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>33.423000000000002</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
         <v>-12.474</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>64.512</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1400,47 +1434,49 @@
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <f t="shared" ref="C10:F10" si="0">+SUM(C6:C9)</f>
         <v>642.83899999999994</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
+        <f t="shared" si="0"/>
+        <v>692.98500000000001</v>
+      </c>
+      <c r="E10" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="24">
+      <c r="F10" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <f>+SUM(G6:G9)</f>
         <v>837.86899999999991</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="23">
+        <v>999.57299999999998</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="24">
+      <c r="L10" s="23">
         <f t="shared" ref="L10:P10" si="1">+SUM(L6:L9)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="23">
         <f t="shared" si="1"/>
         <v>2364.8120000000004</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="23">
         <f t="shared" si="1"/>
         <v>2293.373</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="23">
         <f t="shared" si="1"/>
         <v>2876.9490000000001</v>
       </c>
@@ -1474,13 +1510,17 @@
       <c r="C11" s="3">
         <v>139.79900000000001</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>150.78700000000001</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
         <v>221.875</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>202.125</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1525,13 +1565,17 @@
       <c r="C12" s="3">
         <v>126.02800000000001</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>123.693</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
         <v>131.328</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>165.21299999999999</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1579,7 +1623,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>418.505</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
@@ -1593,7 +1637,10 @@
         <f>+G10-SUM(G11:G12)</f>
         <v>484.66599999999994</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <f>+H10-SUM(H11:H12)</f>
+        <v>632.23500000000001</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1647,13 +1694,17 @@
       <c r="C14" s="3">
         <v>58.182000000000002</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>59.326999999999998</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
         <v>59.802999999999997</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>61.435000000000002</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1698,13 +1749,17 @@
       <c r="C15" s="3">
         <v>100.82299999999999</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>105.71599999999999</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
         <v>119.35599999999999</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>136.18100000000001</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1749,13 +1804,17 @@
       <c r="C16" s="3">
         <v>22.346</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>22.061</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
         <v>22.135999999999999</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>25.895</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1801,14 +1860,20 @@
         <f>16.076+14.687</f>
         <v>30.762999999999998</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <f>16.078+12.153</f>
+        <v>28.231000000000002</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3">
         <f>15.932+11.783</f>
         <v>27.715</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <f>15.618+11.783</f>
+        <v>27.401</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1857,14 +1922,20 @@
         <f>0.135+0.017</f>
         <v>0.15200000000000002</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <f>0.016+0.06</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3">
         <f>0.338+0.01</f>
         <v>0.34800000000000003</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3">
+        <f>0.011+0.059</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1915,7 +1986,7 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>203.09399999999999</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="4"/>
@@ -1929,7 +2000,10 @@
         <f>+G13-SUM(G14:G18)</f>
         <v>255.30799999999994</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3">
+        <f>+H13-SUM(H14:H18)</f>
+        <v>381.25299999999999</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1983,13 +2057,17 @@
       <c r="C20" s="3">
         <v>1.694</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>24.279</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3">
         <v>1.681</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>1.6819999999999999</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2034,13 +2112,17 @@
       <c r="C21" s="3">
         <v>23.231999999999999</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>23.43</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
         <v>29.890999999999998</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3">
+        <v>32.551000000000002</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -2088,7 +2170,7 @@
       </c>
       <c r="D22" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>155.38499999999999</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="6"/>
@@ -2102,7 +2184,10 @@
         <f>+G19-G20-G21</f>
         <v>223.73599999999993</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3">
+        <f>+H19-H20-H21</f>
+        <v>347.02</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2156,13 +2241,17 @@
       <c r="C23" s="3">
         <v>28.512</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>27.268000000000001</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3">
         <v>34.100999999999999</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3">
+        <v>54.043999999999997</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2207,13 +2296,17 @@
       <c r="C24" s="3">
         <v>55.491</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>61.530999999999999</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3">
         <v>89.984999999999999</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3">
+        <v>141.78899999999999</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2261,7 +2354,7 @@
       </c>
       <c r="D25" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>66.585999999999984</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="8"/>
@@ -2275,7 +2368,10 @@
         <f>+G22-SUM(G23:G24)</f>
         <v>99.649999999999935</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3">
+        <f>+H22-SUM(H23:H24)</f>
+        <v>151.18700000000001</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2364,44 +2460,47 @@
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <f t="shared" ref="C27:F27" si="10">+C25/C28</f>
         <v>0.62716349044432107</v>
       </c>
-      <c r="D27" s="25" t="e">
+      <c r="D27" s="24">
+        <f t="shared" si="10"/>
+        <v>0.75547609261265969</v>
+      </c>
+      <c r="E27" s="24" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="25" t="e">
+      <c r="F27" s="24" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="25" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="25">
+      <c r="G27" s="24">
         <f>+G25/G28</f>
         <v>1.1630347749731949</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="24">
+        <f>+H25/H28</f>
+        <v>1.7684733420835843</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="25" t="e">
+      <c r="M27" s="24" t="e">
         <f t="shared" ref="M27:O27" si="11">+M25/M28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N27" s="24">
         <f t="shared" si="11"/>
         <v>2.5483326323221513</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="24">
         <f t="shared" si="11"/>
         <v>1.4955962898691488</v>
       </c>
-      <c r="P27" s="25">
+      <c r="P27" s="24">
         <f>+P25/P28</f>
         <v>3.1596727113351388</v>
       </c>
@@ -2435,13 +2534,17 @@
       <c r="C28" s="3">
         <v>88.999122</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>88.137799000000001</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3">
         <v>85.681015000000002</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3">
+        <v>85.490121000000002</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -2525,28 +2628,31 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="26">
+      <c r="G30" s="25">
         <f>+G3/C3-1</f>
         <v>0.32408936432706636</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="25">
+        <f t="shared" ref="H30:H31" si="12">+H3/D3-1</f>
+        <v>0.38051328312708521</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="26" t="e">
-        <f t="shared" ref="M30:N30" si="12">+M3/L3-1</f>
+      <c r="M30" s="25" t="e">
+        <f t="shared" ref="M30:N30" si="13">+M3/L3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="26" t="e">
-        <f t="shared" si="12"/>
+      <c r="N30" s="25" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="26">
-        <f t="shared" ref="O30" si="13">+O3/N3-1</f>
+      <c r="O30" s="25">
+        <f t="shared" ref="O30" si="14">+O3/N3-1</f>
         <v>1.6925937714270312E-2</v>
       </c>
-      <c r="P30" s="26">
+      <c r="P30" s="25">
         <f>+P3/O3-1</f>
         <v>0.28780384079829768</v>
       </c>
@@ -2581,28 +2687,31 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="26">
+      <c r="G31" s="25">
         <f>+G4/C4-1</f>
         <v>0.19713383366726678</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="25">
+        <f t="shared" si="12"/>
+        <v>0.68809765541992296</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="26" t="e">
-        <f t="shared" ref="M31:N31" si="14">+M4/L4-1</f>
+      <c r="M31" s="25" t="e">
+        <f t="shared" ref="M31:N31" si="15">+M4/L4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N31" s="26" t="e">
-        <f t="shared" si="14"/>
+      <c r="N31" s="25" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="26">
-        <f t="shared" ref="O31" si="15">+O4/N4-1</f>
+      <c r="O31" s="25">
+        <f t="shared" ref="O31" si="16">+O4/N4-1</f>
         <v>-0.13164839054062205</v>
       </c>
-      <c r="P31" s="26">
+      <c r="P31" s="25">
         <f>+P4/O4-1</f>
         <v>0.13590658885390416</v>
       </c>
@@ -2637,29 +2746,32 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="26">
+      <c r="G32" s="25">
         <f>+G6/C6-1</f>
         <v>0.4457001433489749</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="25">
+        <f t="shared" ref="H32:H34" si="17">+H6/D6-1</f>
+        <v>0.53096541938812614</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="26" t="e">
-        <f t="shared" ref="M32:N32" si="16">+M6/L6-1</f>
+      <c r="M32" s="25" t="e">
+        <f t="shared" ref="M32:N32" si="18">+M6/L6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="26" t="e">
-        <f t="shared" si="16"/>
+      <c r="N32" s="25" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O32" s="26">
-        <f t="shared" ref="O32:P33" si="17">+O6/N6-1</f>
+      <c r="O32" s="25">
+        <f t="shared" ref="O32:P33" si="19">+O6/N6-1</f>
         <v>-0.20108932542123559</v>
       </c>
-      <c r="P32" s="26">
-        <f t="shared" si="17"/>
+      <c r="P32" s="25">
+        <f t="shared" si="19"/>
         <v>0.40042678953451194</v>
       </c>
       <c r="Q32" s="3"/>
@@ -2693,29 +2805,32 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="26">
-        <f t="shared" ref="G33:G34" si="18">+G7/C7-1</f>
+      <c r="G33" s="25">
+        <f t="shared" ref="G33:G34" si="20">+G7/C7-1</f>
         <v>2.8879538078345535E-2</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="25">
+        <f t="shared" si="17"/>
+        <v>0.19931630956606217</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="26" t="e">
-        <f t="shared" ref="M33:N33" si="19">+M7/L7-1</f>
+      <c r="M33" s="25" t="e">
+        <f t="shared" ref="M33:N33" si="21">+M7/L7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N33" s="26" t="e">
+      <c r="N33" s="25" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" s="25">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O33" s="26">
-        <f t="shared" si="17"/>
         <v>1.9070261437908496</v>
       </c>
-      <c r="P33" s="26">
-        <f t="shared" si="17"/>
+      <c r="P33" s="25">
+        <f t="shared" si="19"/>
         <v>-1.0722794152617787E-3</v>
       </c>
       <c r="Q33" s="3"/>
@@ -2749,28 +2864,31 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="26">
-        <f t="shared" si="18"/>
+      <c r="G34" s="25">
+        <f t="shared" si="20"/>
         <v>0.27565740108421632</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="25">
+        <f t="shared" si="17"/>
+        <v>0.22012513778637777</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="26" t="e">
-        <f t="shared" ref="M34:N34" si="20">+M8/L8-1</f>
+      <c r="M34" s="25" t="e">
+        <f t="shared" ref="M34:N34" si="22">+M8/L8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N34" s="26" t="e">
-        <f t="shared" si="20"/>
+      <c r="N34" s="25" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O34" s="26">
-        <f t="shared" ref="O34" si="21">+O8/N8-1</f>
+      <c r="O34" s="25">
+        <f t="shared" ref="O34" si="23">+O8/N8-1</f>
         <v>-0.14012966056110754</v>
       </c>
-      <c r="P34" s="26">
+      <c r="P34" s="25">
         <f>+P8/O8-1</f>
         <v>0.13429602412653252</v>
       </c>
@@ -2801,32 +2919,35 @@
       <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="27">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="26">
         <f>+G10/C10-1</f>
         <v>0.30338856229942479</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="26">
+        <f t="shared" ref="H35" si="24">+H10/D10-1</f>
+        <v>0.44241650252169951</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="27" t="e">
-        <f t="shared" ref="M35:O35" si="22">+M10/L10-1</f>
+      <c r="M35" s="26" t="e">
+        <f t="shared" ref="M35:O35" si="25">+M10/L10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N35" s="27" t="e">
-        <f t="shared" si="22"/>
+      <c r="N35" s="26" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O35" s="27">
-        <f t="shared" si="22"/>
+      <c r="O35" s="26">
+        <f t="shared" si="25"/>
         <v>-3.0209166732915849E-2</v>
       </c>
-      <c r="P35" s="27">
+      <c r="P35" s="26">
         <f>+P10/O10-1</f>
         <v>0.25446187776693985</v>
       </c>
@@ -2857,48 +2978,51 @@
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="26">
-        <f t="shared" ref="C36:F36" si="23">+C13/C10</f>
+      <c r="C36" s="25">
+        <f t="shared" ref="C36:F36" si="26">+C13/C10</f>
         <v>0.58647966287048547</v>
       </c>
-      <c r="D36" s="26" t="e">
-        <f t="shared" si="23"/>
+      <c r="D36" s="25">
+        <f t="shared" si="26"/>
+        <v>0.60391639068666703</v>
+      </c>
+      <c r="E36" s="25" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="26" t="e">
-        <f t="shared" si="23"/>
+      <c r="F36" s="25" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="26" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="26">
+      <c r="G36" s="25">
         <f>+G13/G10</f>
         <v>0.57845080794253034</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="25">
+        <f t="shared" ref="H36" si="27">+H13/H10</f>
+        <v>0.6325050796690187</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="26" t="e">
-        <f t="shared" ref="L36:P36" si="24">+L13/L10</f>
+      <c r="L36" s="25" t="e">
+        <f t="shared" ref="L36:P36" si="28">+L13/L10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="26" t="e">
-        <f t="shared" si="24"/>
+      <c r="M36" s="25" t="e">
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N36" s="26">
-        <f t="shared" si="24"/>
+      <c r="N36" s="25">
+        <f t="shared" si="28"/>
         <v>0.64046698003900526</v>
       </c>
-      <c r="O36" s="26">
-        <f t="shared" si="24"/>
+      <c r="O36" s="25">
+        <f t="shared" si="28"/>
         <v>0.56011298641782215</v>
       </c>
-      <c r="P36" s="26">
-        <f t="shared" si="24"/>
+      <c r="P36" s="25">
+        <f t="shared" si="28"/>
         <v>0.58163909057824803</v>
       </c>
       <c r="Q36" s="3"/>
@@ -2928,48 +3052,51 @@
       <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="26">
-        <f t="shared" ref="C37:F37" si="25">+C19/C10</f>
+      <c r="C37" s="25">
+        <f t="shared" ref="C37:F37" si="29">+C19/C10</f>
         <v>0.25627878831247008</v>
       </c>
-      <c r="D37" s="26" t="e">
-        <f t="shared" si="25"/>
+      <c r="D37" s="25">
+        <f t="shared" si="29"/>
+        <v>0.29307127859910387</v>
+      </c>
+      <c r="E37" s="25" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E37" s="26" t="e">
-        <f t="shared" si="25"/>
+      <c r="F37" s="25" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="26" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="26">
+      <c r="G37" s="25">
         <f>+G19/G10</f>
         <v>0.30471111832517966</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="25">
+        <f t="shared" ref="H37" si="30">+H19/H10</f>
+        <v>0.38141586457417315</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="26" t="e">
-        <f t="shared" ref="L37:P37" si="26">+L19/L10</f>
+      <c r="L37" s="25" t="e">
+        <f t="shared" ref="L37:P37" si="31">+L19/L10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M37" s="26" t="e">
-        <f t="shared" si="26"/>
+      <c r="M37" s="25" t="e">
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N37" s="26">
-        <f t="shared" si="26"/>
+      <c r="N37" s="25">
+        <f t="shared" si="31"/>
         <v>0.2870177417908909</v>
       </c>
-      <c r="O37" s="26">
-        <f t="shared" si="26"/>
+      <c r="O37" s="25">
+        <f t="shared" si="31"/>
         <v>0.18869673620470812</v>
       </c>
-      <c r="P37" s="26">
-        <f t="shared" si="26"/>
+      <c r="P37" s="25">
+        <f t="shared" si="31"/>
         <v>0.26842707326407245</v>
       </c>
       <c r="Q37" s="3"/>
@@ -2999,48 +3126,51 @@
       <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="26">
-        <f t="shared" ref="C38:F38" si="27">+C23/C22</f>
+      <c r="C38" s="25">
+        <f t="shared" ref="C38:F38" si="32">+C23/C22</f>
         <v>0.20391932484623093</v>
       </c>
-      <c r="D38" s="26" t="e">
-        <f t="shared" si="27"/>
+      <c r="D38" s="25">
+        <f t="shared" si="32"/>
+        <v>0.17548669433986552</v>
+      </c>
+      <c r="E38" s="25" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="26" t="e">
-        <f t="shared" si="27"/>
+      <c r="F38" s="25" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="26" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="26">
+      <c r="G38" s="25">
         <f>+G23/G22</f>
         <v>0.15241624056924236</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="25">
+        <f t="shared" ref="H38" si="33">+H23/H22</f>
+        <v>0.15573742147426661</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="26" t="e">
-        <f t="shared" ref="L38:P38" si="28">+L23/L22</f>
+      <c r="L38" s="25" t="e">
+        <f t="shared" ref="L38:P38" si="34">+L23/L22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="26" t="e">
-        <f t="shared" si="28"/>
+      <c r="M38" s="25" t="e">
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="26">
-        <f t="shared" si="28"/>
+      <c r="N38" s="25">
+        <f t="shared" si="34"/>
         <v>0.15888347300098046</v>
       </c>
-      <c r="O38" s="26">
-        <f t="shared" si="28"/>
+      <c r="O38" s="25">
+        <f t="shared" si="34"/>
         <v>0.18825678705546206</v>
       </c>
-      <c r="P38" s="26">
-        <f t="shared" si="28"/>
+      <c r="P38" s="25">
+        <f t="shared" si="34"/>
         <v>0.17122501821790165</v>
       </c>
       <c r="Q38" s="3"/>

--- a/VIRT.xlsx
+++ b/VIRT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E6A3F3-A26E-4E55-8F70-E6A5296B9141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA6C341-E6C2-4BC9-B5CB-9C12185049D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F2317BC5-DDE7-4B11-8968-E77385A88B35}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
   <si>
     <t xml:space="preserve">Virtu Financial </t>
   </si>
@@ -242,6 +242,141 @@
   <si>
     <t>Execution Services Growth</t>
   </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Aaron Simons</t>
+  </si>
+  <si>
+    <t>Cindy Lee</t>
+  </si>
+  <si>
+    <t>Cash &amp; Cash Equivalents</t>
+  </si>
+  <si>
+    <t>Restricted Cash</t>
+  </si>
+  <si>
+    <t>Securrities Borrowed</t>
+  </si>
+  <si>
+    <t>Securrities purchased to resell</t>
+  </si>
+  <si>
+    <t>Financial instruments pledged</t>
+  </si>
+  <si>
+    <t>Financial instruments owned</t>
+  </si>
+  <si>
+    <t>Receivables from costumers</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>Receivables from brokers</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Operating Leases</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>Deffered taxes</t>
+  </si>
+  <si>
+    <t>Non-current Assets</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Short-Term Borrowings</t>
+  </si>
+  <si>
+    <t>Securities loaned</t>
+  </si>
+  <si>
+    <t>Securities sold to repurchase</t>
+  </si>
+  <si>
+    <t>Payables to Brokers</t>
+  </si>
+  <si>
+    <t>Payables to Costumers</t>
+  </si>
+  <si>
+    <t>Financial instruments sold</t>
+  </si>
+  <si>
+    <t>Tax receivables</t>
+  </si>
+  <si>
+    <t>Accounts payables and other</t>
+  </si>
+  <si>
+    <t>Current Liabilities</t>
+  </si>
+  <si>
+    <t>Non-current Borrowing</t>
+  </si>
+  <si>
+    <t>Non-Current Liabilities</t>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liabilities &amp; Equity </t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>FY17</t>
+  </si>
+  <si>
+    <t>FY16</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>by Vincent Viola and Douglas Cifu</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>IPO 2015</t>
+  </si>
+  <si>
+    <t>2017 Acquisition of KCG holdings for 1.4 billion USD</t>
+  </si>
+  <si>
+    <t>2019 Acquisition of ITG for 1billion USD</t>
+  </si>
 </sst>
 </file>
 
@@ -251,13 +386,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -310,6 +451,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -450,42 +599,44 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -822,11 +973,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7DA60B-4FB3-4488-9DA0-E5C9B71C2297}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -950,6 +1099,15 @@
         <v>59</v>
       </c>
       <c r="E9" s="17"/>
+      <c r="G9" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2008</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
@@ -964,12 +1122,47 @@
       <c r="E10" s="21"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -980,13 +1173,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8ABE76C-2625-4A8C-BA57-81F6807C2301}">
-  <dimension ref="A1:AL352"/>
+  <dimension ref="A1:AP351"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -996,7 +1189,7 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
@@ -1004,7 +1197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1029,23 +1222,36 @@
       <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
@@ -1066,21 +1272,33 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="L3" s="3">
+        <v>691.88400000000001</v>
+      </c>
+      <c r="M3" s="3">
+        <v>836.70699999999999</v>
+      </c>
       <c r="N3" s="3">
+        <v>1384.4749999999999</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1028.0940000000001</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2593.3420000000001</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2203.0459999999998</v>
+      </c>
+      <c r="R3" s="3">
         <v>1812.8389999999999</v>
       </c>
-      <c r="O3" s="3">
+      <c r="S3" s="3">
         <v>1843.5229999999999</v>
       </c>
-      <c r="P3" s="3">
+      <c r="T3" s="3">
         <v>2374.096</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -1099,8 +1317,12 @@
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
@@ -1121,21 +1343,33 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="3">
+        <v>92.14</v>
+      </c>
+      <c r="M4" s="3">
+        <v>99.135000000000005</v>
+      </c>
       <c r="N4" s="3">
+        <v>496.33300000000003</v>
+      </c>
+      <c r="O4" s="3">
+        <v>491.73599999999999</v>
+      </c>
+      <c r="P4" s="3">
+        <v>650.14300000000003</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>600.21500000000003</v>
+      </c>
+      <c r="R4" s="3">
         <v>514.24099999999999</v>
       </c>
-      <c r="O4" s="3">
+      <c r="S4" s="3">
         <v>446.54199999999997</v>
       </c>
-      <c r="P4" s="3">
+      <c r="T4" s="3">
         <v>507.23</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -1154,8 +1388,12 @@
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
@@ -1176,21 +1414,33 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="L5" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10.352</v>
+      </c>
       <c r="N5" s="3">
+        <v>-2.09</v>
+      </c>
+      <c r="O5" s="3">
+        <v>-2.3380000000000001</v>
+      </c>
+      <c r="P5" s="3">
+        <v>-4.1539999999999999</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>8.2240000000000002</v>
+      </c>
+      <c r="R5" s="3">
         <v>37.731999999999999</v>
       </c>
-      <c r="O5" s="3">
+      <c r="S5" s="3">
         <v>3.3079999999999998</v>
       </c>
-      <c r="P5" s="3">
+      <c r="T5" s="3">
         <v>-4.3769999999999998</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -1209,8 +1459,12 @@
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1231,21 +1485,33 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="3">
+        <v>665.46500000000003</v>
+      </c>
+      <c r="M6" s="3">
+        <v>766.02700000000004</v>
+      </c>
       <c r="N6" s="3">
+        <v>1266.682</v>
+      </c>
+      <c r="O6" s="3">
+        <v>912.31600000000003</v>
+      </c>
+      <c r="P6" s="3">
+        <v>2493.248</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2105.194</v>
+      </c>
+      <c r="R6" s="3">
         <v>1628.8979999999999</v>
       </c>
-      <c r="O6" s="3">
+      <c r="S6" s="3">
         <v>1301.3440000000001</v>
       </c>
-      <c r="P6" s="3">
+      <c r="T6" s="3">
         <v>1822.4369999999999</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -1264,8 +1530,12 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1286,21 +1556,33 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="3">
+        <v>26.419</v>
+      </c>
+      <c r="M7" s="3">
+        <v>50.406999999999996</v>
+      </c>
       <c r="N7" s="3">
+        <v>87.507999999999996</v>
+      </c>
+      <c r="O7" s="3">
+        <v>108.77800000000001</v>
+      </c>
+      <c r="P7" s="3">
+        <v>62.119</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>75.384</v>
+      </c>
+      <c r="R7" s="3">
         <v>159.12</v>
       </c>
-      <c r="O7" s="3">
+      <c r="S7" s="3">
         <v>462.56599999999997</v>
       </c>
-      <c r="P7" s="3">
+      <c r="T7" s="3">
         <v>462.07</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -1319,8 +1601,12 @@
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1341,21 +1627,33 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="3">
+        <v>10.352</v>
+      </c>
+      <c r="M8" s="3">
+        <v>116.503</v>
+      </c>
       <c r="N8" s="3">
+        <v>184.339</v>
+      </c>
+      <c r="O8" s="3">
+        <v>498.54399999999998</v>
+      </c>
+      <c r="P8" s="3">
+        <v>600.51</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>614.48900000000003</v>
+      </c>
+      <c r="R8" s="3">
         <v>529.84500000000003</v>
       </c>
-      <c r="O8" s="3">
+      <c r="S8" s="3">
         <v>455.59800000000001</v>
       </c>
-      <c r="P8" s="3">
+      <c r="T8" s="3">
         <v>516.78300000000002</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1374,8 +1672,12 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1396,21 +1698,33 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="M9" s="3">
+        <v>95.045000000000002</v>
+      </c>
       <c r="N9" s="3">
+        <v>340.18900000000002</v>
+      </c>
+      <c r="O9" s="3">
+        <v>-2.1459999999999999</v>
+      </c>
+      <c r="P9" s="3">
+        <v>83.453999999999994</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>16.417999999999999</v>
+      </c>
+      <c r="R9" s="3">
         <v>46.948999999999998</v>
       </c>
-      <c r="O9" s="3">
+      <c r="S9" s="3">
         <v>73.864999999999995</v>
       </c>
-      <c r="P9" s="3">
+      <c r="T9" s="3">
         <v>75.659000000000006</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -1429,8 +1743,12 @@
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
-    </row>
-    <row r="10" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+    </row>
+    <row r="10" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1461,29 +1779,41 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="23">
-        <f t="shared" ref="L10:P10" si="1">+SUM(L6:L9)</f>
-        <v>0</v>
+        <f t="shared" ref="L10:O10" si="1">+SUM(L6:L9)</f>
+        <v>702.27199999999993</v>
       </c>
       <c r="M10" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1027.9820000000002</v>
       </c>
       <c r="N10" s="23">
         <f t="shared" si="1"/>
+        <v>1878.7180000000001</v>
+      </c>
+      <c r="O10" s="23">
+        <f t="shared" ref="O10:T10" si="2">+SUM(O6:O9)</f>
+        <v>1517.492</v>
+      </c>
+      <c r="P10" s="23">
+        <f t="shared" si="2"/>
+        <v>3239.3310000000006</v>
+      </c>
+      <c r="Q10" s="23">
+        <f t="shared" si="2"/>
+        <v>2811.4850000000001</v>
+      </c>
+      <c r="R10" s="23">
+        <f t="shared" si="2"/>
         <v>2364.8120000000004</v>
       </c>
-      <c r="O10" s="23">
-        <f t="shared" si="1"/>
+      <c r="S10" s="23">
+        <f t="shared" si="2"/>
         <v>2293.373</v>
       </c>
-      <c r="P10" s="23">
-        <f t="shared" si="1"/>
+      <c r="T10" s="23">
+        <f t="shared" si="2"/>
         <v>2876.9490000000001</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -1502,8 +1832,12 @@
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1524,21 +1858,35 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="3">
+        <v>221.214</v>
+      </c>
+      <c r="M11" s="3">
+        <f>256.926+27.727</f>
+        <v>284.65299999999996</v>
+      </c>
       <c r="N11" s="3">
+        <f>301.779+74.645</f>
+        <v>376.42399999999998</v>
+      </c>
+      <c r="O11" s="3">
+        <v>386.88799999999998</v>
+      </c>
+      <c r="P11" s="3">
+        <v>758.84299999999996</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>745.43399999999997</v>
+      </c>
+      <c r="R11" s="3">
         <v>619.16800000000001</v>
       </c>
-      <c r="O11" s="3">
+      <c r="S11" s="3">
         <v>508.358</v>
       </c>
-      <c r="P11" s="3">
+      <c r="T11" s="3">
         <v>674.42600000000004</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -1557,8 +1905,12 @@
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1579,21 +1931,33 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="3">
+        <v>56.557000000000002</v>
+      </c>
+      <c r="M12" s="3">
+        <v>91.992999999999995</v>
+      </c>
       <c r="N12" s="3">
+        <v>141.81399999999999</v>
+      </c>
+      <c r="O12" s="3">
+        <v>158.03899999999999</v>
+      </c>
+      <c r="P12" s="3">
+        <v>125.649</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>139.70400000000001</v>
+      </c>
+      <c r="R12" s="3">
         <v>231.06</v>
       </c>
-      <c r="O12" s="3">
+      <c r="S12" s="3">
         <v>500.46699999999998</v>
       </c>
-      <c r="P12" s="3">
+      <c r="T12" s="3">
         <v>529.17700000000002</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -1612,25 +1976,29 @@
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ref="C13:F13" si="2">+C10-SUM(C11:C12)</f>
+        <f t="shared" ref="C13:F13" si="3">+C10-SUM(C11:C12)</f>
         <v>377.01199999999994</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>418.505</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13" s="3">
@@ -1645,29 +2013,41 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3">
-        <f t="shared" ref="L13:P13" si="3">+L10-SUM(L11:L12)</f>
-        <v>0</v>
+        <f t="shared" ref="L13:O13" si="4">+L10-SUM(L11:L12)</f>
+        <v>424.50099999999992</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>651.33600000000024</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>1360.48</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" ref="O13:T13" si="5">+O10-SUM(O11:O12)</f>
+        <v>972.56500000000005</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="5"/>
+        <v>2354.8390000000009</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="5"/>
+        <v>1926.3470000000002</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="5"/>
         <v>1514.5840000000003</v>
       </c>
-      <c r="O13" s="3">
-        <f t="shared" si="3"/>
+      <c r="S13" s="3">
+        <f t="shared" si="5"/>
         <v>1284.548</v>
       </c>
-      <c r="P13" s="3">
-        <f t="shared" si="3"/>
+      <c r="T13" s="3">
+        <f t="shared" si="5"/>
         <v>1673.346</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -1686,8 +2066,12 @@
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1708,21 +2092,33 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="3">
+        <v>71.001000000000005</v>
+      </c>
+      <c r="M14" s="3">
+        <v>131.506</v>
+      </c>
       <c r="N14" s="3">
+        <v>176.12</v>
+      </c>
+      <c r="O14" s="3">
+        <v>209.393</v>
+      </c>
+      <c r="P14" s="3">
+        <v>213.75</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>211.988</v>
+      </c>
+      <c r="R14" s="3">
         <v>219.505</v>
       </c>
-      <c r="O14" s="3">
+      <c r="S14" s="3">
         <v>230.76</v>
       </c>
-      <c r="P14" s="3">
+      <c r="T14" s="3">
         <v>236.446</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -1741,8 +2137,12 @@
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1763,21 +2163,33 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="L15" s="3">
+        <v>85.295000000000002</v>
+      </c>
+      <c r="M15" s="3">
+        <v>177.489</v>
+      </c>
       <c r="N15" s="3">
+        <v>215.55600000000001</v>
+      </c>
+      <c r="O15" s="3">
+        <v>383.71300000000002</v>
+      </c>
+      <c r="P15" s="3">
+        <v>393.536</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>376.28199999999998</v>
+      </c>
+      <c r="R15" s="3">
         <v>390.947</v>
       </c>
-      <c r="O15" s="3">
+      <c r="S15" s="3">
         <v>394.03899999999999</v>
       </c>
-      <c r="P15" s="3">
+      <c r="T15" s="3">
         <v>434.82299999999998</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -1796,8 +2208,12 @@
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1818,21 +2234,33 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="L16" s="3">
+        <v>23.358000000000001</v>
+      </c>
+      <c r="M16" s="3">
+        <v>61.466000000000001</v>
+      </c>
       <c r="N16" s="3">
+        <v>64.748999999999995</v>
+      </c>
+      <c r="O16" s="3">
+        <v>103.642</v>
+      </c>
+      <c r="P16" s="3">
+        <v>94.558000000000007</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>88.149000000000001</v>
+      </c>
+      <c r="R16" s="3">
         <v>86.069000000000003</v>
       </c>
-      <c r="O16" s="3">
+      <c r="S16" s="3">
         <v>98.971999999999994</v>
       </c>
-      <c r="P16" s="3">
+      <c r="T16" s="3">
         <v>97.001999999999995</v>
       </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -1851,8 +2279,12 @@
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
-    </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+    </row>
+    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1877,24 +2309,42 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="L17" s="3">
+        <f>29.703+0.211</f>
+        <v>29.913999999999998</v>
+      </c>
+      <c r="M17" s="3">
+        <f>47.327+15.447</f>
+        <v>62.774000000000001</v>
+      </c>
       <c r="N17" s="3">
+        <f>61.154+26.123</f>
+        <v>87.277000000000001</v>
+      </c>
+      <c r="O17" s="3">
+        <f>65.644+70.595</f>
+        <v>136.239</v>
+      </c>
+      <c r="P17" s="3">
+        <f>66.741+74.254</f>
+        <v>140.995</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>67.816+69.668</f>
+        <v>137.48400000000001</v>
+      </c>
+      <c r="R17" s="3">
         <f>66.377+64.837</f>
         <v>131.214</v>
       </c>
-      <c r="O17" s="3">
+      <c r="S17" s="3">
         <f>63.306+63.96</f>
         <v>127.26599999999999</v>
       </c>
-      <c r="P17" s="3">
+      <c r="T17" s="3">
         <f>65.816+50.471</f>
         <v>116.28700000000001</v>
       </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -1913,8 +2363,12 @@
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
-    </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+    </row>
+    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1939,24 +2393,42 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="L18" s="3">
+        <f>-0.319+1.755</f>
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="M18" s="3">
+        <f>3.671+25.27+0.657+0.772</f>
+        <v>30.369999999999997</v>
+      </c>
       <c r="N18" s="3">
+        <f>23.357+2.02+0.024+11.487</f>
+        <v>36.887999999999998</v>
+      </c>
+      <c r="O18" s="3">
+        <f>66.452+26.117</f>
+        <v>92.569000000000003</v>
+      </c>
+      <c r="P18" s="3">
+        <f>9.608+2.941</f>
+        <v>12.548999999999999</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>28.138+0.843</f>
+        <v>28.981000000000002</v>
+      </c>
+      <c r="R18" s="3">
         <f>6.982+1.124</f>
         <v>8.1059999999999999</v>
       </c>
-      <c r="O18" s="3">
+      <c r="S18" s="3">
         <f>0.445+0.314</f>
         <v>0.75900000000000001</v>
       </c>
-      <c r="P18" s="3">
+      <c r="T18" s="3">
         <f>0.313+16.224</f>
         <v>16.536999999999999</v>
       </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
@@ -1975,25 +2447,29 @@
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
-    </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+    </row>
+    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19:F19" si="4">+C13-SUM(C14:C18)</f>
+        <f t="shared" ref="C19:F19" si="6">+C13-SUM(C14:C18)</f>
         <v>164.74599999999995</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>203.09399999999999</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G19" s="3">
@@ -2008,29 +2484,41 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3">
-        <f t="shared" ref="L19:P19" si="5">+L13-SUM(L14:L18)</f>
-        <v>0</v>
+        <f t="shared" ref="L19:O19" si="7">+L13-SUM(L14:L18)</f>
+        <v>213.49699999999993</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>187.73100000000022</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>779.88999999999987</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" ref="O19:T19" si="8">+O13-SUM(O14:O18)</f>
+        <v>47.009000000000015</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="8"/>
+        <v>1499.4510000000009</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="8"/>
+        <v>1083.4630000000002</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="8"/>
         <v>678.74300000000039</v>
       </c>
-      <c r="O19" s="3">
-        <f t="shared" si="5"/>
+      <c r="S19" s="3">
+        <f t="shared" si="8"/>
         <v>432.75200000000007</v>
       </c>
-      <c r="P19" s="3">
-        <f t="shared" si="5"/>
+      <c r="T19" s="3">
+        <f t="shared" si="8"/>
         <v>772.25099999999998</v>
       </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -2049,8 +2537,12 @@
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
-    </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+    </row>
+    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
@@ -2071,21 +2563,33 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="3">
+        <v>5.5789999999999997</v>
+      </c>
+      <c r="M20" s="3">
+        <v>10.46</v>
+      </c>
       <c r="N20" s="3">
+        <v>11.727</v>
+      </c>
+      <c r="O20" s="3">
+        <v>41.131999999999998</v>
+      </c>
+      <c r="P20" s="3">
+        <v>28.879000000000001</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>6.59</v>
+      </c>
+      <c r="R20" s="3">
         <v>29.91</v>
       </c>
-      <c r="O20" s="3">
+      <c r="S20" s="3">
         <v>8.3170000000000002</v>
       </c>
-      <c r="P20" s="3">
+      <c r="T20" s="3">
         <v>29.478999999999999</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -2104,8 +2608,12 @@
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
-    </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+    </row>
+    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
@@ -2126,21 +2634,33 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="3">
+        <v>28.327000000000002</v>
+      </c>
+      <c r="M21" s="3">
+        <v>64.106999999999999</v>
+      </c>
       <c r="N21" s="3">
+        <v>71.8</v>
+      </c>
+      <c r="O21" s="3">
+        <v>121.85899999999999</v>
+      </c>
+      <c r="P21" s="3">
+        <v>87.734999999999999</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>79.968999999999994</v>
+      </c>
+      <c r="R21" s="3">
         <v>92.034999999999997</v>
       </c>
-      <c r="O21" s="3">
+      <c r="S21" s="3">
         <v>99.293999999999997</v>
       </c>
-      <c r="P21" s="3">
+      <c r="T21" s="3">
         <v>97.802000000000007</v>
       </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -2159,25 +2679,29 @@
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
-    </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+    </row>
+    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:F22" si="6">+C19-C20-C21</f>
+        <f t="shared" ref="C22:F22" si="9">+C19-C20-C21</f>
         <v>139.81999999999996</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>155.38499999999999</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G22" s="3">
@@ -2192,29 +2716,41 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3">
-        <f t="shared" ref="L22:P22" si="7">+L19-L20-L21</f>
-        <v>0</v>
+        <f t="shared" ref="L22:O22" si="10">+L19-L20-L21</f>
+        <v>179.59099999999992</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>113.16400000000021</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>696.36299999999994</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" ref="O22:T22" si="11">+O19-O20-O21</f>
+        <v>-115.98199999999997</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="11"/>
+        <v>1382.8370000000011</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="11"/>
+        <v>996.90400000000022</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" si="11"/>
         <v>556.79800000000046</v>
       </c>
-      <c r="O22" s="3">
-        <f t="shared" si="7"/>
+      <c r="S22" s="3">
+        <f t="shared" si="11"/>
         <v>325.14100000000008</v>
       </c>
-      <c r="P22" s="3">
-        <f t="shared" si="7"/>
+      <c r="T22" s="3">
+        <f t="shared" si="11"/>
         <v>644.96999999999991</v>
       </c>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -2233,8 +2769,12 @@
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
-    </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+    </row>
+    <row r="23" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
@@ -2255,21 +2795,33 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="3">
+        <v>21.251000000000001</v>
+      </c>
+      <c r="M23" s="3">
+        <v>94.266000000000005</v>
+      </c>
       <c r="N23" s="3">
+        <v>76.171000000000006</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-12.276999999999999</v>
+      </c>
+      <c r="P23" s="3">
+        <v>261.92399999999998</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>169.67</v>
+      </c>
+      <c r="R23" s="3">
         <v>88.465999999999994</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>61.21</v>
       </c>
-      <c r="P23" s="3">
+      <c r="T23" s="3">
         <v>110.435</v>
       </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -2288,8 +2840,12 @@
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
-    </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+    </row>
+    <row r="24" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
@@ -2310,21 +2866,33 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="L24" s="3">
+        <v>125.36</v>
+      </c>
+      <c r="M24" s="3">
+        <v>15.959</v>
+      </c>
       <c r="N24" s="3">
+        <v>330.75099999999998</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-45.11</v>
+      </c>
+      <c r="P24" s="3">
+        <v>471.71600000000001</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>350.35599999999999</v>
+      </c>
+      <c r="R24" s="3">
         <v>203.30600000000001</v>
       </c>
-      <c r="O24" s="3">
+      <c r="S24" s="3">
         <v>121.88500000000001</v>
       </c>
-      <c r="P24" s="3">
+      <c r="T24" s="3">
         <v>258.12</v>
       </c>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -2343,25 +2911,29 @@
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
-    </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+    </row>
+    <row r="25" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:F25" si="8">+C22-SUM(C23:C24)</f>
+        <f t="shared" ref="C25:F25" si="12">+C22-SUM(C23:C24)</f>
         <v>55.816999999999965</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>66.585999999999984</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G25" s="3">
@@ -2376,29 +2948,41 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3">
-        <f t="shared" ref="L25:O25" si="9">+L22-L23-L24</f>
-        <v>0</v>
+        <f t="shared" ref="L25:O25" si="13">+L22-L23-L24</f>
+        <v>32.979999999999919</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2.9390000000002097</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
+        <v>289.44099999999992</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" ref="O25:S25" si="14">+O22-O23-O24</f>
+        <v>-58.59499999999997</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="14"/>
+        <v>649.19700000000114</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="14"/>
+        <v>476.87800000000027</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="14"/>
         <v>265.02600000000041</v>
       </c>
-      <c r="O25" s="3">
-        <f t="shared" si="9"/>
+      <c r="S25" s="3">
+        <f t="shared" si="14"/>
         <v>142.04600000000011</v>
       </c>
-      <c r="P25" s="3">
-        <f>+P22-P23-P24</f>
+      <c r="T25" s="3">
+        <f>+T22-T23-T24</f>
         <v>276.41499999999985</v>
       </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
@@ -2417,8 +3001,12 @@
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
-    </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+    </row>
+    <row r="26" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2455,25 +3043,29 @@
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-    </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+    </row>
+    <row r="27" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="24">
-        <f t="shared" ref="C27:F27" si="10">+C25/C28</f>
+        <f t="shared" ref="C27:F27" si="15">+C25/C28</f>
         <v>0.62716349044432107</v>
       </c>
       <c r="D27" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.75547609261265969</v>
       </c>
       <c r="E27" s="24" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="24" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="24">
@@ -2487,27 +3079,42 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="24" t="e">
-        <f t="shared" ref="M27:O27" si="11">+M25/M28</f>
-        <v>#DIV/0!</v>
+      <c r="L27" s="24">
+        <f t="shared" ref="L27:O27" si="16">+L25/L28</f>
+        <v>0.85575470779907581</v>
+      </c>
+      <c r="M27" s="24">
+        <f t="shared" si="16"/>
+        <v>4.6964526378095402E-2</v>
       </c>
       <c r="N27" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
+        <v>2.8692810375230451</v>
+      </c>
+      <c r="O27" s="24">
+        <f t="shared" ref="O27:S27" si="17">+O25/O28</f>
+        <v>-0.51436074212015248</v>
+      </c>
+      <c r="P27" s="24">
+        <f t="shared" si="17"/>
+        <v>5.3347355348926735</v>
+      </c>
+      <c r="Q27" s="24">
+        <f t="shared" si="17"/>
+        <v>4.0640861900778411</v>
+      </c>
+      <c r="R27" s="24">
+        <f t="shared" si="17"/>
         <v>2.5483326323221513</v>
       </c>
-      <c r="O27" s="24">
-        <f t="shared" si="11"/>
+      <c r="S27" s="24">
+        <f t="shared" si="17"/>
         <v>1.4955962898691488</v>
       </c>
-      <c r="P27" s="24">
-        <f>+P25/P28</f>
+      <c r="T27" s="24">
+        <f>+T25/T28</f>
         <v>3.1596727113351388</v>
       </c>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -2526,8 +3133,12 @@
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
-    </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+    </row>
+    <row r="28" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
@@ -2548,21 +3159,33 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="L28" s="3">
+        <v>38.539081000000003</v>
+      </c>
+      <c r="M28" s="3">
+        <v>62.579146999999999</v>
+      </c>
       <c r="N28" s="3">
+        <v>100.875793</v>
+      </c>
+      <c r="O28" s="3">
+        <v>113.918103</v>
+      </c>
+      <c r="P28" s="3">
+        <v>121.692443</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>117.339539</v>
+      </c>
+      <c r="R28" s="3">
         <v>103.99976700000001</v>
       </c>
-      <c r="O28" s="3">
+      <c r="S28" s="3">
         <v>94.976164999999995</v>
       </c>
-      <c r="P28" s="3">
+      <c r="T28" s="3">
         <v>87.482162000000002</v>
       </c>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -2581,8 +3204,12 @@
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
-    </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+    </row>
+    <row r="29" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2619,8 +3246,12 @@
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
-    </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+    </row>
+    <row r="30" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
@@ -2633,33 +3264,45 @@
         <v>0.32408936432706636</v>
       </c>
       <c r="H30" s="25">
-        <f t="shared" ref="H30:H31" si="12">+H3/D3-1</f>
+        <f t="shared" ref="H30:H31" si="18">+H3/D3-1</f>
         <v>0.38051328312708521</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="25" t="e">
-        <f t="shared" ref="M30:N30" si="13">+M3/L3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="25" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="M30" s="25">
+        <f t="shared" ref="M30:M31" si="19">+M3/L3-1</f>
+        <v>0.20931687970815904</v>
+      </c>
+      <c r="N30" s="25">
+        <f t="shared" ref="N30:N31" si="20">+N3/M3-1</f>
+        <v>0.65467122899653041</v>
       </c>
       <c r="O30" s="25">
-        <f t="shared" ref="O30" si="14">+O3/N3-1</f>
+        <f t="shared" ref="O30:O31" si="21">+O3/N3-1</f>
+        <v>-0.25741237653262061</v>
+      </c>
+      <c r="P30" s="25">
+        <f t="shared" ref="P30:P31" si="22">+P3/O3-1</f>
+        <v>1.5224755712999007</v>
+      </c>
+      <c r="Q30" s="25">
+        <f t="shared" ref="Q30:R30" si="23">+Q3/P3-1</f>
+        <v>-0.15049923997683312</v>
+      </c>
+      <c r="R30" s="25">
+        <f t="shared" si="23"/>
+        <v>-0.17712158529599464</v>
+      </c>
+      <c r="S30" s="25">
+        <f t="shared" ref="S30" si="24">+S3/R3-1</f>
         <v>1.6925937714270312E-2</v>
       </c>
-      <c r="P30" s="25">
-        <f>+P3/O3-1</f>
+      <c r="T30" s="25">
+        <f>+T3/S3-1</f>
         <v>0.28780384079829768</v>
       </c>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -2678,8 +3321,12 @@
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
-    </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+    </row>
+    <row r="31" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>67</v>
       </c>
@@ -2692,33 +3339,45 @@
         <v>0.19713383366726678</v>
       </c>
       <c r="H31" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.68809765541992296</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="25" t="e">
-        <f t="shared" ref="M31:N31" si="15">+M4/L4-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="25" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+      <c r="M31" s="25">
+        <f t="shared" si="19"/>
+        <v>7.5917082700238891E-2</v>
+      </c>
+      <c r="N31" s="25">
+        <f t="shared" si="20"/>
+        <v>4.0066374136278808</v>
       </c>
       <c r="O31" s="25">
-        <f t="shared" ref="O31" si="16">+O4/N4-1</f>
+        <f t="shared" si="21"/>
+        <v>-9.2619269724157904E-3</v>
+      </c>
+      <c r="P31" s="25">
+        <f t="shared" si="22"/>
+        <v>0.32213830185302683</v>
+      </c>
+      <c r="Q31" s="25">
+        <f t="shared" ref="Q31:R31" si="25">+Q4/P4-1</f>
+        <v>-7.6795412701513355E-2</v>
+      </c>
+      <c r="R31" s="25">
+        <f t="shared" si="25"/>
+        <v>-0.14323867280891023</v>
+      </c>
+      <c r="S31" s="25">
+        <f t="shared" ref="S31" si="26">+S4/R4-1</f>
         <v>-0.13164839054062205</v>
       </c>
-      <c r="P31" s="25">
-        <f>+P4/O4-1</f>
+      <c r="T31" s="25">
+        <f>+T4/S4-1</f>
         <v>0.13590658885390416</v>
       </c>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
@@ -2737,8 +3396,12 @@
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
-    </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+    </row>
+    <row r="32" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
@@ -2751,33 +3414,45 @@
         <v>0.4457001433489749</v>
       </c>
       <c r="H32" s="25">
-        <f t="shared" ref="H32:H34" si="17">+H6/D6-1</f>
+        <f t="shared" ref="H32:H34" si="27">+H6/D6-1</f>
         <v>0.53096541938812614</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="25" t="e">
-        <f t="shared" ref="M32:N32" si="18">+M6/L6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="25" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+      <c r="M32" s="25">
+        <f t="shared" ref="M32:M34" si="28">+M6/L6-1</f>
+        <v>0.15111538548233194</v>
+      </c>
+      <c r="N32" s="25">
+        <f t="shared" ref="N32:N34" si="29">+N6/M6-1</f>
+        <v>0.65357356855567739</v>
       </c>
       <c r="O32" s="25">
-        <f t="shared" ref="O32:P33" si="19">+O6/N6-1</f>
+        <f t="shared" ref="O32:O34" si="30">+O6/N6-1</f>
+        <v>-0.27975924501966554</v>
+      </c>
+      <c r="P32" s="25">
+        <f t="shared" ref="P32:P34" si="31">+P6/O6-1</f>
+        <v>1.7328776432727255</v>
+      </c>
+      <c r="Q32" s="25">
+        <f t="shared" ref="Q32:R32" si="32">+Q6/P6-1</f>
+        <v>-0.15564195779962531</v>
+      </c>
+      <c r="R32" s="25">
+        <f t="shared" si="32"/>
+        <v>-0.22624803224785939</v>
+      </c>
+      <c r="S32" s="25">
+        <f t="shared" ref="S32:T33" si="33">+S6/R6-1</f>
         <v>-0.20108932542123559</v>
       </c>
-      <c r="P32" s="25">
-        <f t="shared" si="19"/>
+      <c r="T32" s="25">
+        <f t="shared" si="33"/>
         <v>0.40042678953451194</v>
       </c>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
@@ -2796,8 +3471,12 @@
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
-    </row>
-    <row r="33" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+    </row>
+    <row r="33" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
@@ -2806,37 +3485,49 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="25">
-        <f t="shared" ref="G33:G34" si="20">+G7/C7-1</f>
+        <f t="shared" ref="G33:G34" si="34">+G7/C7-1</f>
         <v>2.8879538078345535E-2</v>
       </c>
       <c r="H33" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.19931630956606217</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="25" t="e">
-        <f t="shared" ref="M33:N33" si="21">+M7/L7-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="25" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+      <c r="M33" s="25">
+        <f t="shared" si="28"/>
+        <v>0.90798289110110142</v>
+      </c>
+      <c r="N33" s="25">
+        <f t="shared" si="29"/>
+        <v>0.7360287261689844</v>
       </c>
       <c r="O33" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
+        <v>0.24306349133793503</v>
+      </c>
+      <c r="P33" s="25">
+        <f t="shared" si="31"/>
+        <v>-0.42893783669491992</v>
+      </c>
+      <c r="Q33" s="25">
+        <f t="shared" ref="Q33:R33" si="35">+Q7/P7-1</f>
+        <v>0.21354175051111568</v>
+      </c>
+      <c r="R33" s="25">
+        <f t="shared" si="35"/>
+        <v>1.1107927411652341</v>
+      </c>
+      <c r="S33" s="25">
+        <f t="shared" si="33"/>
         <v>1.9070261437908496</v>
       </c>
-      <c r="P33" s="25">
-        <f t="shared" si="19"/>
+      <c r="T33" s="25">
+        <f t="shared" si="33"/>
         <v>-1.0722794152617787E-3</v>
       </c>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
@@ -2855,8 +3546,12 @@
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
-    </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+    </row>
+    <row r="34" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
@@ -2865,37 +3560,49 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>0.27565740108421632</v>
       </c>
       <c r="H34" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.22012513778637777</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="25" t="e">
-        <f t="shared" ref="M34:N34" si="22">+M8/L8-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N34" s="25" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+      <c r="M34" s="25">
+        <f t="shared" si="28"/>
+        <v>10.254153786707882</v>
+      </c>
+      <c r="N34" s="25">
+        <f t="shared" si="29"/>
+        <v>0.58226826776992868</v>
       </c>
       <c r="O34" s="25">
-        <f t="shared" ref="O34" si="23">+O8/N8-1</f>
+        <f t="shared" si="30"/>
+        <v>1.704495521837484</v>
+      </c>
+      <c r="P34" s="25">
+        <f t="shared" si="31"/>
+        <v>0.20452758432555607</v>
+      </c>
+      <c r="Q34" s="25">
+        <f t="shared" ref="Q34:R34" si="36">+Q8/P8-1</f>
+        <v>2.3278546568749947E-2</v>
+      </c>
+      <c r="R34" s="25">
+        <f t="shared" si="36"/>
+        <v>-0.13774697350155984</v>
+      </c>
+      <c r="S34" s="25">
+        <f t="shared" ref="S34" si="37">+S8/R8-1</f>
         <v>-0.14012966056110754</v>
       </c>
-      <c r="P34" s="25">
-        <f>+P8/O8-1</f>
+      <c r="T34" s="25">
+        <f>+T8/S8-1</f>
         <v>0.13429602412653252</v>
       </c>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
@@ -2914,8 +3621,12 @@
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
-    </row>
-    <row r="35" spans="2:38" ht="15" x14ac:dyDescent="0.25">
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+    </row>
+    <row r="35" spans="2:42" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
@@ -2928,33 +3639,45 @@
         <v>0.30338856229942479</v>
       </c>
       <c r="H35" s="26">
-        <f t="shared" ref="H35" si="24">+H10/D10-1</f>
+        <f t="shared" ref="H35" si="38">+H10/D10-1</f>
         <v>0.44241650252169951</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="26" t="e">
-        <f t="shared" ref="M35:O35" si="25">+M10/L10-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="26" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+      <c r="M35" s="26">
+        <f t="shared" ref="M35" si="39">+M10/L10-1</f>
+        <v>0.46379465506242634</v>
+      </c>
+      <c r="N35" s="26">
+        <f t="shared" ref="N35" si="40">+N10/M10-1</f>
+        <v>0.82757869301213427</v>
       </c>
       <c r="O35" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="O35" si="41">+O10/N10-1</f>
+        <v>-0.1922726029132632</v>
+      </c>
+      <c r="P35" s="26">
+        <f t="shared" ref="P35" si="42">+P10/O10-1</f>
+        <v>1.1346610064501168</v>
+      </c>
+      <c r="Q35" s="26">
+        <f t="shared" ref="Q35:S35" si="43">+Q10/P10-1</f>
+        <v>-0.132078506333561</v>
+      </c>
+      <c r="R35" s="26">
+        <f t="shared" si="43"/>
+        <v>-0.1588744026733202</v>
+      </c>
+      <c r="S35" s="26">
+        <f t="shared" si="43"/>
         <v>-3.0209166732915849E-2</v>
       </c>
-      <c r="P35" s="26">
-        <f>+P10/O10-1</f>
+      <c r="T35" s="26">
+        <f>+T10/S10-1</f>
         <v>0.25446187776693985</v>
       </c>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -2973,25 +3696,29 @@
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
-    </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+    </row>
+    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="25">
-        <f t="shared" ref="C36:F36" si="26">+C13/C10</f>
+        <f t="shared" ref="C36:F36" si="44">+C13/C10</f>
         <v>0.58647966287048547</v>
       </c>
       <c r="D36" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>0.60391639068666703</v>
       </c>
       <c r="E36" s="25" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="25" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G36" s="25">
@@ -2999,36 +3726,45 @@
         <v>0.57845080794253034</v>
       </c>
       <c r="H36" s="25">
-        <f t="shared" ref="H36" si="27">+H13/H10</f>
+        <f t="shared" ref="H36" si="45">+H13/H10</f>
         <v>0.6325050796690187</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="25" t="e">
-        <f t="shared" ref="L36:P36" si="28">+L13/L10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="25" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+      <c r="L36" s="3"/>
+      <c r="M36" s="25">
+        <f t="shared" ref="M36:P36" si="46">+M13/M10</f>
+        <v>0.63360642501522413</v>
       </c>
       <c r="N36" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="46"/>
+        <v>0.72415338544688446</v>
+      </c>
+      <c r="O36" s="25">
+        <f t="shared" si="46"/>
+        <v>0.64090288449626098</v>
+      </c>
+      <c r="P36" s="25">
+        <f t="shared" ref="P36:Q36" si="47">+P13/P10</f>
+        <v>0.72695226267399049</v>
+      </c>
+      <c r="Q36" s="25">
+        <f t="shared" ref="Q36:T36" si="48">+Q13/Q10</f>
+        <v>0.68517064825172469</v>
+      </c>
+      <c r="R36" s="25">
+        <f t="shared" si="48"/>
         <v>0.64046698003900526</v>
       </c>
-      <c r="O36" s="25">
-        <f t="shared" si="28"/>
+      <c r="S36" s="25">
+        <f t="shared" si="48"/>
         <v>0.56011298641782215</v>
       </c>
-      <c r="P36" s="25">
-        <f t="shared" si="28"/>
+      <c r="T36" s="25">
+        <f t="shared" si="48"/>
         <v>0.58163909057824803</v>
       </c>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
@@ -3047,25 +3783,29 @@
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
-    </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+    </row>
+    <row r="37" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="25">
-        <f t="shared" ref="C37:F37" si="29">+C19/C10</f>
+        <f t="shared" ref="C37:F37" si="49">+C19/C10</f>
         <v>0.25627878831247008</v>
       </c>
       <c r="D37" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>0.29307127859910387</v>
       </c>
       <c r="E37" s="25" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="25" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G37" s="25">
@@ -3073,36 +3813,45 @@
         <v>0.30471111832517966</v>
       </c>
       <c r="H37" s="25">
-        <f t="shared" ref="H37" si="30">+H19/H10</f>
+        <f t="shared" ref="H37" si="50">+H19/H10</f>
         <v>0.38141586457417315</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="25" t="e">
-        <f t="shared" ref="L37:P37" si="31">+L19/L10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="25" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
+      <c r="L37" s="3"/>
+      <c r="M37" s="25">
+        <f t="shared" ref="M37:P37" si="51">+M19/M10</f>
+        <v>0.18262090192240737</v>
       </c>
       <c r="N37" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
+        <v>0.41511818165365949</v>
+      </c>
+      <c r="O37" s="25">
+        <f t="shared" si="51"/>
+        <v>3.0978087528632781E-2</v>
+      </c>
+      <c r="P37" s="25">
+        <f t="shared" ref="P37:Q37" si="52">+P19/P10</f>
+        <v>0.46288909654493493</v>
+      </c>
+      <c r="Q37" s="25">
+        <f t="shared" ref="Q37:T37" si="53">+Q19/Q10</f>
+        <v>0.3853703647716421</v>
+      </c>
+      <c r="R37" s="25">
+        <f t="shared" si="53"/>
         <v>0.2870177417908909</v>
       </c>
-      <c r="O37" s="25">
-        <f t="shared" si="31"/>
+      <c r="S37" s="25">
+        <f t="shared" si="53"/>
         <v>0.18869673620470812</v>
       </c>
-      <c r="P37" s="25">
-        <f t="shared" si="31"/>
+      <c r="T37" s="25">
+        <f t="shared" si="53"/>
         <v>0.26842707326407245</v>
       </c>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
@@ -3121,25 +3870,29 @@
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
-    </row>
-    <row r="38" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+    </row>
+    <row r="38" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="25">
-        <f t="shared" ref="C38:F38" si="32">+C23/C22</f>
+        <f t="shared" ref="C38:F38" si="54">+C23/C22</f>
         <v>0.20391932484623093</v>
       </c>
       <c r="D38" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="54"/>
         <v>0.17548669433986552</v>
       </c>
       <c r="E38" s="25" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="25" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G38" s="25">
@@ -3147,36 +3900,45 @@
         <v>0.15241624056924236</v>
       </c>
       <c r="H38" s="25">
-        <f t="shared" ref="H38" si="33">+H23/H22</f>
+        <f t="shared" ref="H38" si="55">+H23/H22</f>
         <v>0.15573742147426661</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="25" t="e">
-        <f t="shared" ref="L38:P38" si="34">+L23/L22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="25" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+      <c r="L38" s="3"/>
+      <c r="M38" s="25">
+        <f t="shared" ref="M38:P38" si="56">+M23/M22</f>
+        <v>0.83300342865221999</v>
       </c>
       <c r="N38" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="56"/>
+        <v>0.10938404251805454</v>
+      </c>
+      <c r="O38" s="25">
+        <f t="shared" si="56"/>
+        <v>0.10585263230501286</v>
+      </c>
+      <c r="P38" s="25">
+        <f t="shared" ref="P38:Q38" si="57">+P23/P22</f>
+        <v>0.18941061021653294</v>
+      </c>
+      <c r="Q38" s="25">
+        <f t="shared" ref="Q38:T38" si="58">+Q23/Q22</f>
+        <v>0.17019692969433362</v>
+      </c>
+      <c r="R38" s="25">
+        <f t="shared" si="58"/>
         <v>0.15888347300098046</v>
       </c>
-      <c r="O38" s="25">
-        <f t="shared" si="34"/>
+      <c r="S38" s="25">
+        <f t="shared" si="58"/>
         <v>0.18825678705546206</v>
       </c>
-      <c r="P38" s="25">
-        <f t="shared" si="34"/>
+      <c r="T38" s="25">
+        <f t="shared" si="58"/>
         <v>0.17122501821790165</v>
       </c>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
@@ -3195,8 +3957,12 @@
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
-    </row>
-    <row r="39" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+    </row>
+    <row r="39" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3233,8 +3999,15 @@
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
-    </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+    </row>
+    <row r="40" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3251,8 +4024,12 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
+      <c r="S40" s="3">
+        <v>820.43600000000004</v>
+      </c>
+      <c r="T40" s="3">
+        <v>872.51300000000003</v>
+      </c>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
@@ -3271,8 +4048,15 @@
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
-    </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+    </row>
+    <row r="41" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3289,8 +4073,12 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
+      <c r="S41" s="3">
+        <v>35.024000000000001</v>
+      </c>
+      <c r="T41" s="3">
+        <v>41.478000000000002</v>
+      </c>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
@@ -3309,8 +4097,15 @@
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
-    </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+    </row>
+    <row r="42" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3327,8 +4122,12 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
+      <c r="S42" s="3">
+        <v>1722.44</v>
+      </c>
+      <c r="T42" s="3">
+        <v>2294.529</v>
+      </c>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
@@ -3347,8 +4146,15 @@
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
-    </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+    </row>
+    <row r="43" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3365,8 +4171,12 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
+      <c r="S43" s="3">
+        <v>1512.114</v>
+      </c>
+      <c r="T43" s="3">
+        <v>983.94100000000003</v>
+      </c>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
@@ -3385,8 +4195,15 @@
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
-    </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+    </row>
+    <row r="44" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3403,8 +4220,12 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
+      <c r="S44" s="3">
+        <v>737.72400000000005</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1100.8499999999999</v>
+      </c>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
@@ -3423,8 +4244,15 @@
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
-    </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3"/>
+    </row>
+    <row r="45" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3441,8 +4269,12 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
+      <c r="S45" s="3">
+        <v>6127.7520000000004</v>
+      </c>
+      <c r="T45" s="3">
+        <v>5520.0150000000003</v>
+      </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
@@ -3461,8 +4293,15 @@
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
-    </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="3"/>
+    </row>
+    <row r="46" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3479,8 +4318,12 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
+      <c r="S46" s="3">
+        <v>1230.8589999999999</v>
+      </c>
+      <c r="T46" s="3">
+        <v>2282.6370000000002</v>
+      </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -3499,8 +4342,15 @@
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
-    </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="3"/>
+      <c r="AO46" s="3"/>
+      <c r="AP46" s="3"/>
+    </row>
+    <row r="47" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3517,8 +4367,12 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
+      <c r="S47" s="3">
+        <v>106.245</v>
+      </c>
+      <c r="T47" s="3">
+        <v>149.804</v>
+      </c>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -3537,8 +4391,15 @@
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
-    </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="3"/>
+    </row>
+    <row r="48" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3553,10 +4414,22 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
+      <c r="Q48" s="3">
+        <f t="shared" ref="Q48:S48" si="59">+SUM(Q40:Q47)</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <f t="shared" si="59"/>
+        <v>12292.594000000003</v>
+      </c>
+      <c r="T48" s="3">
+        <f>+SUM(T40:T47)</f>
+        <v>13245.767000000002</v>
+      </c>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
@@ -3575,8 +4448,15 @@
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
-    </row>
-    <row r="49" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+    </row>
+    <row r="49" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3593,8 +4473,12 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
+      <c r="S49" s="3">
+        <v>100.36499999999999</v>
+      </c>
+      <c r="T49" s="3">
+        <v>91.415000000000006</v>
+      </c>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
@@ -3613,8 +4497,15 @@
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
-    </row>
-    <row r="50" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+    </row>
+    <row r="50" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3631,8 +4522,12 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
+      <c r="S50" s="3">
+        <v>229.499</v>
+      </c>
+      <c r="T50" s="3">
+        <v>175.04599999999999</v>
+      </c>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
@@ -3651,8 +4546,15 @@
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
-    </row>
-    <row r="51" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM50" s="3"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="3"/>
+      <c r="AP50" s="3"/>
+    </row>
+    <row r="51" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3669,8 +4571,12 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
+      <c r="S51" s="3">
+        <v>1148.9259999999999</v>
+      </c>
+      <c r="T51" s="3">
+        <v>1148.9259999999999</v>
+      </c>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
@@ -3689,8 +4595,15 @@
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
-    </row>
-    <row r="52" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM51" s="3"/>
+      <c r="AN51" s="3"/>
+      <c r="AO51" s="3"/>
+      <c r="AP51" s="3"/>
+    </row>
+    <row r="52" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3707,8 +4620,12 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
+      <c r="S52" s="3">
+        <v>257.52</v>
+      </c>
+      <c r="T52" s="3">
+        <v>203.18799999999999</v>
+      </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
@@ -3727,8 +4644,15 @@
       <c r="AJ52" s="3"/>
       <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
-    </row>
-    <row r="53" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM52" s="3"/>
+      <c r="AN52" s="3"/>
+      <c r="AO52" s="3"/>
+      <c r="AP52" s="3"/>
+    </row>
+    <row r="53" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3745,8 +4669,12 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
+      <c r="S53" s="3">
+        <v>133.76</v>
+      </c>
+      <c r="T53" s="3">
+        <v>135.04599999999999</v>
+      </c>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
@@ -3765,8 +4693,15 @@
       <c r="AJ53" s="3"/>
       <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
-    </row>
-    <row r="54" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM53" s="3"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="3"/>
+      <c r="AP53" s="3"/>
+    </row>
+    <row r="54" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3783,8 +4718,13 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
+      <c r="S54" s="3">
+        <v>303.72000000000003</v>
+      </c>
+      <c r="T54" s="3">
+        <f>4.615+357.74</f>
+        <v>362.35500000000002</v>
+      </c>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
@@ -3803,8 +4743,15 @@
       <c r="AJ54" s="3"/>
       <c r="AK54" s="3"/>
       <c r="AL54" s="3"/>
-    </row>
-    <row r="55" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="3"/>
+    </row>
+    <row r="55" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3818,11 +4765,26 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
+      <c r="P55" s="3">
+        <f t="shared" ref="P55:S55" si="60">+SUM(P49:P54)</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="3">
+        <f t="shared" si="60"/>
+        <v>2173.79</v>
+      </c>
+      <c r="T55" s="3">
+        <f>+SUM(T49:T54)</f>
+        <v>2115.9759999999997</v>
+      </c>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
@@ -3841,29 +4803,45 @@
       <c r="AJ55" s="3"/>
       <c r="AK55" s="3"/>
       <c r="AL55" s="3"/>
-    </row>
-    <row r="56" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
+      <c r="AM55" s="3"/>
+      <c r="AN55" s="3"/>
+      <c r="AO55" s="3"/>
+      <c r="AP55" s="3"/>
+    </row>
+    <row r="56" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23">
+        <f t="shared" ref="R56:S56" si="61">+R55+R48</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="23">
+        <f t="shared" si="61"/>
+        <v>14466.384000000002</v>
+      </c>
+      <c r="T56" s="23">
+        <f>+T55+T48</f>
+        <v>15361.743000000002</v>
+      </c>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
@@ -3879,8 +4857,15 @@
       <c r="AJ56" s="3"/>
       <c r="AK56" s="3"/>
       <c r="AL56" s="3"/>
-    </row>
-    <row r="57" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM56" s="3"/>
+      <c r="AN56" s="3"/>
+      <c r="AO56" s="3"/>
+      <c r="AP56" s="3"/>
+    </row>
+    <row r="57" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3897,8 +4882,12 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>38.540999999999997</v>
+      </c>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
@@ -3917,8 +4906,15 @@
       <c r="AJ57" s="3"/>
       <c r="AK57" s="3"/>
       <c r="AL57" s="3"/>
-    </row>
-    <row r="58" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM57" s="3"/>
+      <c r="AN57" s="3"/>
+      <c r="AO57" s="3"/>
+      <c r="AP57" s="3"/>
+    </row>
+    <row r="58" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3935,8 +4931,12 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
+      <c r="S58" s="3">
+        <v>1329.4459999999999</v>
+      </c>
+      <c r="T58" s="3">
+        <v>2431.8780000000002</v>
+      </c>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
@@ -3955,8 +4955,15 @@
       <c r="AJ58" s="3"/>
       <c r="AK58" s="3"/>
       <c r="AL58" s="3"/>
-    </row>
-    <row r="59" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM58" s="3"/>
+      <c r="AN58" s="3"/>
+      <c r="AO58" s="3"/>
+      <c r="AP58" s="3"/>
+    </row>
+    <row r="59" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3973,8 +4980,12 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
+      <c r="S59" s="3">
+        <v>1795.9939999999999</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1271.788</v>
+      </c>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
@@ -3993,8 +5004,15 @@
       <c r="AJ59" s="3"/>
       <c r="AK59" s="3"/>
       <c r="AL59" s="3"/>
-    </row>
-    <row r="60" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM59" s="3"/>
+      <c r="AN59" s="3"/>
+      <c r="AO59" s="3"/>
+      <c r="AP59" s="3"/>
+    </row>
+    <row r="60" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4011,8 +5029,12 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
+      <c r="S60" s="3">
+        <v>1167.712</v>
+      </c>
+      <c r="T60" s="3">
+        <v>918.56600000000003</v>
+      </c>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
@@ -4031,8 +5053,15 @@
       <c r="AJ60" s="3"/>
       <c r="AK60" s="3"/>
       <c r="AL60" s="3"/>
-    </row>
-    <row r="61" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM60" s="3"/>
+      <c r="AN60" s="3"/>
+      <c r="AO60" s="3"/>
+      <c r="AP60" s="3"/>
+    </row>
+    <row r="61" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4049,8 +5078,12 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
+      <c r="S61" s="3">
+        <v>23.228999999999999</v>
+      </c>
+      <c r="T61" s="3">
+        <v>46.112000000000002</v>
+      </c>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
@@ -4069,8 +5102,15 @@
       <c r="AJ61" s="3"/>
       <c r="AK61" s="3"/>
       <c r="AL61" s="3"/>
-    </row>
-    <row r="62" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM61" s="3"/>
+      <c r="AN61" s="3"/>
+      <c r="AO61" s="3"/>
+      <c r="AP61" s="3"/>
+    </row>
+    <row r="62" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4087,8 +5127,12 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
+      <c r="S62" s="3">
+        <v>6071.3519999999999</v>
+      </c>
+      <c r="T62" s="3">
+        <v>6440.9709999999995</v>
+      </c>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
@@ -4107,8 +5151,15 @@
       <c r="AJ62" s="3"/>
       <c r="AK62" s="3"/>
       <c r="AL62" s="3"/>
-    </row>
-    <row r="63" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM62" s="3"/>
+      <c r="AN62" s="3"/>
+      <c r="AO62" s="3"/>
+      <c r="AP62" s="3"/>
+    </row>
+    <row r="63" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4125,8 +5176,12 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
+      <c r="S63" s="3">
+        <v>216.48</v>
+      </c>
+      <c r="T63" s="3">
+        <v>196.59200000000001</v>
+      </c>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
@@ -4145,8 +5200,15 @@
       <c r="AJ63" s="3"/>
       <c r="AK63" s="3"/>
       <c r="AL63" s="3"/>
-    </row>
-    <row r="64" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM63" s="3"/>
+      <c r="AN63" s="3"/>
+      <c r="AO63" s="3"/>
+      <c r="AP63" s="3"/>
+    </row>
+    <row r="64" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4163,8 +5225,12 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
+      <c r="S64" s="3">
+        <v>451.29300000000001</v>
+      </c>
+      <c r="T64" s="3">
+        <v>558.1</v>
+      </c>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
@@ -4183,8 +5249,15 @@
       <c r="AJ64" s="3"/>
       <c r="AK64" s="3"/>
       <c r="AL64" s="3"/>
-    </row>
-    <row r="65" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM64" s="3"/>
+      <c r="AN64" s="3"/>
+      <c r="AO64" s="3"/>
+      <c r="AP64" s="3"/>
+    </row>
+    <row r="65" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4197,12 +5270,30 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
+      <c r="O65" s="3">
+        <f t="shared" ref="O65:S65" si="62">+SUM(O57:O64)</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <f t="shared" si="62"/>
+        <v>11055.505999999999</v>
+      </c>
+      <c r="T65" s="3">
+        <f>+SUM(T57:T64)</f>
+        <v>11902.548000000001</v>
+      </c>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
@@ -4221,8 +5312,15 @@
       <c r="AJ65" s="3"/>
       <c r="AK65" s="3"/>
       <c r="AL65" s="3"/>
-    </row>
-    <row r="66" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM65" s="3"/>
+      <c r="AN65" s="3"/>
+      <c r="AO65" s="3"/>
+      <c r="AP65" s="3"/>
+    </row>
+    <row r="66" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4239,8 +5337,12 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
+      <c r="S66" s="3">
+        <v>278.31700000000001</v>
+      </c>
+      <c r="T66" s="3">
+        <v>229.82499999999999</v>
+      </c>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
@@ -4259,8 +5361,15 @@
       <c r="AJ66" s="3"/>
       <c r="AK66" s="3"/>
       <c r="AL66" s="3"/>
-    </row>
-    <row r="67" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM66" s="3"/>
+      <c r="AN66" s="3"/>
+      <c r="AO66" s="3"/>
+      <c r="AP66" s="3"/>
+    </row>
+    <row r="67" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4277,8 +5386,12 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
+      <c r="S67" s="3">
+        <v>1727.2049999999999</v>
+      </c>
+      <c r="T67" s="3">
+        <v>1740.4670000000001</v>
+      </c>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
@@ -4297,8 +5410,15 @@
       <c r="AJ67" s="3"/>
       <c r="AK67" s="3"/>
       <c r="AL67" s="3"/>
-    </row>
-    <row r="68" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM67" s="3"/>
+      <c r="AN67" s="3"/>
+      <c r="AO67" s="3"/>
+      <c r="AP67" s="3"/>
+    </row>
+    <row r="68" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4315,8 +5435,12 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>1.526</v>
+      </c>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
@@ -4335,8 +5459,15 @@
       <c r="AJ68" s="3"/>
       <c r="AK68" s="3"/>
       <c r="AL68" s="3"/>
-    </row>
-    <row r="69" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM68" s="3"/>
+      <c r="AN68" s="3"/>
+      <c r="AO68" s="3"/>
+      <c r="AP68" s="3"/>
+    </row>
+    <row r="69" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4350,11 +5481,26 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
+      <c r="P69" s="3">
+        <f t="shared" ref="P69:S69" si="63">+SUM(P66:P68)</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <f t="shared" si="63"/>
+        <v>2005.5219999999999</v>
+      </c>
+      <c r="T69" s="3">
+        <f>+SUM(T66:T68)</f>
+        <v>1971.8180000000002</v>
+      </c>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
@@ -4373,8 +5519,15 @@
       <c r="AJ69" s="3"/>
       <c r="AK69" s="3"/>
       <c r="AL69" s="3"/>
-    </row>
-    <row r="70" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM69" s="3"/>
+      <c r="AN69" s="3"/>
+      <c r="AO69" s="3"/>
+      <c r="AP69" s="3"/>
+    </row>
+    <row r="70" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4389,10 +5542,22 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
+      <c r="Q70" s="3">
+        <f t="shared" ref="Q70:S70" si="64">+Q69+Q65</f>
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <f t="shared" si="64"/>
+        <v>13061.027999999998</v>
+      </c>
+      <c r="T70" s="3">
+        <f>+T69+T65</f>
+        <v>13874.366000000002</v>
+      </c>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
@@ -4411,8 +5576,15 @@
       <c r="AJ70" s="3"/>
       <c r="AK70" s="3"/>
       <c r="AL70" s="3"/>
-    </row>
-    <row r="71" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM70" s="3"/>
+      <c r="AN70" s="3"/>
+      <c r="AO70" s="3"/>
+      <c r="AP70" s="3"/>
+    </row>
+    <row r="71" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4429,8 +5601,12 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
+      <c r="S71" s="3">
+        <v>1405.356</v>
+      </c>
+      <c r="T71" s="3">
+        <v>1487.377</v>
+      </c>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
@@ -4449,8 +5625,15 @@
       <c r="AJ71" s="3"/>
       <c r="AK71" s="3"/>
       <c r="AL71" s="3"/>
-    </row>
-    <row r="72" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM71" s="3"/>
+      <c r="AN71" s="3"/>
+      <c r="AO71" s="3"/>
+      <c r="AP71" s="3"/>
+    </row>
+    <row r="72" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4465,10 +5648,22 @@
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
+      <c r="Q72" s="23">
+        <f t="shared" ref="Q72" si="65">+Q70+Q71</f>
+        <v>0</v>
+      </c>
+      <c r="R72" s="23">
+        <f t="shared" ref="R72:S72" si="66">+R70+R71</f>
+        <v>0</v>
+      </c>
+      <c r="S72" s="23">
+        <f t="shared" si="66"/>
+        <v>14466.383999999998</v>
+      </c>
+      <c r="T72" s="23">
+        <f>+T70+T71</f>
+        <v>15361.743000000002</v>
+      </c>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
@@ -4487,8 +5682,12 @@
       <c r="AJ72" s="3"/>
       <c r="AK72" s="3"/>
       <c r="AL72" s="3"/>
-    </row>
-    <row r="73" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM72" s="3"/>
+      <c r="AN72" s="3"/>
+      <c r="AO72" s="3"/>
+      <c r="AP72" s="3"/>
+    </row>
+    <row r="73" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4525,8 +5724,12 @@
       <c r="AJ73" s="3"/>
       <c r="AK73" s="3"/>
       <c r="AL73" s="3"/>
-    </row>
-    <row r="74" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM73" s="3"/>
+      <c r="AN73" s="3"/>
+      <c r="AO73" s="3"/>
+      <c r="AP73" s="3"/>
+    </row>
+    <row r="74" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4563,8 +5766,12 @@
       <c r="AJ74" s="3"/>
       <c r="AK74" s="3"/>
       <c r="AL74" s="3"/>
-    </row>
-    <row r="75" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM74" s="3"/>
+      <c r="AN74" s="3"/>
+      <c r="AO74" s="3"/>
+      <c r="AP74" s="3"/>
+    </row>
+    <row r="75" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -4601,8 +5808,12 @@
       <c r="AJ75" s="3"/>
       <c r="AK75" s="3"/>
       <c r="AL75" s="3"/>
-    </row>
-    <row r="76" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM75" s="3"/>
+      <c r="AN75" s="3"/>
+      <c r="AO75" s="3"/>
+      <c r="AP75" s="3"/>
+    </row>
+    <row r="76" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4639,8 +5850,12 @@
       <c r="AJ76" s="3"/>
       <c r="AK76" s="3"/>
       <c r="AL76" s="3"/>
-    </row>
-    <row r="77" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM76" s="3"/>
+      <c r="AN76" s="3"/>
+      <c r="AO76" s="3"/>
+      <c r="AP76" s="3"/>
+    </row>
+    <row r="77" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4677,8 +5892,12 @@
       <c r="AJ77" s="3"/>
       <c r="AK77" s="3"/>
       <c r="AL77" s="3"/>
-    </row>
-    <row r="78" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM77" s="3"/>
+      <c r="AN77" s="3"/>
+      <c r="AO77" s="3"/>
+      <c r="AP77" s="3"/>
+    </row>
+    <row r="78" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -4715,8 +5934,12 @@
       <c r="AJ78" s="3"/>
       <c r="AK78" s="3"/>
       <c r="AL78" s="3"/>
-    </row>
-    <row r="79" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM78" s="3"/>
+      <c r="AN78" s="3"/>
+      <c r="AO78" s="3"/>
+      <c r="AP78" s="3"/>
+    </row>
+    <row r="79" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -4753,8 +5976,12 @@
       <c r="AJ79" s="3"/>
       <c r="AK79" s="3"/>
       <c r="AL79" s="3"/>
-    </row>
-    <row r="80" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM79" s="3"/>
+      <c r="AN79" s="3"/>
+      <c r="AO79" s="3"/>
+      <c r="AP79" s="3"/>
+    </row>
+    <row r="80" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -4791,8 +6018,12 @@
       <c r="AJ80" s="3"/>
       <c r="AK80" s="3"/>
       <c r="AL80" s="3"/>
-    </row>
-    <row r="81" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM80" s="3"/>
+      <c r="AN80" s="3"/>
+      <c r="AO80" s="3"/>
+      <c r="AP80" s="3"/>
+    </row>
+    <row r="81" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -4829,8 +6060,12 @@
       <c r="AJ81" s="3"/>
       <c r="AK81" s="3"/>
       <c r="AL81" s="3"/>
-    </row>
-    <row r="82" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM81" s="3"/>
+      <c r="AN81" s="3"/>
+      <c r="AO81" s="3"/>
+      <c r="AP81" s="3"/>
+    </row>
+    <row r="82" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -4867,8 +6102,12 @@
       <c r="AJ82" s="3"/>
       <c r="AK82" s="3"/>
       <c r="AL82" s="3"/>
-    </row>
-    <row r="83" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM82" s="3"/>
+      <c r="AN82" s="3"/>
+      <c r="AO82" s="3"/>
+      <c r="AP82" s="3"/>
+    </row>
+    <row r="83" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -4905,8 +6144,12 @@
       <c r="AJ83" s="3"/>
       <c r="AK83" s="3"/>
       <c r="AL83" s="3"/>
-    </row>
-    <row r="84" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM83" s="3"/>
+      <c r="AN83" s="3"/>
+      <c r="AO83" s="3"/>
+      <c r="AP83" s="3"/>
+    </row>
+    <row r="84" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -4943,8 +6186,12 @@
       <c r="AJ84" s="3"/>
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
-    </row>
-    <row r="85" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM84" s="3"/>
+      <c r="AN84" s="3"/>
+      <c r="AO84" s="3"/>
+      <c r="AP84" s="3"/>
+    </row>
+    <row r="85" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -4981,8 +6228,12 @@
       <c r="AJ85" s="3"/>
       <c r="AK85" s="3"/>
       <c r="AL85" s="3"/>
-    </row>
-    <row r="86" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM85" s="3"/>
+      <c r="AN85" s="3"/>
+      <c r="AO85" s="3"/>
+      <c r="AP85" s="3"/>
+    </row>
+    <row r="86" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5019,8 +6270,12 @@
       <c r="AJ86" s="3"/>
       <c r="AK86" s="3"/>
       <c r="AL86" s="3"/>
-    </row>
-    <row r="87" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM86" s="3"/>
+      <c r="AN86" s="3"/>
+      <c r="AO86" s="3"/>
+      <c r="AP86" s="3"/>
+    </row>
+    <row r="87" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5057,8 +6312,12 @@
       <c r="AJ87" s="3"/>
       <c r="AK87" s="3"/>
       <c r="AL87" s="3"/>
-    </row>
-    <row r="88" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM87" s="3"/>
+      <c r="AN87" s="3"/>
+      <c r="AO87" s="3"/>
+      <c r="AP87" s="3"/>
+    </row>
+    <row r="88" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5095,8 +6354,12 @@
       <c r="AJ88" s="3"/>
       <c r="AK88" s="3"/>
       <c r="AL88" s="3"/>
-    </row>
-    <row r="89" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM88" s="3"/>
+      <c r="AN88" s="3"/>
+      <c r="AO88" s="3"/>
+      <c r="AP88" s="3"/>
+    </row>
+    <row r="89" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5133,8 +6396,12 @@
       <c r="AJ89" s="3"/>
       <c r="AK89" s="3"/>
       <c r="AL89" s="3"/>
-    </row>
-    <row r="90" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM89" s="3"/>
+      <c r="AN89" s="3"/>
+      <c r="AO89" s="3"/>
+      <c r="AP89" s="3"/>
+    </row>
+    <row r="90" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -5171,8 +6438,12 @@
       <c r="AJ90" s="3"/>
       <c r="AK90" s="3"/>
       <c r="AL90" s="3"/>
-    </row>
-    <row r="91" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM90" s="3"/>
+      <c r="AN90" s="3"/>
+      <c r="AO90" s="3"/>
+      <c r="AP90" s="3"/>
+    </row>
+    <row r="91" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5209,8 +6480,12 @@
       <c r="AJ91" s="3"/>
       <c r="AK91" s="3"/>
       <c r="AL91" s="3"/>
-    </row>
-    <row r="92" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM91" s="3"/>
+      <c r="AN91" s="3"/>
+      <c r="AO91" s="3"/>
+      <c r="AP91" s="3"/>
+    </row>
+    <row r="92" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -5247,8 +6522,12 @@
       <c r="AJ92" s="3"/>
       <c r="AK92" s="3"/>
       <c r="AL92" s="3"/>
-    </row>
-    <row r="93" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM92" s="3"/>
+      <c r="AN92" s="3"/>
+      <c r="AO92" s="3"/>
+      <c r="AP92" s="3"/>
+    </row>
+    <row r="93" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -5285,8 +6564,12 @@
       <c r="AJ93" s="3"/>
       <c r="AK93" s="3"/>
       <c r="AL93" s="3"/>
-    </row>
-    <row r="94" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM93" s="3"/>
+      <c r="AN93" s="3"/>
+      <c r="AO93" s="3"/>
+      <c r="AP93" s="3"/>
+    </row>
+    <row r="94" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -5323,8 +6606,12 @@
       <c r="AJ94" s="3"/>
       <c r="AK94" s="3"/>
       <c r="AL94" s="3"/>
-    </row>
-    <row r="95" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM94" s="3"/>
+      <c r="AN94" s="3"/>
+      <c r="AO94" s="3"/>
+      <c r="AP94" s="3"/>
+    </row>
+    <row r="95" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -5361,8 +6648,12 @@
       <c r="AJ95" s="3"/>
       <c r="AK95" s="3"/>
       <c r="AL95" s="3"/>
-    </row>
-    <row r="96" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM95" s="3"/>
+      <c r="AN95" s="3"/>
+      <c r="AO95" s="3"/>
+      <c r="AP95" s="3"/>
+    </row>
+    <row r="96" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -5399,8 +6690,12 @@
       <c r="AJ96" s="3"/>
       <c r="AK96" s="3"/>
       <c r="AL96" s="3"/>
-    </row>
-    <row r="97" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM96" s="3"/>
+      <c r="AN96" s="3"/>
+      <c r="AO96" s="3"/>
+      <c r="AP96" s="3"/>
+    </row>
+    <row r="97" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -5437,8 +6732,12 @@
       <c r="AJ97" s="3"/>
       <c r="AK97" s="3"/>
       <c r="AL97" s="3"/>
-    </row>
-    <row r="98" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM97" s="3"/>
+      <c r="AN97" s="3"/>
+      <c r="AO97" s="3"/>
+      <c r="AP97" s="3"/>
+    </row>
+    <row r="98" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -5475,8 +6774,12 @@
       <c r="AJ98" s="3"/>
       <c r="AK98" s="3"/>
       <c r="AL98" s="3"/>
-    </row>
-    <row r="99" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM98" s="3"/>
+      <c r="AN98" s="3"/>
+      <c r="AO98" s="3"/>
+      <c r="AP98" s="3"/>
+    </row>
+    <row r="99" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -5513,8 +6816,12 @@
       <c r="AJ99" s="3"/>
       <c r="AK99" s="3"/>
       <c r="AL99" s="3"/>
-    </row>
-    <row r="100" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM99" s="3"/>
+      <c r="AN99" s="3"/>
+      <c r="AO99" s="3"/>
+      <c r="AP99" s="3"/>
+    </row>
+    <row r="100" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -5551,8 +6858,12 @@
       <c r="AJ100" s="3"/>
       <c r="AK100" s="3"/>
       <c r="AL100" s="3"/>
-    </row>
-    <row r="101" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM100" s="3"/>
+      <c r="AN100" s="3"/>
+      <c r="AO100" s="3"/>
+      <c r="AP100" s="3"/>
+    </row>
+    <row r="101" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -5589,8 +6900,12 @@
       <c r="AJ101" s="3"/>
       <c r="AK101" s="3"/>
       <c r="AL101" s="3"/>
-    </row>
-    <row r="102" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM101" s="3"/>
+      <c r="AN101" s="3"/>
+      <c r="AO101" s="3"/>
+      <c r="AP101" s="3"/>
+    </row>
+    <row r="102" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -5627,8 +6942,12 @@
       <c r="AJ102" s="3"/>
       <c r="AK102" s="3"/>
       <c r="AL102" s="3"/>
-    </row>
-    <row r="103" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM102" s="3"/>
+      <c r="AN102" s="3"/>
+      <c r="AO102" s="3"/>
+      <c r="AP102" s="3"/>
+    </row>
+    <row r="103" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -5665,8 +6984,12 @@
       <c r="AJ103" s="3"/>
       <c r="AK103" s="3"/>
       <c r="AL103" s="3"/>
-    </row>
-    <row r="104" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM103" s="3"/>
+      <c r="AN103" s="3"/>
+      <c r="AO103" s="3"/>
+      <c r="AP103" s="3"/>
+    </row>
+    <row r="104" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -5703,8 +7026,12 @@
       <c r="AJ104" s="3"/>
       <c r="AK104" s="3"/>
       <c r="AL104" s="3"/>
-    </row>
-    <row r="105" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM104" s="3"/>
+      <c r="AN104" s="3"/>
+      <c r="AO104" s="3"/>
+      <c r="AP104" s="3"/>
+    </row>
+    <row r="105" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -5741,8 +7068,12 @@
       <c r="AJ105" s="3"/>
       <c r="AK105" s="3"/>
       <c r="AL105" s="3"/>
-    </row>
-    <row r="106" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM105" s="3"/>
+      <c r="AN105" s="3"/>
+      <c r="AO105" s="3"/>
+      <c r="AP105" s="3"/>
+    </row>
+    <row r="106" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -5779,8 +7110,12 @@
       <c r="AJ106" s="3"/>
       <c r="AK106" s="3"/>
       <c r="AL106" s="3"/>
-    </row>
-    <row r="107" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM106" s="3"/>
+      <c r="AN106" s="3"/>
+      <c r="AO106" s="3"/>
+      <c r="AP106" s="3"/>
+    </row>
+    <row r="107" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -5817,8 +7152,12 @@
       <c r="AJ107" s="3"/>
       <c r="AK107" s="3"/>
       <c r="AL107" s="3"/>
-    </row>
-    <row r="108" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM107" s="3"/>
+      <c r="AN107" s="3"/>
+      <c r="AO107" s="3"/>
+      <c r="AP107" s="3"/>
+    </row>
+    <row r="108" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -5855,8 +7194,12 @@
       <c r="AJ108" s="3"/>
       <c r="AK108" s="3"/>
       <c r="AL108" s="3"/>
-    </row>
-    <row r="109" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM108" s="3"/>
+      <c r="AN108" s="3"/>
+      <c r="AO108" s="3"/>
+      <c r="AP108" s="3"/>
+    </row>
+    <row r="109" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -5893,8 +7236,12 @@
       <c r="AJ109" s="3"/>
       <c r="AK109" s="3"/>
       <c r="AL109" s="3"/>
-    </row>
-    <row r="110" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM109" s="3"/>
+      <c r="AN109" s="3"/>
+      <c r="AO109" s="3"/>
+      <c r="AP109" s="3"/>
+    </row>
+    <row r="110" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -5931,8 +7278,12 @@
       <c r="AJ110" s="3"/>
       <c r="AK110" s="3"/>
       <c r="AL110" s="3"/>
-    </row>
-    <row r="111" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM110" s="3"/>
+      <c r="AN110" s="3"/>
+      <c r="AO110" s="3"/>
+      <c r="AP110" s="3"/>
+    </row>
+    <row r="111" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -5969,8 +7320,12 @@
       <c r="AJ111" s="3"/>
       <c r="AK111" s="3"/>
       <c r="AL111" s="3"/>
-    </row>
-    <row r="112" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM111" s="3"/>
+      <c r="AN111" s="3"/>
+      <c r="AO111" s="3"/>
+      <c r="AP111" s="3"/>
+    </row>
+    <row r="112" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -6007,8 +7362,12 @@
       <c r="AJ112" s="3"/>
       <c r="AK112" s="3"/>
       <c r="AL112" s="3"/>
-    </row>
-    <row r="113" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM112" s="3"/>
+      <c r="AN112" s="3"/>
+      <c r="AO112" s="3"/>
+      <c r="AP112" s="3"/>
+    </row>
+    <row r="113" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -6045,8 +7404,12 @@
       <c r="AJ113" s="3"/>
       <c r="AK113" s="3"/>
       <c r="AL113" s="3"/>
-    </row>
-    <row r="114" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM113" s="3"/>
+      <c r="AN113" s="3"/>
+      <c r="AO113" s="3"/>
+      <c r="AP113" s="3"/>
+    </row>
+    <row r="114" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -6083,8 +7446,12 @@
       <c r="AJ114" s="3"/>
       <c r="AK114" s="3"/>
       <c r="AL114" s="3"/>
-    </row>
-    <row r="115" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM114" s="3"/>
+      <c r="AN114" s="3"/>
+      <c r="AO114" s="3"/>
+      <c r="AP114" s="3"/>
+    </row>
+    <row r="115" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -6121,8 +7488,12 @@
       <c r="AJ115" s="3"/>
       <c r="AK115" s="3"/>
       <c r="AL115" s="3"/>
-    </row>
-    <row r="116" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM115" s="3"/>
+      <c r="AN115" s="3"/>
+      <c r="AO115" s="3"/>
+      <c r="AP115" s="3"/>
+    </row>
+    <row r="116" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -6159,8 +7530,12 @@
       <c r="AJ116" s="3"/>
       <c r="AK116" s="3"/>
       <c r="AL116" s="3"/>
-    </row>
-    <row r="117" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM116" s="3"/>
+      <c r="AN116" s="3"/>
+      <c r="AO116" s="3"/>
+      <c r="AP116" s="3"/>
+    </row>
+    <row r="117" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -6197,8 +7572,12 @@
       <c r="AJ117" s="3"/>
       <c r="AK117" s="3"/>
       <c r="AL117" s="3"/>
-    </row>
-    <row r="118" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM117" s="3"/>
+      <c r="AN117" s="3"/>
+      <c r="AO117" s="3"/>
+      <c r="AP117" s="3"/>
+    </row>
+    <row r="118" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -6235,8 +7614,12 @@
       <c r="AJ118" s="3"/>
       <c r="AK118" s="3"/>
       <c r="AL118" s="3"/>
-    </row>
-    <row r="119" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM118" s="3"/>
+      <c r="AN118" s="3"/>
+      <c r="AO118" s="3"/>
+      <c r="AP118" s="3"/>
+    </row>
+    <row r="119" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -6273,8 +7656,12 @@
       <c r="AJ119" s="3"/>
       <c r="AK119" s="3"/>
       <c r="AL119" s="3"/>
-    </row>
-    <row r="120" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM119" s="3"/>
+      <c r="AN119" s="3"/>
+      <c r="AO119" s="3"/>
+      <c r="AP119" s="3"/>
+    </row>
+    <row r="120" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -6311,8 +7698,12 @@
       <c r="AJ120" s="3"/>
       <c r="AK120" s="3"/>
       <c r="AL120" s="3"/>
-    </row>
-    <row r="121" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM120" s="3"/>
+      <c r="AN120" s="3"/>
+      <c r="AO120" s="3"/>
+      <c r="AP120" s="3"/>
+    </row>
+    <row r="121" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -6349,8 +7740,12 @@
       <c r="AJ121" s="3"/>
       <c r="AK121" s="3"/>
       <c r="AL121" s="3"/>
-    </row>
-    <row r="122" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM121" s="3"/>
+      <c r="AN121" s="3"/>
+      <c r="AO121" s="3"/>
+      <c r="AP121" s="3"/>
+    </row>
+    <row r="122" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -6387,8 +7782,12 @@
       <c r="AJ122" s="3"/>
       <c r="AK122" s="3"/>
       <c r="AL122" s="3"/>
-    </row>
-    <row r="123" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM122" s="3"/>
+      <c r="AN122" s="3"/>
+      <c r="AO122" s="3"/>
+      <c r="AP122" s="3"/>
+    </row>
+    <row r="123" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -6425,8 +7824,12 @@
       <c r="AJ123" s="3"/>
       <c r="AK123" s="3"/>
       <c r="AL123" s="3"/>
-    </row>
-    <row r="124" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM123" s="3"/>
+      <c r="AN123" s="3"/>
+      <c r="AO123" s="3"/>
+      <c r="AP123" s="3"/>
+    </row>
+    <row r="124" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -6463,8 +7866,12 @@
       <c r="AJ124" s="3"/>
       <c r="AK124" s="3"/>
       <c r="AL124" s="3"/>
-    </row>
-    <row r="125" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM124" s="3"/>
+      <c r="AN124" s="3"/>
+      <c r="AO124" s="3"/>
+      <c r="AP124" s="3"/>
+    </row>
+    <row r="125" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -6501,8 +7908,12 @@
       <c r="AJ125" s="3"/>
       <c r="AK125" s="3"/>
       <c r="AL125" s="3"/>
-    </row>
-    <row r="126" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM125" s="3"/>
+      <c r="AN125" s="3"/>
+      <c r="AO125" s="3"/>
+      <c r="AP125" s="3"/>
+    </row>
+    <row r="126" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -6539,8 +7950,12 @@
       <c r="AJ126" s="3"/>
       <c r="AK126" s="3"/>
       <c r="AL126" s="3"/>
-    </row>
-    <row r="127" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM126" s="3"/>
+      <c r="AN126" s="3"/>
+      <c r="AO126" s="3"/>
+      <c r="AP126" s="3"/>
+    </row>
+    <row r="127" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -6577,8 +7992,12 @@
       <c r="AJ127" s="3"/>
       <c r="AK127" s="3"/>
       <c r="AL127" s="3"/>
-    </row>
-    <row r="128" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM127" s="3"/>
+      <c r="AN127" s="3"/>
+      <c r="AO127" s="3"/>
+      <c r="AP127" s="3"/>
+    </row>
+    <row r="128" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -6615,8 +8034,12 @@
       <c r="AJ128" s="3"/>
       <c r="AK128" s="3"/>
       <c r="AL128" s="3"/>
-    </row>
-    <row r="129" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM128" s="3"/>
+      <c r="AN128" s="3"/>
+      <c r="AO128" s="3"/>
+      <c r="AP128" s="3"/>
+    </row>
+    <row r="129" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -6653,8 +8076,12 @@
       <c r="AJ129" s="3"/>
       <c r="AK129" s="3"/>
       <c r="AL129" s="3"/>
-    </row>
-    <row r="130" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM129" s="3"/>
+      <c r="AN129" s="3"/>
+      <c r="AO129" s="3"/>
+      <c r="AP129" s="3"/>
+    </row>
+    <row r="130" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -6691,8 +8118,12 @@
       <c r="AJ130" s="3"/>
       <c r="AK130" s="3"/>
       <c r="AL130" s="3"/>
-    </row>
-    <row r="131" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM130" s="3"/>
+      <c r="AN130" s="3"/>
+      <c r="AO130" s="3"/>
+      <c r="AP130" s="3"/>
+    </row>
+    <row r="131" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -6729,8 +8160,12 @@
       <c r="AJ131" s="3"/>
       <c r="AK131" s="3"/>
       <c r="AL131" s="3"/>
-    </row>
-    <row r="132" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM131" s="3"/>
+      <c r="AN131" s="3"/>
+      <c r="AO131" s="3"/>
+      <c r="AP131" s="3"/>
+    </row>
+    <row r="132" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -6767,8 +8202,12 @@
       <c r="AJ132" s="3"/>
       <c r="AK132" s="3"/>
       <c r="AL132" s="3"/>
-    </row>
-    <row r="133" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM132" s="3"/>
+      <c r="AN132" s="3"/>
+      <c r="AO132" s="3"/>
+      <c r="AP132" s="3"/>
+    </row>
+    <row r="133" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -6805,8 +8244,12 @@
       <c r="AJ133" s="3"/>
       <c r="AK133" s="3"/>
       <c r="AL133" s="3"/>
-    </row>
-    <row r="134" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM133" s="3"/>
+      <c r="AN133" s="3"/>
+      <c r="AO133" s="3"/>
+      <c r="AP133" s="3"/>
+    </row>
+    <row r="134" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -6843,8 +8286,12 @@
       <c r="AJ134" s="3"/>
       <c r="AK134" s="3"/>
       <c r="AL134" s="3"/>
-    </row>
-    <row r="135" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM134" s="3"/>
+      <c r="AN134" s="3"/>
+      <c r="AO134" s="3"/>
+      <c r="AP134" s="3"/>
+    </row>
+    <row r="135" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -6881,8 +8328,12 @@
       <c r="AJ135" s="3"/>
       <c r="AK135" s="3"/>
       <c r="AL135" s="3"/>
-    </row>
-    <row r="136" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM135" s="3"/>
+      <c r="AN135" s="3"/>
+      <c r="AO135" s="3"/>
+      <c r="AP135" s="3"/>
+    </row>
+    <row r="136" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -6919,8 +8370,12 @@
       <c r="AJ136" s="3"/>
       <c r="AK136" s="3"/>
       <c r="AL136" s="3"/>
-    </row>
-    <row r="137" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM136" s="3"/>
+      <c r="AN136" s="3"/>
+      <c r="AO136" s="3"/>
+      <c r="AP136" s="3"/>
+    </row>
+    <row r="137" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -6957,8 +8412,12 @@
       <c r="AJ137" s="3"/>
       <c r="AK137" s="3"/>
       <c r="AL137" s="3"/>
-    </row>
-    <row r="138" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM137" s="3"/>
+      <c r="AN137" s="3"/>
+      <c r="AO137" s="3"/>
+      <c r="AP137" s="3"/>
+    </row>
+    <row r="138" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -6995,8 +8454,12 @@
       <c r="AJ138" s="3"/>
       <c r="AK138" s="3"/>
       <c r="AL138" s="3"/>
-    </row>
-    <row r="139" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM138" s="3"/>
+      <c r="AN138" s="3"/>
+      <c r="AO138" s="3"/>
+      <c r="AP138" s="3"/>
+    </row>
+    <row r="139" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -7033,8 +8496,12 @@
       <c r="AJ139" s="3"/>
       <c r="AK139" s="3"/>
       <c r="AL139" s="3"/>
-    </row>
-    <row r="140" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM139" s="3"/>
+      <c r="AN139" s="3"/>
+      <c r="AO139" s="3"/>
+      <c r="AP139" s="3"/>
+    </row>
+    <row r="140" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -7071,8 +8538,12 @@
       <c r="AJ140" s="3"/>
       <c r="AK140" s="3"/>
       <c r="AL140" s="3"/>
-    </row>
-    <row r="141" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM140" s="3"/>
+      <c r="AN140" s="3"/>
+      <c r="AO140" s="3"/>
+      <c r="AP140" s="3"/>
+    </row>
+    <row r="141" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -7109,8 +8580,12 @@
       <c r="AJ141" s="3"/>
       <c r="AK141" s="3"/>
       <c r="AL141" s="3"/>
-    </row>
-    <row r="142" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM141" s="3"/>
+      <c r="AN141" s="3"/>
+      <c r="AO141" s="3"/>
+      <c r="AP141" s="3"/>
+    </row>
+    <row r="142" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -7147,8 +8622,12 @@
       <c r="AJ142" s="3"/>
       <c r="AK142" s="3"/>
       <c r="AL142" s="3"/>
-    </row>
-    <row r="143" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM142" s="3"/>
+      <c r="AN142" s="3"/>
+      <c r="AO142" s="3"/>
+      <c r="AP142" s="3"/>
+    </row>
+    <row r="143" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -7185,8 +8664,12 @@
       <c r="AJ143" s="3"/>
       <c r="AK143" s="3"/>
       <c r="AL143" s="3"/>
-    </row>
-    <row r="144" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM143" s="3"/>
+      <c r="AN143" s="3"/>
+      <c r="AO143" s="3"/>
+      <c r="AP143" s="3"/>
+    </row>
+    <row r="144" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -7223,8 +8706,12 @@
       <c r="AJ144" s="3"/>
       <c r="AK144" s="3"/>
       <c r="AL144" s="3"/>
-    </row>
-    <row r="145" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM144" s="3"/>
+      <c r="AN144" s="3"/>
+      <c r="AO144" s="3"/>
+      <c r="AP144" s="3"/>
+    </row>
+    <row r="145" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -7261,8 +8748,12 @@
       <c r="AJ145" s="3"/>
       <c r="AK145" s="3"/>
       <c r="AL145" s="3"/>
-    </row>
-    <row r="146" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM145" s="3"/>
+      <c r="AN145" s="3"/>
+      <c r="AO145" s="3"/>
+      <c r="AP145" s="3"/>
+    </row>
+    <row r="146" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -7299,8 +8790,12 @@
       <c r="AJ146" s="3"/>
       <c r="AK146" s="3"/>
       <c r="AL146" s="3"/>
-    </row>
-    <row r="147" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM146" s="3"/>
+      <c r="AN146" s="3"/>
+      <c r="AO146" s="3"/>
+      <c r="AP146" s="3"/>
+    </row>
+    <row r="147" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -7337,8 +8832,12 @@
       <c r="AJ147" s="3"/>
       <c r="AK147" s="3"/>
       <c r="AL147" s="3"/>
-    </row>
-    <row r="148" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM147" s="3"/>
+      <c r="AN147" s="3"/>
+      <c r="AO147" s="3"/>
+      <c r="AP147" s="3"/>
+    </row>
+    <row r="148" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -7375,8 +8874,12 @@
       <c r="AJ148" s="3"/>
       <c r="AK148" s="3"/>
       <c r="AL148" s="3"/>
-    </row>
-    <row r="149" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM148" s="3"/>
+      <c r="AN148" s="3"/>
+      <c r="AO148" s="3"/>
+      <c r="AP148" s="3"/>
+    </row>
+    <row r="149" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -7413,8 +8916,12 @@
       <c r="AJ149" s="3"/>
       <c r="AK149" s="3"/>
       <c r="AL149" s="3"/>
-    </row>
-    <row r="150" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM149" s="3"/>
+      <c r="AN149" s="3"/>
+      <c r="AO149" s="3"/>
+      <c r="AP149" s="3"/>
+    </row>
+    <row r="150" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -7451,8 +8958,12 @@
       <c r="AJ150" s="3"/>
       <c r="AK150" s="3"/>
       <c r="AL150" s="3"/>
-    </row>
-    <row r="151" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM150" s="3"/>
+      <c r="AN150" s="3"/>
+      <c r="AO150" s="3"/>
+      <c r="AP150" s="3"/>
+    </row>
+    <row r="151" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -7489,8 +9000,12 @@
       <c r="AJ151" s="3"/>
       <c r="AK151" s="3"/>
       <c r="AL151" s="3"/>
-    </row>
-    <row r="152" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM151" s="3"/>
+      <c r="AN151" s="3"/>
+      <c r="AO151" s="3"/>
+      <c r="AP151" s="3"/>
+    </row>
+    <row r="152" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -7527,8 +9042,12 @@
       <c r="AJ152" s="3"/>
       <c r="AK152" s="3"/>
       <c r="AL152" s="3"/>
-    </row>
-    <row r="153" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM152" s="3"/>
+      <c r="AN152" s="3"/>
+      <c r="AO152" s="3"/>
+      <c r="AP152" s="3"/>
+    </row>
+    <row r="153" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -7565,8 +9084,12 @@
       <c r="AJ153" s="3"/>
       <c r="AK153" s="3"/>
       <c r="AL153" s="3"/>
-    </row>
-    <row r="154" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM153" s="3"/>
+      <c r="AN153" s="3"/>
+      <c r="AO153" s="3"/>
+      <c r="AP153" s="3"/>
+    </row>
+    <row r="154" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -7603,8 +9126,12 @@
       <c r="AJ154" s="3"/>
       <c r="AK154" s="3"/>
       <c r="AL154" s="3"/>
-    </row>
-    <row r="155" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM154" s="3"/>
+      <c r="AN154" s="3"/>
+      <c r="AO154" s="3"/>
+      <c r="AP154" s="3"/>
+    </row>
+    <row r="155" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -7641,8 +9168,12 @@
       <c r="AJ155" s="3"/>
       <c r="AK155" s="3"/>
       <c r="AL155" s="3"/>
-    </row>
-    <row r="156" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM155" s="3"/>
+      <c r="AN155" s="3"/>
+      <c r="AO155" s="3"/>
+      <c r="AP155" s="3"/>
+    </row>
+    <row r="156" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -7679,8 +9210,12 @@
       <c r="AJ156" s="3"/>
       <c r="AK156" s="3"/>
       <c r="AL156" s="3"/>
-    </row>
-    <row r="157" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM156" s="3"/>
+      <c r="AN156" s="3"/>
+      <c r="AO156" s="3"/>
+      <c r="AP156" s="3"/>
+    </row>
+    <row r="157" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -7717,8 +9252,12 @@
       <c r="AJ157" s="3"/>
       <c r="AK157" s="3"/>
       <c r="AL157" s="3"/>
-    </row>
-    <row r="158" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM157" s="3"/>
+      <c r="AN157" s="3"/>
+      <c r="AO157" s="3"/>
+      <c r="AP157" s="3"/>
+    </row>
+    <row r="158" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -7755,8 +9294,12 @@
       <c r="AJ158" s="3"/>
       <c r="AK158" s="3"/>
       <c r="AL158" s="3"/>
-    </row>
-    <row r="159" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM158" s="3"/>
+      <c r="AN158" s="3"/>
+      <c r="AO158" s="3"/>
+      <c r="AP158" s="3"/>
+    </row>
+    <row r="159" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -7793,8 +9336,12 @@
       <c r="AJ159" s="3"/>
       <c r="AK159" s="3"/>
       <c r="AL159" s="3"/>
-    </row>
-    <row r="160" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM159" s="3"/>
+      <c r="AN159" s="3"/>
+      <c r="AO159" s="3"/>
+      <c r="AP159" s="3"/>
+    </row>
+    <row r="160" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -7831,8 +9378,12 @@
       <c r="AJ160" s="3"/>
       <c r="AK160" s="3"/>
       <c r="AL160" s="3"/>
-    </row>
-    <row r="161" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM160" s="3"/>
+      <c r="AN160" s="3"/>
+      <c r="AO160" s="3"/>
+      <c r="AP160" s="3"/>
+    </row>
+    <row r="161" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -7869,8 +9420,12 @@
       <c r="AJ161" s="3"/>
       <c r="AK161" s="3"/>
       <c r="AL161" s="3"/>
-    </row>
-    <row r="162" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM161" s="3"/>
+      <c r="AN161" s="3"/>
+      <c r="AO161" s="3"/>
+      <c r="AP161" s="3"/>
+    </row>
+    <row r="162" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -7907,8 +9462,12 @@
       <c r="AJ162" s="3"/>
       <c r="AK162" s="3"/>
       <c r="AL162" s="3"/>
-    </row>
-    <row r="163" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM162" s="3"/>
+      <c r="AN162" s="3"/>
+      <c r="AO162" s="3"/>
+      <c r="AP162" s="3"/>
+    </row>
+    <row r="163" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -7945,8 +9504,12 @@
       <c r="AJ163" s="3"/>
       <c r="AK163" s="3"/>
       <c r="AL163" s="3"/>
-    </row>
-    <row r="164" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM163" s="3"/>
+      <c r="AN163" s="3"/>
+      <c r="AO163" s="3"/>
+      <c r="AP163" s="3"/>
+    </row>
+    <row r="164" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -7983,8 +9546,12 @@
       <c r="AJ164" s="3"/>
       <c r="AK164" s="3"/>
       <c r="AL164" s="3"/>
-    </row>
-    <row r="165" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM164" s="3"/>
+      <c r="AN164" s="3"/>
+      <c r="AO164" s="3"/>
+      <c r="AP164" s="3"/>
+    </row>
+    <row r="165" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -8021,8 +9588,12 @@
       <c r="AJ165" s="3"/>
       <c r="AK165" s="3"/>
       <c r="AL165" s="3"/>
-    </row>
-    <row r="166" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM165" s="3"/>
+      <c r="AN165" s="3"/>
+      <c r="AO165" s="3"/>
+      <c r="AP165" s="3"/>
+    </row>
+    <row r="166" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -8059,8 +9630,12 @@
       <c r="AJ166" s="3"/>
       <c r="AK166" s="3"/>
       <c r="AL166" s="3"/>
-    </row>
-    <row r="167" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM166" s="3"/>
+      <c r="AN166" s="3"/>
+      <c r="AO166" s="3"/>
+      <c r="AP166" s="3"/>
+    </row>
+    <row r="167" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -8097,8 +9672,12 @@
       <c r="AJ167" s="3"/>
       <c r="AK167" s="3"/>
       <c r="AL167" s="3"/>
-    </row>
-    <row r="168" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM167" s="3"/>
+      <c r="AN167" s="3"/>
+      <c r="AO167" s="3"/>
+      <c r="AP167" s="3"/>
+    </row>
+    <row r="168" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -8135,8 +9714,12 @@
       <c r="AJ168" s="3"/>
       <c r="AK168" s="3"/>
       <c r="AL168" s="3"/>
-    </row>
-    <row r="169" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM168" s="3"/>
+      <c r="AN168" s="3"/>
+      <c r="AO168" s="3"/>
+      <c r="AP168" s="3"/>
+    </row>
+    <row r="169" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -8173,8 +9756,12 @@
       <c r="AJ169" s="3"/>
       <c r="AK169" s="3"/>
       <c r="AL169" s="3"/>
-    </row>
-    <row r="170" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM169" s="3"/>
+      <c r="AN169" s="3"/>
+      <c r="AO169" s="3"/>
+      <c r="AP169" s="3"/>
+    </row>
+    <row r="170" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -8211,8 +9798,12 @@
       <c r="AJ170" s="3"/>
       <c r="AK170" s="3"/>
       <c r="AL170" s="3"/>
-    </row>
-    <row r="171" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM170" s="3"/>
+      <c r="AN170" s="3"/>
+      <c r="AO170" s="3"/>
+      <c r="AP170" s="3"/>
+    </row>
+    <row r="171" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -8249,8 +9840,12 @@
       <c r="AJ171" s="3"/>
       <c r="AK171" s="3"/>
       <c r="AL171" s="3"/>
-    </row>
-    <row r="172" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM171" s="3"/>
+      <c r="AN171" s="3"/>
+      <c r="AO171" s="3"/>
+      <c r="AP171" s="3"/>
+    </row>
+    <row r="172" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -8287,8 +9882,12 @@
       <c r="AJ172" s="3"/>
       <c r="AK172" s="3"/>
       <c r="AL172" s="3"/>
-    </row>
-    <row r="173" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM172" s="3"/>
+      <c r="AN172" s="3"/>
+      <c r="AO172" s="3"/>
+      <c r="AP172" s="3"/>
+    </row>
+    <row r="173" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -8325,8 +9924,12 @@
       <c r="AJ173" s="3"/>
       <c r="AK173" s="3"/>
       <c r="AL173" s="3"/>
-    </row>
-    <row r="174" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM173" s="3"/>
+      <c r="AN173" s="3"/>
+      <c r="AO173" s="3"/>
+      <c r="AP173" s="3"/>
+    </row>
+    <row r="174" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -8363,8 +9966,12 @@
       <c r="AJ174" s="3"/>
       <c r="AK174" s="3"/>
       <c r="AL174" s="3"/>
-    </row>
-    <row r="175" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM174" s="3"/>
+      <c r="AN174" s="3"/>
+      <c r="AO174" s="3"/>
+      <c r="AP174" s="3"/>
+    </row>
+    <row r="175" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -8401,8 +10008,12 @@
       <c r="AJ175" s="3"/>
       <c r="AK175" s="3"/>
       <c r="AL175" s="3"/>
-    </row>
-    <row r="176" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM175" s="3"/>
+      <c r="AN175" s="3"/>
+      <c r="AO175" s="3"/>
+      <c r="AP175" s="3"/>
+    </row>
+    <row r="176" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -8439,8 +10050,12 @@
       <c r="AJ176" s="3"/>
       <c r="AK176" s="3"/>
       <c r="AL176" s="3"/>
-    </row>
-    <row r="177" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM176" s="3"/>
+      <c r="AN176" s="3"/>
+      <c r="AO176" s="3"/>
+      <c r="AP176" s="3"/>
+    </row>
+    <row r="177" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -8477,8 +10092,12 @@
       <c r="AJ177" s="3"/>
       <c r="AK177" s="3"/>
       <c r="AL177" s="3"/>
-    </row>
-    <row r="178" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM177" s="3"/>
+      <c r="AN177" s="3"/>
+      <c r="AO177" s="3"/>
+      <c r="AP177" s="3"/>
+    </row>
+    <row r="178" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -8515,8 +10134,12 @@
       <c r="AJ178" s="3"/>
       <c r="AK178" s="3"/>
       <c r="AL178" s="3"/>
-    </row>
-    <row r="179" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM178" s="3"/>
+      <c r="AN178" s="3"/>
+      <c r="AO178" s="3"/>
+      <c r="AP178" s="3"/>
+    </row>
+    <row r="179" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -8553,8 +10176,12 @@
       <c r="AJ179" s="3"/>
       <c r="AK179" s="3"/>
       <c r="AL179" s="3"/>
-    </row>
-    <row r="180" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM179" s="3"/>
+      <c r="AN179" s="3"/>
+      <c r="AO179" s="3"/>
+      <c r="AP179" s="3"/>
+    </row>
+    <row r="180" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -8591,8 +10218,12 @@
       <c r="AJ180" s="3"/>
       <c r="AK180" s="3"/>
       <c r="AL180" s="3"/>
-    </row>
-    <row r="181" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM180" s="3"/>
+      <c r="AN180" s="3"/>
+      <c r="AO180" s="3"/>
+      <c r="AP180" s="3"/>
+    </row>
+    <row r="181" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -8629,8 +10260,12 @@
       <c r="AJ181" s="3"/>
       <c r="AK181" s="3"/>
       <c r="AL181" s="3"/>
-    </row>
-    <row r="182" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM181" s="3"/>
+      <c r="AN181" s="3"/>
+      <c r="AO181" s="3"/>
+      <c r="AP181" s="3"/>
+    </row>
+    <row r="182" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -8667,8 +10302,12 @@
       <c r="AJ182" s="3"/>
       <c r="AK182" s="3"/>
       <c r="AL182" s="3"/>
-    </row>
-    <row r="183" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM182" s="3"/>
+      <c r="AN182" s="3"/>
+      <c r="AO182" s="3"/>
+      <c r="AP182" s="3"/>
+    </row>
+    <row r="183" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -8705,8 +10344,12 @@
       <c r="AJ183" s="3"/>
       <c r="AK183" s="3"/>
       <c r="AL183" s="3"/>
-    </row>
-    <row r="184" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM183" s="3"/>
+      <c r="AN183" s="3"/>
+      <c r="AO183" s="3"/>
+      <c r="AP183" s="3"/>
+    </row>
+    <row r="184" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -8743,8 +10386,12 @@
       <c r="AJ184" s="3"/>
       <c r="AK184" s="3"/>
       <c r="AL184" s="3"/>
-    </row>
-    <row r="185" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM184" s="3"/>
+      <c r="AN184" s="3"/>
+      <c r="AO184" s="3"/>
+      <c r="AP184" s="3"/>
+    </row>
+    <row r="185" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -8781,8 +10428,12 @@
       <c r="AJ185" s="3"/>
       <c r="AK185" s="3"/>
       <c r="AL185" s="3"/>
-    </row>
-    <row r="186" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM185" s="3"/>
+      <c r="AN185" s="3"/>
+      <c r="AO185" s="3"/>
+      <c r="AP185" s="3"/>
+    </row>
+    <row r="186" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -8819,8 +10470,12 @@
       <c r="AJ186" s="3"/>
       <c r="AK186" s="3"/>
       <c r="AL186" s="3"/>
-    </row>
-    <row r="187" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM186" s="3"/>
+      <c r="AN186" s="3"/>
+      <c r="AO186" s="3"/>
+      <c r="AP186" s="3"/>
+    </row>
+    <row r="187" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -8857,8 +10512,12 @@
       <c r="AJ187" s="3"/>
       <c r="AK187" s="3"/>
       <c r="AL187" s="3"/>
-    </row>
-    <row r="188" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM187" s="3"/>
+      <c r="AN187" s="3"/>
+      <c r="AO187" s="3"/>
+      <c r="AP187" s="3"/>
+    </row>
+    <row r="188" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -8895,8 +10554,12 @@
       <c r="AJ188" s="3"/>
       <c r="AK188" s="3"/>
       <c r="AL188" s="3"/>
-    </row>
-    <row r="189" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM188" s="3"/>
+      <c r="AN188" s="3"/>
+      <c r="AO188" s="3"/>
+      <c r="AP188" s="3"/>
+    </row>
+    <row r="189" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -8933,8 +10596,12 @@
       <c r="AJ189" s="3"/>
       <c r="AK189" s="3"/>
       <c r="AL189" s="3"/>
-    </row>
-    <row r="190" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM189" s="3"/>
+      <c r="AN189" s="3"/>
+      <c r="AO189" s="3"/>
+      <c r="AP189" s="3"/>
+    </row>
+    <row r="190" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -8971,8 +10638,12 @@
       <c r="AJ190" s="3"/>
       <c r="AK190" s="3"/>
       <c r="AL190" s="3"/>
-    </row>
-    <row r="191" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM190" s="3"/>
+      <c r="AN190" s="3"/>
+      <c r="AO190" s="3"/>
+      <c r="AP190" s="3"/>
+    </row>
+    <row r="191" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -9009,8 +10680,12 @@
       <c r="AJ191" s="3"/>
       <c r="AK191" s="3"/>
       <c r="AL191" s="3"/>
-    </row>
-    <row r="192" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM191" s="3"/>
+      <c r="AN191" s="3"/>
+      <c r="AO191" s="3"/>
+      <c r="AP191" s="3"/>
+    </row>
+    <row r="192" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -9047,8 +10722,12 @@
       <c r="AJ192" s="3"/>
       <c r="AK192" s="3"/>
       <c r="AL192" s="3"/>
-    </row>
-    <row r="193" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM192" s="3"/>
+      <c r="AN192" s="3"/>
+      <c r="AO192" s="3"/>
+      <c r="AP192" s="3"/>
+    </row>
+    <row r="193" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -9085,8 +10764,12 @@
       <c r="AJ193" s="3"/>
       <c r="AK193" s="3"/>
       <c r="AL193" s="3"/>
-    </row>
-    <row r="194" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM193" s="3"/>
+      <c r="AN193" s="3"/>
+      <c r="AO193" s="3"/>
+      <c r="AP193" s="3"/>
+    </row>
+    <row r="194" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -9123,8 +10806,12 @@
       <c r="AJ194" s="3"/>
       <c r="AK194" s="3"/>
       <c r="AL194" s="3"/>
-    </row>
-    <row r="195" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM194" s="3"/>
+      <c r="AN194" s="3"/>
+      <c r="AO194" s="3"/>
+      <c r="AP194" s="3"/>
+    </row>
+    <row r="195" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -9161,8 +10848,12 @@
       <c r="AJ195" s="3"/>
       <c r="AK195" s="3"/>
       <c r="AL195" s="3"/>
-    </row>
-    <row r="196" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM195" s="3"/>
+      <c r="AN195" s="3"/>
+      <c r="AO195" s="3"/>
+      <c r="AP195" s="3"/>
+    </row>
+    <row r="196" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -9199,8 +10890,12 @@
       <c r="AJ196" s="3"/>
       <c r="AK196" s="3"/>
       <c r="AL196" s="3"/>
-    </row>
-    <row r="197" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM196" s="3"/>
+      <c r="AN196" s="3"/>
+      <c r="AO196" s="3"/>
+      <c r="AP196" s="3"/>
+    </row>
+    <row r="197" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -9237,8 +10932,12 @@
       <c r="AJ197" s="3"/>
       <c r="AK197" s="3"/>
       <c r="AL197" s="3"/>
-    </row>
-    <row r="198" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM197" s="3"/>
+      <c r="AN197" s="3"/>
+      <c r="AO197" s="3"/>
+      <c r="AP197" s="3"/>
+    </row>
+    <row r="198" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -9275,8 +10974,12 @@
       <c r="AJ198" s="3"/>
       <c r="AK198" s="3"/>
       <c r="AL198" s="3"/>
-    </row>
-    <row r="199" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM198" s="3"/>
+      <c r="AN198" s="3"/>
+      <c r="AO198" s="3"/>
+      <c r="AP198" s="3"/>
+    </row>
+    <row r="199" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -9313,8 +11016,12 @@
       <c r="AJ199" s="3"/>
       <c r="AK199" s="3"/>
       <c r="AL199" s="3"/>
-    </row>
-    <row r="200" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM199" s="3"/>
+      <c r="AN199" s="3"/>
+      <c r="AO199" s="3"/>
+      <c r="AP199" s="3"/>
+    </row>
+    <row r="200" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -9351,8 +11058,12 @@
       <c r="AJ200" s="3"/>
       <c r="AK200" s="3"/>
       <c r="AL200" s="3"/>
-    </row>
-    <row r="201" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM200" s="3"/>
+      <c r="AN200" s="3"/>
+      <c r="AO200" s="3"/>
+      <c r="AP200" s="3"/>
+    </row>
+    <row r="201" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -9389,8 +11100,12 @@
       <c r="AJ201" s="3"/>
       <c r="AK201" s="3"/>
       <c r="AL201" s="3"/>
-    </row>
-    <row r="202" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM201" s="3"/>
+      <c r="AN201" s="3"/>
+      <c r="AO201" s="3"/>
+      <c r="AP201" s="3"/>
+    </row>
+    <row r="202" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -9427,8 +11142,12 @@
       <c r="AJ202" s="3"/>
       <c r="AK202" s="3"/>
       <c r="AL202" s="3"/>
-    </row>
-    <row r="203" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM202" s="3"/>
+      <c r="AN202" s="3"/>
+      <c r="AO202" s="3"/>
+      <c r="AP202" s="3"/>
+    </row>
+    <row r="203" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -9465,8 +11184,12 @@
       <c r="AJ203" s="3"/>
       <c r="AK203" s="3"/>
       <c r="AL203" s="3"/>
-    </row>
-    <row r="204" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM203" s="3"/>
+      <c r="AN203" s="3"/>
+      <c r="AO203" s="3"/>
+      <c r="AP203" s="3"/>
+    </row>
+    <row r="204" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -9503,8 +11226,12 @@
       <c r="AJ204" s="3"/>
       <c r="AK204" s="3"/>
       <c r="AL204" s="3"/>
-    </row>
-    <row r="205" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM204" s="3"/>
+      <c r="AN204" s="3"/>
+      <c r="AO204" s="3"/>
+      <c r="AP204" s="3"/>
+    </row>
+    <row r="205" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -9541,8 +11268,12 @@
       <c r="AJ205" s="3"/>
       <c r="AK205" s="3"/>
       <c r="AL205" s="3"/>
-    </row>
-    <row r="206" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM205" s="3"/>
+      <c r="AN205" s="3"/>
+      <c r="AO205" s="3"/>
+      <c r="AP205" s="3"/>
+    </row>
+    <row r="206" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -9579,8 +11310,12 @@
       <c r="AJ206" s="3"/>
       <c r="AK206" s="3"/>
       <c r="AL206" s="3"/>
-    </row>
-    <row r="207" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM206" s="3"/>
+      <c r="AN206" s="3"/>
+      <c r="AO206" s="3"/>
+      <c r="AP206" s="3"/>
+    </row>
+    <row r="207" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -9617,8 +11352,12 @@
       <c r="AJ207" s="3"/>
       <c r="AK207" s="3"/>
       <c r="AL207" s="3"/>
-    </row>
-    <row r="208" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM207" s="3"/>
+      <c r="AN207" s="3"/>
+      <c r="AO207" s="3"/>
+      <c r="AP207" s="3"/>
+    </row>
+    <row r="208" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -9655,8 +11394,12 @@
       <c r="AJ208" s="3"/>
       <c r="AK208" s="3"/>
       <c r="AL208" s="3"/>
-    </row>
-    <row r="209" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM208" s="3"/>
+      <c r="AN208" s="3"/>
+      <c r="AO208" s="3"/>
+      <c r="AP208" s="3"/>
+    </row>
+    <row r="209" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -9693,8 +11436,12 @@
       <c r="AJ209" s="3"/>
       <c r="AK209" s="3"/>
       <c r="AL209" s="3"/>
-    </row>
-    <row r="210" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM209" s="3"/>
+      <c r="AN209" s="3"/>
+      <c r="AO209" s="3"/>
+      <c r="AP209" s="3"/>
+    </row>
+    <row r="210" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -9731,8 +11478,12 @@
       <c r="AJ210" s="3"/>
       <c r="AK210" s="3"/>
       <c r="AL210" s="3"/>
-    </row>
-    <row r="211" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM210" s="3"/>
+      <c r="AN210" s="3"/>
+      <c r="AO210" s="3"/>
+      <c r="AP210" s="3"/>
+    </row>
+    <row r="211" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -9769,8 +11520,12 @@
       <c r="AJ211" s="3"/>
       <c r="AK211" s="3"/>
       <c r="AL211" s="3"/>
-    </row>
-    <row r="212" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM211" s="3"/>
+      <c r="AN211" s="3"/>
+      <c r="AO211" s="3"/>
+      <c r="AP211" s="3"/>
+    </row>
+    <row r="212" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -9807,8 +11562,12 @@
       <c r="AJ212" s="3"/>
       <c r="AK212" s="3"/>
       <c r="AL212" s="3"/>
-    </row>
-    <row r="213" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM212" s="3"/>
+      <c r="AN212" s="3"/>
+      <c r="AO212" s="3"/>
+      <c r="AP212" s="3"/>
+    </row>
+    <row r="213" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -9845,8 +11604,12 @@
       <c r="AJ213" s="3"/>
       <c r="AK213" s="3"/>
       <c r="AL213" s="3"/>
-    </row>
-    <row r="214" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM213" s="3"/>
+      <c r="AN213" s="3"/>
+      <c r="AO213" s="3"/>
+      <c r="AP213" s="3"/>
+    </row>
+    <row r="214" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -9883,8 +11646,12 @@
       <c r="AJ214" s="3"/>
       <c r="AK214" s="3"/>
       <c r="AL214" s="3"/>
-    </row>
-    <row r="215" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM214" s="3"/>
+      <c r="AN214" s="3"/>
+      <c r="AO214" s="3"/>
+      <c r="AP214" s="3"/>
+    </row>
+    <row r="215" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -9921,8 +11688,12 @@
       <c r="AJ215" s="3"/>
       <c r="AK215" s="3"/>
       <c r="AL215" s="3"/>
-    </row>
-    <row r="216" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM215" s="3"/>
+      <c r="AN215" s="3"/>
+      <c r="AO215" s="3"/>
+      <c r="AP215" s="3"/>
+    </row>
+    <row r="216" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -9959,8 +11730,12 @@
       <c r="AJ216" s="3"/>
       <c r="AK216" s="3"/>
       <c r="AL216" s="3"/>
-    </row>
-    <row r="217" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM216" s="3"/>
+      <c r="AN216" s="3"/>
+      <c r="AO216" s="3"/>
+      <c r="AP216" s="3"/>
+    </row>
+    <row r="217" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -9997,8 +11772,12 @@
       <c r="AJ217" s="3"/>
       <c r="AK217" s="3"/>
       <c r="AL217" s="3"/>
-    </row>
-    <row r="218" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM217" s="3"/>
+      <c r="AN217" s="3"/>
+      <c r="AO217" s="3"/>
+      <c r="AP217" s="3"/>
+    </row>
+    <row r="218" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -10035,8 +11814,12 @@
       <c r="AJ218" s="3"/>
       <c r="AK218" s="3"/>
       <c r="AL218" s="3"/>
-    </row>
-    <row r="219" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM218" s="3"/>
+      <c r="AN218" s="3"/>
+      <c r="AO218" s="3"/>
+      <c r="AP218" s="3"/>
+    </row>
+    <row r="219" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -10073,8 +11856,12 @@
       <c r="AJ219" s="3"/>
       <c r="AK219" s="3"/>
       <c r="AL219" s="3"/>
-    </row>
-    <row r="220" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM219" s="3"/>
+      <c r="AN219" s="3"/>
+      <c r="AO219" s="3"/>
+      <c r="AP219" s="3"/>
+    </row>
+    <row r="220" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -10111,8 +11898,12 @@
       <c r="AJ220" s="3"/>
       <c r="AK220" s="3"/>
       <c r="AL220" s="3"/>
-    </row>
-    <row r="221" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM220" s="3"/>
+      <c r="AN220" s="3"/>
+      <c r="AO220" s="3"/>
+      <c r="AP220" s="3"/>
+    </row>
+    <row r="221" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -10149,8 +11940,12 @@
       <c r="AJ221" s="3"/>
       <c r="AK221" s="3"/>
       <c r="AL221" s="3"/>
-    </row>
-    <row r="222" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM221" s="3"/>
+      <c r="AN221" s="3"/>
+      <c r="AO221" s="3"/>
+      <c r="AP221" s="3"/>
+    </row>
+    <row r="222" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -10187,8 +11982,12 @@
       <c r="AJ222" s="3"/>
       <c r="AK222" s="3"/>
       <c r="AL222" s="3"/>
-    </row>
-    <row r="223" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM222" s="3"/>
+      <c r="AN222" s="3"/>
+      <c r="AO222" s="3"/>
+      <c r="AP222" s="3"/>
+    </row>
+    <row r="223" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -10225,8 +12024,12 @@
       <c r="AJ223" s="3"/>
       <c r="AK223" s="3"/>
       <c r="AL223" s="3"/>
-    </row>
-    <row r="224" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM223" s="3"/>
+      <c r="AN223" s="3"/>
+      <c r="AO223" s="3"/>
+      <c r="AP223" s="3"/>
+    </row>
+    <row r="224" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -10263,8 +12066,12 @@
       <c r="AJ224" s="3"/>
       <c r="AK224" s="3"/>
       <c r="AL224" s="3"/>
-    </row>
-    <row r="225" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM224" s="3"/>
+      <c r="AN224" s="3"/>
+      <c r="AO224" s="3"/>
+      <c r="AP224" s="3"/>
+    </row>
+    <row r="225" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -10301,8 +12108,12 @@
       <c r="AJ225" s="3"/>
       <c r="AK225" s="3"/>
       <c r="AL225" s="3"/>
-    </row>
-    <row r="226" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM225" s="3"/>
+      <c r="AN225" s="3"/>
+      <c r="AO225" s="3"/>
+      <c r="AP225" s="3"/>
+    </row>
+    <row r="226" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -10339,8 +12150,12 @@
       <c r="AJ226" s="3"/>
       <c r="AK226" s="3"/>
       <c r="AL226" s="3"/>
-    </row>
-    <row r="227" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM226" s="3"/>
+      <c r="AN226" s="3"/>
+      <c r="AO226" s="3"/>
+      <c r="AP226" s="3"/>
+    </row>
+    <row r="227" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -10377,8 +12192,12 @@
       <c r="AJ227" s="3"/>
       <c r="AK227" s="3"/>
       <c r="AL227" s="3"/>
-    </row>
-    <row r="228" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM227" s="3"/>
+      <c r="AN227" s="3"/>
+      <c r="AO227" s="3"/>
+      <c r="AP227" s="3"/>
+    </row>
+    <row r="228" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -10415,8 +12234,12 @@
       <c r="AJ228" s="3"/>
       <c r="AK228" s="3"/>
       <c r="AL228" s="3"/>
-    </row>
-    <row r="229" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM228" s="3"/>
+      <c r="AN228" s="3"/>
+      <c r="AO228" s="3"/>
+      <c r="AP228" s="3"/>
+    </row>
+    <row r="229" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -10453,8 +12276,12 @@
       <c r="AJ229" s="3"/>
       <c r="AK229" s="3"/>
       <c r="AL229" s="3"/>
-    </row>
-    <row r="230" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM229" s="3"/>
+      <c r="AN229" s="3"/>
+      <c r="AO229" s="3"/>
+      <c r="AP229" s="3"/>
+    </row>
+    <row r="230" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -10491,8 +12318,12 @@
       <c r="AJ230" s="3"/>
       <c r="AK230" s="3"/>
       <c r="AL230" s="3"/>
-    </row>
-    <row r="231" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM230" s="3"/>
+      <c r="AN230" s="3"/>
+      <c r="AO230" s="3"/>
+      <c r="AP230" s="3"/>
+    </row>
+    <row r="231" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -10529,8 +12360,12 @@
       <c r="AJ231" s="3"/>
       <c r="AK231" s="3"/>
       <c r="AL231" s="3"/>
-    </row>
-    <row r="232" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM231" s="3"/>
+      <c r="AN231" s="3"/>
+      <c r="AO231" s="3"/>
+      <c r="AP231" s="3"/>
+    </row>
+    <row r="232" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -10567,8 +12402,12 @@
       <c r="AJ232" s="3"/>
       <c r="AK232" s="3"/>
       <c r="AL232" s="3"/>
-    </row>
-    <row r="233" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM232" s="3"/>
+      <c r="AN232" s="3"/>
+      <c r="AO232" s="3"/>
+      <c r="AP232" s="3"/>
+    </row>
+    <row r="233" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -10605,8 +12444,12 @@
       <c r="AJ233" s="3"/>
       <c r="AK233" s="3"/>
       <c r="AL233" s="3"/>
-    </row>
-    <row r="234" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM233" s="3"/>
+      <c r="AN233" s="3"/>
+      <c r="AO233" s="3"/>
+      <c r="AP233" s="3"/>
+    </row>
+    <row r="234" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -10643,8 +12486,12 @@
       <c r="AJ234" s="3"/>
       <c r="AK234" s="3"/>
       <c r="AL234" s="3"/>
-    </row>
-    <row r="235" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM234" s="3"/>
+      <c r="AN234" s="3"/>
+      <c r="AO234" s="3"/>
+      <c r="AP234" s="3"/>
+    </row>
+    <row r="235" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -10681,8 +12528,12 @@
       <c r="AJ235" s="3"/>
       <c r="AK235" s="3"/>
       <c r="AL235" s="3"/>
-    </row>
-    <row r="236" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM235" s="3"/>
+      <c r="AN235" s="3"/>
+      <c r="AO235" s="3"/>
+      <c r="AP235" s="3"/>
+    </row>
+    <row r="236" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -10719,8 +12570,12 @@
       <c r="AJ236" s="3"/>
       <c r="AK236" s="3"/>
       <c r="AL236" s="3"/>
-    </row>
-    <row r="237" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM236" s="3"/>
+      <c r="AN236" s="3"/>
+      <c r="AO236" s="3"/>
+      <c r="AP236" s="3"/>
+    </row>
+    <row r="237" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -10757,8 +12612,12 @@
       <c r="AJ237" s="3"/>
       <c r="AK237" s="3"/>
       <c r="AL237" s="3"/>
-    </row>
-    <row r="238" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM237" s="3"/>
+      <c r="AN237" s="3"/>
+      <c r="AO237" s="3"/>
+      <c r="AP237" s="3"/>
+    </row>
+    <row r="238" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -10795,8 +12654,12 @@
       <c r="AJ238" s="3"/>
       <c r="AK238" s="3"/>
       <c r="AL238" s="3"/>
-    </row>
-    <row r="239" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM238" s="3"/>
+      <c r="AN238" s="3"/>
+      <c r="AO238" s="3"/>
+      <c r="AP238" s="3"/>
+    </row>
+    <row r="239" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -10833,8 +12696,12 @@
       <c r="AJ239" s="3"/>
       <c r="AK239" s="3"/>
       <c r="AL239" s="3"/>
-    </row>
-    <row r="240" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM239" s="3"/>
+      <c r="AN239" s="3"/>
+      <c r="AO239" s="3"/>
+      <c r="AP239" s="3"/>
+    </row>
+    <row r="240" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -10871,8 +12738,12 @@
       <c r="AJ240" s="3"/>
       <c r="AK240" s="3"/>
       <c r="AL240" s="3"/>
-    </row>
-    <row r="241" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM240" s="3"/>
+      <c r="AN240" s="3"/>
+      <c r="AO240" s="3"/>
+      <c r="AP240" s="3"/>
+    </row>
+    <row r="241" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -10909,8 +12780,12 @@
       <c r="AJ241" s="3"/>
       <c r="AK241" s="3"/>
       <c r="AL241" s="3"/>
-    </row>
-    <row r="242" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM241" s="3"/>
+      <c r="AN241" s="3"/>
+      <c r="AO241" s="3"/>
+      <c r="AP241" s="3"/>
+    </row>
+    <row r="242" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -10947,8 +12822,12 @@
       <c r="AJ242" s="3"/>
       <c r="AK242" s="3"/>
       <c r="AL242" s="3"/>
-    </row>
-    <row r="243" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM242" s="3"/>
+      <c r="AN242" s="3"/>
+      <c r="AO242" s="3"/>
+      <c r="AP242" s="3"/>
+    </row>
+    <row r="243" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -10985,8 +12864,12 @@
       <c r="AJ243" s="3"/>
       <c r="AK243" s="3"/>
       <c r="AL243" s="3"/>
-    </row>
-    <row r="244" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM243" s="3"/>
+      <c r="AN243" s="3"/>
+      <c r="AO243" s="3"/>
+      <c r="AP243" s="3"/>
+    </row>
+    <row r="244" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -11023,8 +12906,12 @@
       <c r="AJ244" s="3"/>
       <c r="AK244" s="3"/>
       <c r="AL244" s="3"/>
-    </row>
-    <row r="245" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM244" s="3"/>
+      <c r="AN244" s="3"/>
+      <c r="AO244" s="3"/>
+      <c r="AP244" s="3"/>
+    </row>
+    <row r="245" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -11061,8 +12948,12 @@
       <c r="AJ245" s="3"/>
       <c r="AK245" s="3"/>
       <c r="AL245" s="3"/>
-    </row>
-    <row r="246" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM245" s="3"/>
+      <c r="AN245" s="3"/>
+      <c r="AO245" s="3"/>
+      <c r="AP245" s="3"/>
+    </row>
+    <row r="246" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -11099,8 +12990,12 @@
       <c r="AJ246" s="3"/>
       <c r="AK246" s="3"/>
       <c r="AL246" s="3"/>
-    </row>
-    <row r="247" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM246" s="3"/>
+      <c r="AN246" s="3"/>
+      <c r="AO246" s="3"/>
+      <c r="AP246" s="3"/>
+    </row>
+    <row r="247" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -11137,8 +13032,12 @@
       <c r="AJ247" s="3"/>
       <c r="AK247" s="3"/>
       <c r="AL247" s="3"/>
-    </row>
-    <row r="248" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM247" s="3"/>
+      <c r="AN247" s="3"/>
+      <c r="AO247" s="3"/>
+      <c r="AP247" s="3"/>
+    </row>
+    <row r="248" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -11175,8 +13074,12 @@
       <c r="AJ248" s="3"/>
       <c r="AK248" s="3"/>
       <c r="AL248" s="3"/>
-    </row>
-    <row r="249" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM248" s="3"/>
+      <c r="AN248" s="3"/>
+      <c r="AO248" s="3"/>
+      <c r="AP248" s="3"/>
+    </row>
+    <row r="249" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -11213,8 +13116,12 @@
       <c r="AJ249" s="3"/>
       <c r="AK249" s="3"/>
       <c r="AL249" s="3"/>
-    </row>
-    <row r="250" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM249" s="3"/>
+      <c r="AN249" s="3"/>
+      <c r="AO249" s="3"/>
+      <c r="AP249" s="3"/>
+    </row>
+    <row r="250" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -11251,8 +13158,12 @@
       <c r="AJ250" s="3"/>
       <c r="AK250" s="3"/>
       <c r="AL250" s="3"/>
-    </row>
-    <row r="251" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM250" s="3"/>
+      <c r="AN250" s="3"/>
+      <c r="AO250" s="3"/>
+      <c r="AP250" s="3"/>
+    </row>
+    <row r="251" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -11289,8 +13200,12 @@
       <c r="AJ251" s="3"/>
       <c r="AK251" s="3"/>
       <c r="AL251" s="3"/>
-    </row>
-    <row r="252" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM251" s="3"/>
+      <c r="AN251" s="3"/>
+      <c r="AO251" s="3"/>
+      <c r="AP251" s="3"/>
+    </row>
+    <row r="252" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -11327,8 +13242,12 @@
       <c r="AJ252" s="3"/>
       <c r="AK252" s="3"/>
       <c r="AL252" s="3"/>
-    </row>
-    <row r="253" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM252" s="3"/>
+      <c r="AN252" s="3"/>
+      <c r="AO252" s="3"/>
+      <c r="AP252" s="3"/>
+    </row>
+    <row r="253" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -11365,8 +13284,12 @@
       <c r="AJ253" s="3"/>
       <c r="AK253" s="3"/>
       <c r="AL253" s="3"/>
-    </row>
-    <row r="254" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM253" s="3"/>
+      <c r="AN253" s="3"/>
+      <c r="AO253" s="3"/>
+      <c r="AP253" s="3"/>
+    </row>
+    <row r="254" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -11403,8 +13326,12 @@
       <c r="AJ254" s="3"/>
       <c r="AK254" s="3"/>
       <c r="AL254" s="3"/>
-    </row>
-    <row r="255" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM254" s="3"/>
+      <c r="AN254" s="3"/>
+      <c r="AO254" s="3"/>
+      <c r="AP254" s="3"/>
+    </row>
+    <row r="255" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -11441,8 +13368,12 @@
       <c r="AJ255" s="3"/>
       <c r="AK255" s="3"/>
       <c r="AL255" s="3"/>
-    </row>
-    <row r="256" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM255" s="3"/>
+      <c r="AN255" s="3"/>
+      <c r="AO255" s="3"/>
+      <c r="AP255" s="3"/>
+    </row>
+    <row r="256" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -11479,8 +13410,12 @@
       <c r="AJ256" s="3"/>
       <c r="AK256" s="3"/>
       <c r="AL256" s="3"/>
-    </row>
-    <row r="257" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM256" s="3"/>
+      <c r="AN256" s="3"/>
+      <c r="AO256" s="3"/>
+      <c r="AP256" s="3"/>
+    </row>
+    <row r="257" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -11517,8 +13452,12 @@
       <c r="AJ257" s="3"/>
       <c r="AK257" s="3"/>
       <c r="AL257" s="3"/>
-    </row>
-    <row r="258" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM257" s="3"/>
+      <c r="AN257" s="3"/>
+      <c r="AO257" s="3"/>
+      <c r="AP257" s="3"/>
+    </row>
+    <row r="258" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -11555,8 +13494,12 @@
       <c r="AJ258" s="3"/>
       <c r="AK258" s="3"/>
       <c r="AL258" s="3"/>
-    </row>
-    <row r="259" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM258" s="3"/>
+      <c r="AN258" s="3"/>
+      <c r="AO258" s="3"/>
+      <c r="AP258" s="3"/>
+    </row>
+    <row r="259" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -11593,8 +13536,12 @@
       <c r="AJ259" s="3"/>
       <c r="AK259" s="3"/>
       <c r="AL259" s="3"/>
-    </row>
-    <row r="260" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM259" s="3"/>
+      <c r="AN259" s="3"/>
+      <c r="AO259" s="3"/>
+      <c r="AP259" s="3"/>
+    </row>
+    <row r="260" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -11631,8 +13578,12 @@
       <c r="AJ260" s="3"/>
       <c r="AK260" s="3"/>
       <c r="AL260" s="3"/>
-    </row>
-    <row r="261" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM260" s="3"/>
+      <c r="AN260" s="3"/>
+      <c r="AO260" s="3"/>
+      <c r="AP260" s="3"/>
+    </row>
+    <row r="261" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -11669,8 +13620,12 @@
       <c r="AJ261" s="3"/>
       <c r="AK261" s="3"/>
       <c r="AL261" s="3"/>
-    </row>
-    <row r="262" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM261" s="3"/>
+      <c r="AN261" s="3"/>
+      <c r="AO261" s="3"/>
+      <c r="AP261" s="3"/>
+    </row>
+    <row r="262" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -11707,8 +13662,12 @@
       <c r="AJ262" s="3"/>
       <c r="AK262" s="3"/>
       <c r="AL262" s="3"/>
-    </row>
-    <row r="263" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM262" s="3"/>
+      <c r="AN262" s="3"/>
+      <c r="AO262" s="3"/>
+      <c r="AP262" s="3"/>
+    </row>
+    <row r="263" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -11745,8 +13704,12 @@
       <c r="AJ263" s="3"/>
       <c r="AK263" s="3"/>
       <c r="AL263" s="3"/>
-    </row>
-    <row r="264" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM263" s="3"/>
+      <c r="AN263" s="3"/>
+      <c r="AO263" s="3"/>
+      <c r="AP263" s="3"/>
+    </row>
+    <row r="264" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -11783,8 +13746,12 @@
       <c r="AJ264" s="3"/>
       <c r="AK264" s="3"/>
       <c r="AL264" s="3"/>
-    </row>
-    <row r="265" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM264" s="3"/>
+      <c r="AN264" s="3"/>
+      <c r="AO264" s="3"/>
+      <c r="AP264" s="3"/>
+    </row>
+    <row r="265" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -11821,8 +13788,12 @@
       <c r="AJ265" s="3"/>
       <c r="AK265" s="3"/>
       <c r="AL265" s="3"/>
-    </row>
-    <row r="266" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM265" s="3"/>
+      <c r="AN265" s="3"/>
+      <c r="AO265" s="3"/>
+      <c r="AP265" s="3"/>
+    </row>
+    <row r="266" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -11859,8 +13830,12 @@
       <c r="AJ266" s="3"/>
       <c r="AK266" s="3"/>
       <c r="AL266" s="3"/>
-    </row>
-    <row r="267" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM266" s="3"/>
+      <c r="AN266" s="3"/>
+      <c r="AO266" s="3"/>
+      <c r="AP266" s="3"/>
+    </row>
+    <row r="267" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -11897,8 +13872,12 @@
       <c r="AJ267" s="3"/>
       <c r="AK267" s="3"/>
       <c r="AL267" s="3"/>
-    </row>
-    <row r="268" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM267" s="3"/>
+      <c r="AN267" s="3"/>
+      <c r="AO267" s="3"/>
+      <c r="AP267" s="3"/>
+    </row>
+    <row r="268" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -11935,8 +13914,12 @@
       <c r="AJ268" s="3"/>
       <c r="AK268" s="3"/>
       <c r="AL268" s="3"/>
-    </row>
-    <row r="269" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM268" s="3"/>
+      <c r="AN268" s="3"/>
+      <c r="AO268" s="3"/>
+      <c r="AP268" s="3"/>
+    </row>
+    <row r="269" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -11973,8 +13956,12 @@
       <c r="AJ269" s="3"/>
       <c r="AK269" s="3"/>
       <c r="AL269" s="3"/>
-    </row>
-    <row r="270" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM269" s="3"/>
+      <c r="AN269" s="3"/>
+      <c r="AO269" s="3"/>
+      <c r="AP269" s="3"/>
+    </row>
+    <row r="270" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -12011,8 +13998,12 @@
       <c r="AJ270" s="3"/>
       <c r="AK270" s="3"/>
       <c r="AL270" s="3"/>
-    </row>
-    <row r="271" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM270" s="3"/>
+      <c r="AN270" s="3"/>
+      <c r="AO270" s="3"/>
+      <c r="AP270" s="3"/>
+    </row>
+    <row r="271" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -12049,8 +14040,12 @@
       <c r="AJ271" s="3"/>
       <c r="AK271" s="3"/>
       <c r="AL271" s="3"/>
-    </row>
-    <row r="272" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM271" s="3"/>
+      <c r="AN271" s="3"/>
+      <c r="AO271" s="3"/>
+      <c r="AP271" s="3"/>
+    </row>
+    <row r="272" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -12087,8 +14082,12 @@
       <c r="AJ272" s="3"/>
       <c r="AK272" s="3"/>
       <c r="AL272" s="3"/>
-    </row>
-    <row r="273" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM272" s="3"/>
+      <c r="AN272" s="3"/>
+      <c r="AO272" s="3"/>
+      <c r="AP272" s="3"/>
+    </row>
+    <row r="273" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -12125,8 +14124,12 @@
       <c r="AJ273" s="3"/>
       <c r="AK273" s="3"/>
       <c r="AL273" s="3"/>
-    </row>
-    <row r="274" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM273" s="3"/>
+      <c r="AN273" s="3"/>
+      <c r="AO273" s="3"/>
+      <c r="AP273" s="3"/>
+    </row>
+    <row r="274" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -12163,8 +14166,12 @@
       <c r="AJ274" s="3"/>
       <c r="AK274" s="3"/>
       <c r="AL274" s="3"/>
-    </row>
-    <row r="275" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM274" s="3"/>
+      <c r="AN274" s="3"/>
+      <c r="AO274" s="3"/>
+      <c r="AP274" s="3"/>
+    </row>
+    <row r="275" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -12201,8 +14208,12 @@
       <c r="AJ275" s="3"/>
       <c r="AK275" s="3"/>
       <c r="AL275" s="3"/>
-    </row>
-    <row r="276" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM275" s="3"/>
+      <c r="AN275" s="3"/>
+      <c r="AO275" s="3"/>
+      <c r="AP275" s="3"/>
+    </row>
+    <row r="276" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -12239,8 +14250,12 @@
       <c r="AJ276" s="3"/>
       <c r="AK276" s="3"/>
       <c r="AL276" s="3"/>
-    </row>
-    <row r="277" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM276" s="3"/>
+      <c r="AN276" s="3"/>
+      <c r="AO276" s="3"/>
+      <c r="AP276" s="3"/>
+    </row>
+    <row r="277" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -12277,8 +14292,12 @@
       <c r="AJ277" s="3"/>
       <c r="AK277" s="3"/>
       <c r="AL277" s="3"/>
-    </row>
-    <row r="278" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM277" s="3"/>
+      <c r="AN277" s="3"/>
+      <c r="AO277" s="3"/>
+      <c r="AP277" s="3"/>
+    </row>
+    <row r="278" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -12315,8 +14334,12 @@
       <c r="AJ278" s="3"/>
       <c r="AK278" s="3"/>
       <c r="AL278" s="3"/>
-    </row>
-    <row r="279" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM278" s="3"/>
+      <c r="AN278" s="3"/>
+      <c r="AO278" s="3"/>
+      <c r="AP278" s="3"/>
+    </row>
+    <row r="279" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -12353,8 +14376,12 @@
       <c r="AJ279" s="3"/>
       <c r="AK279" s="3"/>
       <c r="AL279" s="3"/>
-    </row>
-    <row r="280" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM279" s="3"/>
+      <c r="AN279" s="3"/>
+      <c r="AO279" s="3"/>
+      <c r="AP279" s="3"/>
+    </row>
+    <row r="280" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -12391,8 +14418,12 @@
       <c r="AJ280" s="3"/>
       <c r="AK280" s="3"/>
       <c r="AL280" s="3"/>
-    </row>
-    <row r="281" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM280" s="3"/>
+      <c r="AN280" s="3"/>
+      <c r="AO280" s="3"/>
+      <c r="AP280" s="3"/>
+    </row>
+    <row r="281" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -12429,8 +14460,12 @@
       <c r="AJ281" s="3"/>
       <c r="AK281" s="3"/>
       <c r="AL281" s="3"/>
-    </row>
-    <row r="282" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM281" s="3"/>
+      <c r="AN281" s="3"/>
+      <c r="AO281" s="3"/>
+      <c r="AP281" s="3"/>
+    </row>
+    <row r="282" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -12467,8 +14502,12 @@
       <c r="AJ282" s="3"/>
       <c r="AK282" s="3"/>
       <c r="AL282" s="3"/>
-    </row>
-    <row r="283" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM282" s="3"/>
+      <c r="AN282" s="3"/>
+      <c r="AO282" s="3"/>
+      <c r="AP282" s="3"/>
+    </row>
+    <row r="283" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -12505,8 +14544,12 @@
       <c r="AJ283" s="3"/>
       <c r="AK283" s="3"/>
       <c r="AL283" s="3"/>
-    </row>
-    <row r="284" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM283" s="3"/>
+      <c r="AN283" s="3"/>
+      <c r="AO283" s="3"/>
+      <c r="AP283" s="3"/>
+    </row>
+    <row r="284" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -12543,8 +14586,12 @@
       <c r="AJ284" s="3"/>
       <c r="AK284" s="3"/>
       <c r="AL284" s="3"/>
-    </row>
-    <row r="285" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM284" s="3"/>
+      <c r="AN284" s="3"/>
+      <c r="AO284" s="3"/>
+      <c r="AP284" s="3"/>
+    </row>
+    <row r="285" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -12581,8 +14628,12 @@
       <c r="AJ285" s="3"/>
       <c r="AK285" s="3"/>
       <c r="AL285" s="3"/>
-    </row>
-    <row r="286" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM285" s="3"/>
+      <c r="AN285" s="3"/>
+      <c r="AO285" s="3"/>
+      <c r="AP285" s="3"/>
+    </row>
+    <row r="286" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -12619,8 +14670,12 @@
       <c r="AJ286" s="3"/>
       <c r="AK286" s="3"/>
       <c r="AL286" s="3"/>
-    </row>
-    <row r="287" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM286" s="3"/>
+      <c r="AN286" s="3"/>
+      <c r="AO286" s="3"/>
+      <c r="AP286" s="3"/>
+    </row>
+    <row r="287" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -12657,8 +14712,12 @@
       <c r="AJ287" s="3"/>
       <c r="AK287" s="3"/>
       <c r="AL287" s="3"/>
-    </row>
-    <row r="288" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM287" s="3"/>
+      <c r="AN287" s="3"/>
+      <c r="AO287" s="3"/>
+      <c r="AP287" s="3"/>
+    </row>
+    <row r="288" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -12695,8 +14754,12 @@
       <c r="AJ288" s="3"/>
       <c r="AK288" s="3"/>
       <c r="AL288" s="3"/>
-    </row>
-    <row r="289" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM288" s="3"/>
+      <c r="AN288" s="3"/>
+      <c r="AO288" s="3"/>
+      <c r="AP288" s="3"/>
+    </row>
+    <row r="289" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -12733,8 +14796,12 @@
       <c r="AJ289" s="3"/>
       <c r="AK289" s="3"/>
       <c r="AL289" s="3"/>
-    </row>
-    <row r="290" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM289" s="3"/>
+      <c r="AN289" s="3"/>
+      <c r="AO289" s="3"/>
+      <c r="AP289" s="3"/>
+    </row>
+    <row r="290" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -12771,8 +14838,12 @@
       <c r="AJ290" s="3"/>
       <c r="AK290" s="3"/>
       <c r="AL290" s="3"/>
-    </row>
-    <row r="291" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM290" s="3"/>
+      <c r="AN290" s="3"/>
+      <c r="AO290" s="3"/>
+      <c r="AP290" s="3"/>
+    </row>
+    <row r="291" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -12809,8 +14880,12 @@
       <c r="AJ291" s="3"/>
       <c r="AK291" s="3"/>
       <c r="AL291" s="3"/>
-    </row>
-    <row r="292" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM291" s="3"/>
+      <c r="AN291" s="3"/>
+      <c r="AO291" s="3"/>
+      <c r="AP291" s="3"/>
+    </row>
+    <row r="292" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -12847,8 +14922,12 @@
       <c r="AJ292" s="3"/>
       <c r="AK292" s="3"/>
       <c r="AL292" s="3"/>
-    </row>
-    <row r="293" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM292" s="3"/>
+      <c r="AN292" s="3"/>
+      <c r="AO292" s="3"/>
+      <c r="AP292" s="3"/>
+    </row>
+    <row r="293" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -12885,8 +14964,12 @@
       <c r="AJ293" s="3"/>
       <c r="AK293" s="3"/>
       <c r="AL293" s="3"/>
-    </row>
-    <row r="294" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM293" s="3"/>
+      <c r="AN293" s="3"/>
+      <c r="AO293" s="3"/>
+      <c r="AP293" s="3"/>
+    </row>
+    <row r="294" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -12923,8 +15006,12 @@
       <c r="AJ294" s="3"/>
       <c r="AK294" s="3"/>
       <c r="AL294" s="3"/>
-    </row>
-    <row r="295" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM294" s="3"/>
+      <c r="AN294" s="3"/>
+      <c r="AO294" s="3"/>
+      <c r="AP294" s="3"/>
+    </row>
+    <row r="295" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -12961,8 +15048,12 @@
       <c r="AJ295" s="3"/>
       <c r="AK295" s="3"/>
       <c r="AL295" s="3"/>
-    </row>
-    <row r="296" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM295" s="3"/>
+      <c r="AN295" s="3"/>
+      <c r="AO295" s="3"/>
+      <c r="AP295" s="3"/>
+    </row>
+    <row r="296" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -12999,8 +15090,12 @@
       <c r="AJ296" s="3"/>
       <c r="AK296" s="3"/>
       <c r="AL296" s="3"/>
-    </row>
-    <row r="297" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM296" s="3"/>
+      <c r="AN296" s="3"/>
+      <c r="AO296" s="3"/>
+      <c r="AP296" s="3"/>
+    </row>
+    <row r="297" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -13037,8 +15132,12 @@
       <c r="AJ297" s="3"/>
       <c r="AK297" s="3"/>
       <c r="AL297" s="3"/>
-    </row>
-    <row r="298" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM297" s="3"/>
+      <c r="AN297" s="3"/>
+      <c r="AO297" s="3"/>
+      <c r="AP297" s="3"/>
+    </row>
+    <row r="298" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -13075,8 +15174,12 @@
       <c r="AJ298" s="3"/>
       <c r="AK298" s="3"/>
       <c r="AL298" s="3"/>
-    </row>
-    <row r="299" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM298" s="3"/>
+      <c r="AN298" s="3"/>
+      <c r="AO298" s="3"/>
+      <c r="AP298" s="3"/>
+    </row>
+    <row r="299" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -13113,8 +15216,12 @@
       <c r="AJ299" s="3"/>
       <c r="AK299" s="3"/>
       <c r="AL299" s="3"/>
-    </row>
-    <row r="300" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM299" s="3"/>
+      <c r="AN299" s="3"/>
+      <c r="AO299" s="3"/>
+      <c r="AP299" s="3"/>
+    </row>
+    <row r="300" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -13151,8 +15258,12 @@
       <c r="AJ300" s="3"/>
       <c r="AK300" s="3"/>
       <c r="AL300" s="3"/>
-    </row>
-    <row r="301" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM300" s="3"/>
+      <c r="AN300" s="3"/>
+      <c r="AO300" s="3"/>
+      <c r="AP300" s="3"/>
+    </row>
+    <row r="301" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -13189,8 +15300,12 @@
       <c r="AJ301" s="3"/>
       <c r="AK301" s="3"/>
       <c r="AL301" s="3"/>
-    </row>
-    <row r="302" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM301" s="3"/>
+      <c r="AN301" s="3"/>
+      <c r="AO301" s="3"/>
+      <c r="AP301" s="3"/>
+    </row>
+    <row r="302" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -13227,8 +15342,12 @@
       <c r="AJ302" s="3"/>
       <c r="AK302" s="3"/>
       <c r="AL302" s="3"/>
-    </row>
-    <row r="303" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM302" s="3"/>
+      <c r="AN302" s="3"/>
+      <c r="AO302" s="3"/>
+      <c r="AP302" s="3"/>
+    </row>
+    <row r="303" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -13265,8 +15384,12 @@
       <c r="AJ303" s="3"/>
       <c r="AK303" s="3"/>
       <c r="AL303" s="3"/>
-    </row>
-    <row r="304" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM303" s="3"/>
+      <c r="AN303" s="3"/>
+      <c r="AO303" s="3"/>
+      <c r="AP303" s="3"/>
+    </row>
+    <row r="304" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -13303,8 +15426,12 @@
       <c r="AJ304" s="3"/>
       <c r="AK304" s="3"/>
       <c r="AL304" s="3"/>
-    </row>
-    <row r="305" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM304" s="3"/>
+      <c r="AN304" s="3"/>
+      <c r="AO304" s="3"/>
+      <c r="AP304" s="3"/>
+    </row>
+    <row r="305" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -13341,8 +15468,12 @@
       <c r="AJ305" s="3"/>
       <c r="AK305" s="3"/>
       <c r="AL305" s="3"/>
-    </row>
-    <row r="306" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM305" s="3"/>
+      <c r="AN305" s="3"/>
+      <c r="AO305" s="3"/>
+      <c r="AP305" s="3"/>
+    </row>
+    <row r="306" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -13379,8 +15510,12 @@
       <c r="AJ306" s="3"/>
       <c r="AK306" s="3"/>
       <c r="AL306" s="3"/>
-    </row>
-    <row r="307" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM306" s="3"/>
+      <c r="AN306" s="3"/>
+      <c r="AO306" s="3"/>
+      <c r="AP306" s="3"/>
+    </row>
+    <row r="307" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -13417,8 +15552,12 @@
       <c r="AJ307" s="3"/>
       <c r="AK307" s="3"/>
       <c r="AL307" s="3"/>
-    </row>
-    <row r="308" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM307" s="3"/>
+      <c r="AN307" s="3"/>
+      <c r="AO307" s="3"/>
+      <c r="AP307" s="3"/>
+    </row>
+    <row r="308" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -13455,8 +15594,12 @@
       <c r="AJ308" s="3"/>
       <c r="AK308" s="3"/>
       <c r="AL308" s="3"/>
-    </row>
-    <row r="309" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM308" s="3"/>
+      <c r="AN308" s="3"/>
+      <c r="AO308" s="3"/>
+      <c r="AP308" s="3"/>
+    </row>
+    <row r="309" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -13493,8 +15636,12 @@
       <c r="AJ309" s="3"/>
       <c r="AK309" s="3"/>
       <c r="AL309" s="3"/>
-    </row>
-    <row r="310" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM309" s="3"/>
+      <c r="AN309" s="3"/>
+      <c r="AO309" s="3"/>
+      <c r="AP309" s="3"/>
+    </row>
+    <row r="310" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -13531,8 +15678,12 @@
       <c r="AJ310" s="3"/>
       <c r="AK310" s="3"/>
       <c r="AL310" s="3"/>
-    </row>
-    <row r="311" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM310" s="3"/>
+      <c r="AN310" s="3"/>
+      <c r="AO310" s="3"/>
+      <c r="AP310" s="3"/>
+    </row>
+    <row r="311" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -13569,8 +15720,12 @@
       <c r="AJ311" s="3"/>
       <c r="AK311" s="3"/>
       <c r="AL311" s="3"/>
-    </row>
-    <row r="312" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM311" s="3"/>
+      <c r="AN311" s="3"/>
+      <c r="AO311" s="3"/>
+      <c r="AP311" s="3"/>
+    </row>
+    <row r="312" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -13607,8 +15762,12 @@
       <c r="AJ312" s="3"/>
       <c r="AK312" s="3"/>
       <c r="AL312" s="3"/>
-    </row>
-    <row r="313" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM312" s="3"/>
+      <c r="AN312" s="3"/>
+      <c r="AO312" s="3"/>
+      <c r="AP312" s="3"/>
+    </row>
+    <row r="313" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -13645,8 +15804,12 @@
       <c r="AJ313" s="3"/>
       <c r="AK313" s="3"/>
       <c r="AL313" s="3"/>
-    </row>
-    <row r="314" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM313" s="3"/>
+      <c r="AN313" s="3"/>
+      <c r="AO313" s="3"/>
+      <c r="AP313" s="3"/>
+    </row>
+    <row r="314" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -13683,8 +15846,12 @@
       <c r="AJ314" s="3"/>
       <c r="AK314" s="3"/>
       <c r="AL314" s="3"/>
-    </row>
-    <row r="315" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM314" s="3"/>
+      <c r="AN314" s="3"/>
+      <c r="AO314" s="3"/>
+      <c r="AP314" s="3"/>
+    </row>
+    <row r="315" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -13721,8 +15888,12 @@
       <c r="AJ315" s="3"/>
       <c r="AK315" s="3"/>
       <c r="AL315" s="3"/>
-    </row>
-    <row r="316" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM315" s="3"/>
+      <c r="AN315" s="3"/>
+      <c r="AO315" s="3"/>
+      <c r="AP315" s="3"/>
+    </row>
+    <row r="316" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -13759,8 +15930,12 @@
       <c r="AJ316" s="3"/>
       <c r="AK316" s="3"/>
       <c r="AL316" s="3"/>
-    </row>
-    <row r="317" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM316" s="3"/>
+      <c r="AN316" s="3"/>
+      <c r="AO316" s="3"/>
+      <c r="AP316" s="3"/>
+    </row>
+    <row r="317" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -13797,8 +15972,12 @@
       <c r="AJ317" s="3"/>
       <c r="AK317" s="3"/>
       <c r="AL317" s="3"/>
-    </row>
-    <row r="318" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM317" s="3"/>
+      <c r="AN317" s="3"/>
+      <c r="AO317" s="3"/>
+      <c r="AP317" s="3"/>
+    </row>
+    <row r="318" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -13835,8 +16014,12 @@
       <c r="AJ318" s="3"/>
       <c r="AK318" s="3"/>
       <c r="AL318" s="3"/>
-    </row>
-    <row r="319" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM318" s="3"/>
+      <c r="AN318" s="3"/>
+      <c r="AO318" s="3"/>
+      <c r="AP318" s="3"/>
+    </row>
+    <row r="319" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -13873,8 +16056,12 @@
       <c r="AJ319" s="3"/>
       <c r="AK319" s="3"/>
       <c r="AL319" s="3"/>
-    </row>
-    <row r="320" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM319" s="3"/>
+      <c r="AN319" s="3"/>
+      <c r="AO319" s="3"/>
+      <c r="AP319" s="3"/>
+    </row>
+    <row r="320" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -13911,8 +16098,12 @@
       <c r="AJ320" s="3"/>
       <c r="AK320" s="3"/>
       <c r="AL320" s="3"/>
-    </row>
-    <row r="321" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM320" s="3"/>
+      <c r="AN320" s="3"/>
+      <c r="AO320" s="3"/>
+      <c r="AP320" s="3"/>
+    </row>
+    <row r="321" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -13949,8 +16140,12 @@
       <c r="AJ321" s="3"/>
       <c r="AK321" s="3"/>
       <c r="AL321" s="3"/>
-    </row>
-    <row r="322" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM321" s="3"/>
+      <c r="AN321" s="3"/>
+      <c r="AO321" s="3"/>
+      <c r="AP321" s="3"/>
+    </row>
+    <row r="322" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -13987,8 +16182,12 @@
       <c r="AJ322" s="3"/>
       <c r="AK322" s="3"/>
       <c r="AL322" s="3"/>
-    </row>
-    <row r="323" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM322" s="3"/>
+      <c r="AN322" s="3"/>
+      <c r="AO322" s="3"/>
+      <c r="AP322" s="3"/>
+    </row>
+    <row r="323" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -14025,8 +16224,12 @@
       <c r="AJ323" s="3"/>
       <c r="AK323" s="3"/>
       <c r="AL323" s="3"/>
-    </row>
-    <row r="324" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM323" s="3"/>
+      <c r="AN323" s="3"/>
+      <c r="AO323" s="3"/>
+      <c r="AP323" s="3"/>
+    </row>
+    <row r="324" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -14063,8 +16266,12 @@
       <c r="AJ324" s="3"/>
       <c r="AK324" s="3"/>
       <c r="AL324" s="3"/>
-    </row>
-    <row r="325" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM324" s="3"/>
+      <c r="AN324" s="3"/>
+      <c r="AO324" s="3"/>
+      <c r="AP324" s="3"/>
+    </row>
+    <row r="325" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -14101,8 +16308,12 @@
       <c r="AJ325" s="3"/>
       <c r="AK325" s="3"/>
       <c r="AL325" s="3"/>
-    </row>
-    <row r="326" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM325" s="3"/>
+      <c r="AN325" s="3"/>
+      <c r="AO325" s="3"/>
+      <c r="AP325" s="3"/>
+    </row>
+    <row r="326" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -14139,8 +16350,12 @@
       <c r="AJ326" s="3"/>
       <c r="AK326" s="3"/>
       <c r="AL326" s="3"/>
-    </row>
-    <row r="327" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM326" s="3"/>
+      <c r="AN326" s="3"/>
+      <c r="AO326" s="3"/>
+      <c r="AP326" s="3"/>
+    </row>
+    <row r="327" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -14177,8 +16392,12 @@
       <c r="AJ327" s="3"/>
       <c r="AK327" s="3"/>
       <c r="AL327" s="3"/>
-    </row>
-    <row r="328" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM327" s="3"/>
+      <c r="AN327" s="3"/>
+      <c r="AO327" s="3"/>
+      <c r="AP327" s="3"/>
+    </row>
+    <row r="328" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -14215,8 +16434,12 @@
       <c r="AJ328" s="3"/>
       <c r="AK328" s="3"/>
       <c r="AL328" s="3"/>
-    </row>
-    <row r="329" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM328" s="3"/>
+      <c r="AN328" s="3"/>
+      <c r="AO328" s="3"/>
+      <c r="AP328" s="3"/>
+    </row>
+    <row r="329" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -14253,8 +16476,12 @@
       <c r="AJ329" s="3"/>
       <c r="AK329" s="3"/>
       <c r="AL329" s="3"/>
-    </row>
-    <row r="330" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM329" s="3"/>
+      <c r="AN329" s="3"/>
+      <c r="AO329" s="3"/>
+      <c r="AP329" s="3"/>
+    </row>
+    <row r="330" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -14291,8 +16518,12 @@
       <c r="AJ330" s="3"/>
       <c r="AK330" s="3"/>
       <c r="AL330" s="3"/>
-    </row>
-    <row r="331" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM330" s="3"/>
+      <c r="AN330" s="3"/>
+      <c r="AO330" s="3"/>
+      <c r="AP330" s="3"/>
+    </row>
+    <row r="331" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -14329,8 +16560,12 @@
       <c r="AJ331" s="3"/>
       <c r="AK331" s="3"/>
       <c r="AL331" s="3"/>
-    </row>
-    <row r="332" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM331" s="3"/>
+      <c r="AN331" s="3"/>
+      <c r="AO331" s="3"/>
+      <c r="AP331" s="3"/>
+    </row>
+    <row r="332" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -14367,8 +16602,12 @@
       <c r="AJ332" s="3"/>
       <c r="AK332" s="3"/>
       <c r="AL332" s="3"/>
-    </row>
-    <row r="333" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM332" s="3"/>
+      <c r="AN332" s="3"/>
+      <c r="AO332" s="3"/>
+      <c r="AP332" s="3"/>
+    </row>
+    <row r="333" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -14405,8 +16644,12 @@
       <c r="AJ333" s="3"/>
       <c r="AK333" s="3"/>
       <c r="AL333" s="3"/>
-    </row>
-    <row r="334" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM333" s="3"/>
+      <c r="AN333" s="3"/>
+      <c r="AO333" s="3"/>
+      <c r="AP333" s="3"/>
+    </row>
+    <row r="334" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -14443,8 +16686,12 @@
       <c r="AJ334" s="3"/>
       <c r="AK334" s="3"/>
       <c r="AL334" s="3"/>
-    </row>
-    <row r="335" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM334" s="3"/>
+      <c r="AN334" s="3"/>
+      <c r="AO334" s="3"/>
+      <c r="AP334" s="3"/>
+    </row>
+    <row r="335" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -14481,8 +16728,12 @@
       <c r="AJ335" s="3"/>
       <c r="AK335" s="3"/>
       <c r="AL335" s="3"/>
-    </row>
-    <row r="336" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM335" s="3"/>
+      <c r="AN335" s="3"/>
+      <c r="AO335" s="3"/>
+      <c r="AP335" s="3"/>
+    </row>
+    <row r="336" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -14519,8 +16770,12 @@
       <c r="AJ336" s="3"/>
       <c r="AK336" s="3"/>
       <c r="AL336" s="3"/>
-    </row>
-    <row r="337" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM336" s="3"/>
+      <c r="AN336" s="3"/>
+      <c r="AO336" s="3"/>
+      <c r="AP336" s="3"/>
+    </row>
+    <row r="337" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -14557,8 +16812,12 @@
       <c r="AJ337" s="3"/>
       <c r="AK337" s="3"/>
       <c r="AL337" s="3"/>
-    </row>
-    <row r="338" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM337" s="3"/>
+      <c r="AN337" s="3"/>
+      <c r="AO337" s="3"/>
+      <c r="AP337" s="3"/>
+    </row>
+    <row r="338" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -14595,8 +16854,12 @@
       <c r="AJ338" s="3"/>
       <c r="AK338" s="3"/>
       <c r="AL338" s="3"/>
-    </row>
-    <row r="339" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM338" s="3"/>
+      <c r="AN338" s="3"/>
+      <c r="AO338" s="3"/>
+      <c r="AP338" s="3"/>
+    </row>
+    <row r="339" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -14633,8 +16896,12 @@
       <c r="AJ339" s="3"/>
       <c r="AK339" s="3"/>
       <c r="AL339" s="3"/>
-    </row>
-    <row r="340" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM339" s="3"/>
+      <c r="AN339" s="3"/>
+      <c r="AO339" s="3"/>
+      <c r="AP339" s="3"/>
+    </row>
+    <row r="340" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -14671,8 +16938,12 @@
       <c r="AJ340" s="3"/>
       <c r="AK340" s="3"/>
       <c r="AL340" s="3"/>
-    </row>
-    <row r="341" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM340" s="3"/>
+      <c r="AN340" s="3"/>
+      <c r="AO340" s="3"/>
+      <c r="AP340" s="3"/>
+    </row>
+    <row r="341" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -14709,8 +16980,12 @@
       <c r="AJ341" s="3"/>
       <c r="AK341" s="3"/>
       <c r="AL341" s="3"/>
-    </row>
-    <row r="342" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM341" s="3"/>
+      <c r="AN341" s="3"/>
+      <c r="AO341" s="3"/>
+      <c r="AP341" s="3"/>
+    </row>
+    <row r="342" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -14747,8 +17022,12 @@
       <c r="AJ342" s="3"/>
       <c r="AK342" s="3"/>
       <c r="AL342" s="3"/>
-    </row>
-    <row r="343" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM342" s="3"/>
+      <c r="AN342" s="3"/>
+      <c r="AO342" s="3"/>
+      <c r="AP342" s="3"/>
+    </row>
+    <row r="343" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -14785,8 +17064,12 @@
       <c r="AJ343" s="3"/>
       <c r="AK343" s="3"/>
       <c r="AL343" s="3"/>
-    </row>
-    <row r="344" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM343" s="3"/>
+      <c r="AN343" s="3"/>
+      <c r="AO343" s="3"/>
+      <c r="AP343" s="3"/>
+    </row>
+    <row r="344" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -14823,8 +17106,12 @@
       <c r="AJ344" s="3"/>
       <c r="AK344" s="3"/>
       <c r="AL344" s="3"/>
-    </row>
-    <row r="345" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM344" s="3"/>
+      <c r="AN344" s="3"/>
+      <c r="AO344" s="3"/>
+      <c r="AP344" s="3"/>
+    </row>
+    <row r="345" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -14861,8 +17148,12 @@
       <c r="AJ345" s="3"/>
       <c r="AK345" s="3"/>
       <c r="AL345" s="3"/>
-    </row>
-    <row r="346" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM345" s="3"/>
+      <c r="AN345" s="3"/>
+      <c r="AO345" s="3"/>
+      <c r="AP345" s="3"/>
+    </row>
+    <row r="346" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -14899,8 +17190,12 @@
       <c r="AJ346" s="3"/>
       <c r="AK346" s="3"/>
       <c r="AL346" s="3"/>
-    </row>
-    <row r="347" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM346" s="3"/>
+      <c r="AN346" s="3"/>
+      <c r="AO346" s="3"/>
+      <c r="AP346" s="3"/>
+    </row>
+    <row r="347" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -14937,8 +17232,12 @@
       <c r="AJ347" s="3"/>
       <c r="AK347" s="3"/>
       <c r="AL347" s="3"/>
-    </row>
-    <row r="348" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM347" s="3"/>
+      <c r="AN347" s="3"/>
+      <c r="AO347" s="3"/>
+      <c r="AP347" s="3"/>
+    </row>
+    <row r="348" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -14975,8 +17274,12 @@
       <c r="AJ348" s="3"/>
       <c r="AK348" s="3"/>
       <c r="AL348" s="3"/>
-    </row>
-    <row r="349" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM348" s="3"/>
+      <c r="AN348" s="3"/>
+      <c r="AO348" s="3"/>
+      <c r="AP348" s="3"/>
+    </row>
+    <row r="349" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -15013,8 +17316,12 @@
       <c r="AJ349" s="3"/>
       <c r="AK349" s="3"/>
       <c r="AL349" s="3"/>
-    </row>
-    <row r="350" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM349" s="3"/>
+      <c r="AN349" s="3"/>
+      <c r="AO349" s="3"/>
+      <c r="AP349" s="3"/>
+    </row>
+    <row r="350" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -15051,8 +17358,12 @@
       <c r="AJ350" s="3"/>
       <c r="AK350" s="3"/>
       <c r="AL350" s="3"/>
-    </row>
-    <row r="351" spans="3:38" x14ac:dyDescent="0.2">
+      <c r="AM350" s="3"/>
+      <c r="AN350" s="3"/>
+      <c r="AO350" s="3"/>
+      <c r="AP350" s="3"/>
+    </row>
+    <row r="351" spans="3:42" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -15089,44 +17400,10 @@
       <c r="AJ351" s="3"/>
       <c r="AK351" s="3"/>
       <c r="AL351" s="3"/>
-    </row>
-    <row r="352" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C352" s="3"/>
-      <c r="D352" s="3"/>
-      <c r="E352" s="3"/>
-      <c r="F352" s="3"/>
-      <c r="G352" s="3"/>
-      <c r="H352" s="3"/>
-      <c r="I352" s="3"/>
-      <c r="J352" s="3"/>
-      <c r="K352" s="3"/>
-      <c r="L352" s="3"/>
-      <c r="M352" s="3"/>
-      <c r="N352" s="3"/>
-      <c r="O352" s="3"/>
-      <c r="P352" s="3"/>
-      <c r="Q352" s="3"/>
-      <c r="R352" s="3"/>
-      <c r="S352" s="3"/>
-      <c r="T352" s="3"/>
-      <c r="U352" s="3"/>
-      <c r="V352" s="3"/>
-      <c r="W352" s="3"/>
-      <c r="X352" s="3"/>
-      <c r="Y352" s="3"/>
-      <c r="Z352" s="3"/>
-      <c r="AA352" s="3"/>
-      <c r="AB352" s="3"/>
-      <c r="AC352" s="3"/>
-      <c r="AD352" s="3"/>
-      <c r="AE352" s="3"/>
-      <c r="AF352" s="3"/>
-      <c r="AG352" s="3"/>
-      <c r="AH352" s="3"/>
-      <c r="AI352" s="3"/>
-      <c r="AJ352" s="3"/>
-      <c r="AK352" s="3"/>
-      <c r="AL352" s="3"/>
+      <c r="AM351" s="3"/>
+      <c r="AN351" s="3"/>
+      <c r="AO351" s="3"/>
+      <c r="AP351" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/VIRT.xlsx
+++ b/VIRT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA6C341-E6C2-4BC9-B5CB-9C12185049D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C97AFEA-228D-4526-9727-6A45E4EC33A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F2317BC5-DDE7-4B11-8968-E77385A88B35}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="138">
   <si>
     <t xml:space="preserve">Virtu Financial </t>
   </si>
@@ -376,6 +376,81 @@
   </si>
   <si>
     <t>2019 Acquisition of ITG for 1billion USD</t>
+  </si>
+  <si>
+    <t>Debt Issue cost</t>
+  </si>
+  <si>
+    <t>Termination of leases</t>
+  </si>
+  <si>
+    <t>SBCs</t>
+  </si>
+  <si>
+    <t>Deferred Taxes</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Change in WC</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>Development of Software</t>
+  </si>
+  <si>
+    <t>Acquisition</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>Repurchases of Stocks</t>
+  </si>
+  <si>
+    <t>Stock Options</t>
+  </si>
+  <si>
+    <t>Proceeds of Borrowings</t>
+  </si>
+  <si>
+    <t>Repayment of Borrowings</t>
+  </si>
+  <si>
+    <t>Interest Rate Swaps</t>
+  </si>
+  <si>
+    <t>Payment of Tax Receivables</t>
+  </si>
+  <si>
+    <t>Debt Issuance Costs</t>
+  </si>
+  <si>
+    <t>Non Controlling Interest</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>Change in Cash</t>
+  </si>
+  <si>
+    <t>Cash BoP</t>
+  </si>
+  <si>
+    <t>Cash EoP</t>
+  </si>
+  <si>
+    <t>FCF</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1050,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7DA60B-4FB3-4488-9DA0-E5C9B71C2297}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1176,10 +1253,10 @@
   <dimension ref="A1:AP351"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="T102" sqref="R102:T102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1856,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="23">
-        <f t="shared" ref="L10:O10" si="1">+SUM(L6:L9)</f>
+        <f t="shared" ref="L10:N10" si="1">+SUM(L6:L9)</f>
         <v>702.27199999999993</v>
       </c>
       <c r="M10" s="23">
@@ -2013,7 +2090,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3">
-        <f t="shared" ref="L13:O13" si="4">+L10-SUM(L11:L12)</f>
+        <f t="shared" ref="L13:N13" si="4">+L10-SUM(L11:L12)</f>
         <v>424.50099999999992</v>
       </c>
       <c r="M13" s="3">
@@ -2484,7 +2561,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3">
-        <f t="shared" ref="L19:O19" si="7">+L13-SUM(L14:L18)</f>
+        <f t="shared" ref="L19:N19" si="7">+L13-SUM(L14:L18)</f>
         <v>213.49699999999993</v>
       </c>
       <c r="M19" s="3">
@@ -2716,7 +2793,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3">
-        <f t="shared" ref="L22:O22" si="10">+L19-L20-L21</f>
+        <f t="shared" ref="L22:N22" si="10">+L19-L20-L21</f>
         <v>179.59099999999992</v>
       </c>
       <c r="M22" s="3">
@@ -2948,7 +3025,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3">
-        <f t="shared" ref="L25:O25" si="13">+L22-L23-L24</f>
+        <f t="shared" ref="L25:N25" si="13">+L22-L23-L24</f>
         <v>32.979999999999919</v>
       </c>
       <c r="M25" s="3">
@@ -3080,7 +3157,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="24">
-        <f t="shared" ref="L27:O27" si="16">+L25/L28</f>
+        <f t="shared" ref="L27:N27" si="16">+L25/L28</f>
         <v>0.85575470779907581</v>
       </c>
       <c r="M27" s="24">
@@ -3734,7 +3811,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="25">
-        <f t="shared" ref="M36:P36" si="46">+M13/M10</f>
+        <f t="shared" ref="M36:O36" si="46">+M13/M10</f>
         <v>0.63360642501522413</v>
       </c>
       <c r="N36" s="25">
@@ -3746,7 +3823,7 @@
         <v>0.64090288449626098</v>
       </c>
       <c r="P36" s="25">
-        <f t="shared" ref="P36:Q36" si="47">+P13/P10</f>
+        <f t="shared" ref="P36" si="47">+P13/P10</f>
         <v>0.72695226267399049</v>
       </c>
       <c r="Q36" s="25">
@@ -3821,7 +3898,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="25">
-        <f t="shared" ref="M37:P37" si="51">+M19/M10</f>
+        <f t="shared" ref="M37:O37" si="51">+M19/M10</f>
         <v>0.18262090192240737</v>
       </c>
       <c r="N37" s="25">
@@ -3833,7 +3910,7 @@
         <v>3.0978087528632781E-2</v>
       </c>
       <c r="P37" s="25">
-        <f t="shared" ref="P37:Q37" si="52">+P19/P10</f>
+        <f t="shared" ref="P37" si="52">+P19/P10</f>
         <v>0.46288909654493493</v>
       </c>
       <c r="Q37" s="25">
@@ -3908,7 +3985,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="25">
-        <f t="shared" ref="M38:P38" si="56">+M23/M22</f>
+        <f t="shared" ref="M38:O38" si="56">+M23/M22</f>
         <v>0.83300342865221999</v>
       </c>
       <c r="N38" s="25">
@@ -3920,7 +3997,7 @@
         <v>0.10585263230501286</v>
       </c>
       <c r="P38" s="25">
-        <f t="shared" ref="P38:Q38" si="57">+P23/P22</f>
+        <f t="shared" ref="P38" si="57">+P23/P22</f>
         <v>0.18941061021653294</v>
       </c>
       <c r="Q38" s="25">
@@ -5730,6 +5807,9 @@
       <c r="AP73" s="3"/>
     </row>
     <row r="74" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5745,9 +5825,15 @@
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
+      <c r="R74" s="3">
+        <v>468.33199999999999</v>
+      </c>
+      <c r="S74" s="3">
+        <v>263.92099999999999</v>
+      </c>
+      <c r="T74" s="3">
+        <v>534.53499999999997</v>
+      </c>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
@@ -5772,6 +5858,9 @@
       <c r="AP74" s="3"/>
     </row>
     <row r="75" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5787,9 +5876,18 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
+      <c r="R75" s="3">
+        <f>66.377+64.837+6.919</f>
+        <v>138.13300000000001</v>
+      </c>
+      <c r="S75" s="3">
+        <f>63.306+63.96+11.388</f>
+        <v>138.654</v>
+      </c>
+      <c r="T75" s="3">
+        <f>65.816+50.471+6.861</f>
+        <v>123.14800000000001</v>
+      </c>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
@@ -5814,6 +5912,9 @@
       <c r="AP75" s="3"/>
     </row>
     <row r="76" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5829,9 +5930,15 @@
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
+      <c r="R76" s="3">
+        <v>24.315999999999999</v>
+      </c>
+      <c r="S76" s="3">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="T76" s="3">
+        <v>22.562999999999999</v>
+      </c>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
@@ -5856,6 +5963,9 @@
       <c r="AP76" s="3"/>
     </row>
     <row r="77" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5871,9 +5981,15 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
+      <c r="R77" s="3">
+        <v>4.7069999999999999</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="T77" s="3">
+        <v>16.224</v>
+      </c>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
@@ -5898,6 +6014,9 @@
       <c r="AP77" s="3"/>
     </row>
     <row r="78" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5913,9 +6032,15 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
+      <c r="R78" s="3">
+        <v>67.218999999999994</v>
+      </c>
+      <c r="S78" s="3">
+        <v>63.933</v>
+      </c>
+      <c r="T78" s="3">
+        <v>75.474999999999994</v>
+      </c>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
@@ -5940,6 +6065,9 @@
       <c r="AP78" s="3"/>
     </row>
     <row r="79" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5955,9 +6083,15 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
+      <c r="R79" s="3">
+        <v>-3.468</v>
+      </c>
+      <c r="S79" s="3">
+        <v>19.068999999999999</v>
+      </c>
+      <c r="T79" s="3">
+        <v>4.2469999999999999</v>
+      </c>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
@@ -5982,6 +6116,9 @@
       <c r="AP79" s="3"/>
     </row>
     <row r="80" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5997,9 +6134,15 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
+      <c r="R80" s="3">
+        <v>11.391999999999999</v>
+      </c>
+      <c r="S80" s="3">
+        <v>-12.795</v>
+      </c>
+      <c r="T80" s="3">
+        <v>-37.145000000000003</v>
+      </c>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
@@ -6023,7 +6166,10 @@
       <c r="AO80" s="3"/>
       <c r="AP80" s="3"/>
     </row>
-    <row r="81" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -6039,9 +6185,18 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
+      <c r="R81" s="3">
+        <f>161.648-217.546-1.11-373.597+65.646+28.67-62.799-81.616+113.224-276.646-8.474+686.195-33.322-4.101</f>
+        <v>-3.8279999999999754</v>
+      </c>
+      <c r="S81" s="3">
+        <f>-534.766-1175.115+290.193-2728.059-25.415-42.057+20.331+269.014+1168.445+886.208-23.296+1874.378+39.115-1.534</f>
+        <v>17.441999999999879</v>
+      </c>
+      <c r="T81" s="3">
+        <f>-572.089+528.173-363.32-444.041-43.559+44.422-57.404+1102.432-524.206-244.057+22.883+369.619-48.492+89.583</f>
+        <v>-140.05599999999993</v>
+      </c>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
@@ -6065,7 +6220,10 @@
       <c r="AO81" s="3"/>
       <c r="AP81" s="3"/>
     </row>
-    <row r="82" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -6080,10 +6238,22 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
+      <c r="Q82" s="23">
+        <f t="shared" ref="Q82:S82" si="67">+SUM(Q74:Q81)</f>
+        <v>0</v>
+      </c>
+      <c r="R82" s="23">
+        <f t="shared" si="67"/>
+        <v>706.80300000000022</v>
+      </c>
+      <c r="S82" s="23">
+        <f t="shared" si="67"/>
+        <v>491.77699999999987</v>
+      </c>
+      <c r="T82" s="23">
+        <f>+SUM(T74:T81)</f>
+        <v>598.9910000000001</v>
+      </c>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
@@ -6107,7 +6277,10 @@
       <c r="AO82" s="3"/>
       <c r="AP82" s="3"/>
     </row>
-    <row r="83" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -6123,9 +6296,15 @@
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
+      <c r="R83" s="3">
+        <v>-37.658000000000001</v>
+      </c>
+      <c r="S83" s="3">
+        <v>-38.354999999999997</v>
+      </c>
+      <c r="T83" s="3">
+        <v>-41.886000000000003</v>
+      </c>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
@@ -6149,7 +6328,10 @@
       <c r="AO83" s="3"/>
       <c r="AP83" s="3"/>
     </row>
-    <row r="84" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -6165,9 +6347,15 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
+      <c r="R84" s="3">
+        <v>-27.201000000000001</v>
+      </c>
+      <c r="S84" s="3">
+        <v>-37.774000000000001</v>
+      </c>
+      <c r="T84" s="3">
+        <v>-12.427</v>
+      </c>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
@@ -6191,7 +6379,10 @@
       <c r="AO84" s="3"/>
       <c r="AP84" s="3"/>
     </row>
-    <row r="85" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -6207,9 +6398,15 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
+      <c r="R85" s="3">
+        <v>35.329000000000001</v>
+      </c>
+      <c r="S85" s="3">
+        <v>-18.355</v>
+      </c>
+      <c r="T85" s="3">
+        <v>-7.5339999999999998</v>
+      </c>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
@@ -6233,7 +6430,10 @@
       <c r="AO85" s="3"/>
       <c r="AP85" s="3"/>
     </row>
-    <row r="86" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -6248,10 +6448,22 @@
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
+      <c r="Q86" s="23">
+        <f t="shared" ref="Q86:S86" si="68">+SUM(Q83:Q85)</f>
+        <v>0</v>
+      </c>
+      <c r="R86" s="23">
+        <f t="shared" si="68"/>
+        <v>-29.530000000000008</v>
+      </c>
+      <c r="S86" s="23">
+        <f t="shared" si="68"/>
+        <v>-94.483999999999995</v>
+      </c>
+      <c r="T86" s="23">
+        <f>+SUM(T83:T85)</f>
+        <v>-61.847000000000001</v>
+      </c>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
@@ -6275,7 +6487,10 @@
       <c r="AO86" s="3"/>
       <c r="AP86" s="3"/>
     </row>
-    <row r="87" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6291,9 +6506,15 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
+      <c r="R87" s="3">
+        <v>-375.28399999999999</v>
+      </c>
+      <c r="S87" s="3">
+        <v>-306.13600000000002</v>
+      </c>
+      <c r="T87" s="3">
+        <v>-299.40300000000002</v>
+      </c>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
@@ -6317,7 +6538,10 @@
       <c r="AO87" s="3"/>
       <c r="AP87" s="3"/>
     </row>
-    <row r="88" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -6333,9 +6557,17 @@
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
+      <c r="R88" s="3">
+        <f>-8.256-480.544</f>
+        <v>-488.79999999999995</v>
+      </c>
+      <c r="S88" s="3">
+        <f>-1.566-229.012</f>
+        <v>-230.578</v>
+      </c>
+      <c r="T88" s="3">
+        <v>-191.13800000000001</v>
+      </c>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
@@ -6359,7 +6591,10 @@
       <c r="AO88" s="3"/>
       <c r="AP88" s="3"/>
     </row>
-    <row r="89" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -6375,9 +6610,15 @@
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
+      <c r="R89" s="3">
+        <v>5.109</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>13.21</v>
+      </c>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
@@ -6401,7 +6642,10 @@
       <c r="AO89" s="3"/>
       <c r="AP89" s="3"/>
     </row>
-    <row r="90" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -6417,9 +6661,17 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
+      <c r="R90" s="3">
+        <f>-59.112+1800</f>
+        <v>1740.8879999999999</v>
+      </c>
+      <c r="S90" s="3">
+        <v>-3.944</v>
+      </c>
+      <c r="T90" s="3">
+        <f>38.541+1741.888</f>
+        <v>1780.4289999999999</v>
+      </c>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
@@ -6443,7 +6695,10 @@
       <c r="AO90" s="3"/>
       <c r="AP90" s="3"/>
     </row>
-    <row r="91" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -6459,9 +6714,15 @@
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
+      <c r="R91" s="3">
+        <v>-1599.7739999999999</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-73</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-1727</v>
+      </c>
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
@@ -6485,7 +6746,10 @@
       <c r="AO91" s="3"/>
       <c r="AP91" s="3"/>
     </row>
-    <row r="92" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -6501,9 +6765,15 @@
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
+      <c r="R92" s="3">
+        <v>-21.343</v>
+      </c>
+      <c r="S92" s="3">
+        <v>55.83</v>
+      </c>
+      <c r="T92" s="3">
+        <v>1.9550000000000001</v>
+      </c>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
@@ -6527,7 +6797,10 @@
       <c r="AO92" s="3"/>
       <c r="AP92" s="3"/>
     </row>
-    <row r="93" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -6543,9 +6816,15 @@
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-      <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>-23.274999999999999</v>
+      </c>
+      <c r="T93" s="3">
+        <v>-20.225999999999999</v>
+      </c>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
@@ -6569,7 +6848,10 @@
       <c r="AO93" s="3"/>
       <c r="AP93" s="3"/>
     </row>
-    <row r="94" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -6585,9 +6867,15 @@
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
+      <c r="R94" s="3">
+        <v>-35.741</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-3.9289999999999998</v>
+      </c>
+      <c r="T94" s="3">
+        <v>-27.391999999999999</v>
+      </c>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
@@ -6611,7 +6899,10 @@
       <c r="AO94" s="3"/>
       <c r="AP94" s="3"/>
     </row>
-    <row r="95" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -6627,9 +6918,15 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
+      <c r="R95" s="3">
+        <v>39</v>
+      </c>
+      <c r="S95" s="3">
+        <v>0</v>
+      </c>
+      <c r="T95" s="3">
+        <v>0</v>
+      </c>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
@@ -6653,7 +6950,10 @@
       <c r="AO95" s="3"/>
       <c r="AP95" s="3"/>
     </row>
-    <row r="96" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -6668,10 +6968,22 @@
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
+      <c r="Q96" s="23">
+        <f t="shared" ref="Q96:S96" si="69">+SUM(Q87:Q95)</f>
+        <v>0</v>
+      </c>
+      <c r="R96" s="23">
+        <f t="shared" si="69"/>
+        <v>-735.94499999999982</v>
+      </c>
+      <c r="S96" s="23">
+        <f t="shared" si="69"/>
+        <v>-585.03199999999993</v>
+      </c>
+      <c r="T96" s="23">
+        <f>+SUM(T87:T95)</f>
+        <v>-469.56500000000028</v>
+      </c>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
@@ -6695,7 +7007,10 @@
       <c r="AO96" s="3"/>
       <c r="AP96" s="3"/>
     </row>
-    <row r="97" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -6711,9 +7026,15 @@
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
+      <c r="R97" s="3">
+        <v>-24.239000000000001</v>
+      </c>
+      <c r="S97" s="3">
+        <v>4.9569999999999999</v>
+      </c>
+      <c r="T97" s="3">
+        <v>-9.048</v>
+      </c>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
@@ -6737,7 +7058,10 @@
       <c r="AO97" s="3"/>
       <c r="AP97" s="3"/>
     </row>
-    <row r="98" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -6753,9 +7077,18 @@
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
+      <c r="R98" s="23">
+        <f t="shared" ref="R98:S98" si="70">+R96+R97+R86+R82</f>
+        <v>-82.910999999999603</v>
+      </c>
+      <c r="S98" s="23">
+        <f t="shared" si="70"/>
+        <v>-182.7820000000001</v>
+      </c>
+      <c r="T98" s="23">
+        <f>+T96+T97+T86+T82</f>
+        <v>58.530999999999835</v>
+      </c>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
@@ -6779,7 +7112,10 @@
       <c r="AO98" s="3"/>
       <c r="AP98" s="3"/>
     </row>
-    <row r="99" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -6795,9 +7131,17 @@
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
+      <c r="R99" s="3">
+        <f>+R100-R98</f>
+        <v>1121.1529999999998</v>
+      </c>
+      <c r="S99" s="3">
+        <f>+S100-S98</f>
+        <v>1038.2420000000002</v>
+      </c>
+      <c r="T99" s="3">
+        <v>855.46</v>
+      </c>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
@@ -6821,7 +7165,10 @@
       <c r="AO99" s="3"/>
       <c r="AP99" s="3"/>
     </row>
-    <row r="100" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -6837,9 +7184,18 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
+      <c r="R100" s="3">
+        <f>+S99</f>
+        <v>1038.2420000000002</v>
+      </c>
+      <c r="S100" s="3">
+        <f>+T99</f>
+        <v>855.46</v>
+      </c>
+      <c r="T100" s="3">
+        <f>+T98+T99</f>
+        <v>913.99099999999987</v>
+      </c>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
@@ -6863,7 +7219,7 @@
       <c r="AO100" s="3"/>
       <c r="AP100" s="3"/>
     </row>
-    <row r="101" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -6905,7 +7261,10 @@
       <c r="AO101" s="3"/>
       <c r="AP101" s="3"/>
     </row>
-    <row r="102" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B102" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -6921,9 +7280,18 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
+      <c r="R102" s="3">
+        <f t="shared" ref="R102:T102" si="71">+R82+R86</f>
+        <v>677.27300000000025</v>
+      </c>
+      <c r="S102" s="3">
+        <f t="shared" si="71"/>
+        <v>397.29299999999989</v>
+      </c>
+      <c r="T102" s="3">
+        <f>+T82+T86</f>
+        <v>537.14400000000012</v>
+      </c>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
@@ -6947,7 +7315,7 @@
       <c r="AO102" s="3"/>
       <c r="AP102" s="3"/>
     </row>
-    <row r="103" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -6989,7 +7357,7 @@
       <c r="AO103" s="3"/>
       <c r="AP103" s="3"/>
     </row>
-    <row r="104" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -7031,7 +7399,7 @@
       <c r="AO104" s="3"/>
       <c r="AP104" s="3"/>
     </row>
-    <row r="105" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -7073,7 +7441,7 @@
       <c r="AO105" s="3"/>
       <c r="AP105" s="3"/>
     </row>
-    <row r="106" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -7115,7 +7483,7 @@
       <c r="AO106" s="3"/>
       <c r="AP106" s="3"/>
     </row>
-    <row r="107" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -7157,7 +7525,7 @@
       <c r="AO107" s="3"/>
       <c r="AP107" s="3"/>
     </row>
-    <row r="108" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -7199,7 +7567,7 @@
       <c r="AO108" s="3"/>
       <c r="AP108" s="3"/>
     </row>
-    <row r="109" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -7241,7 +7609,7 @@
       <c r="AO109" s="3"/>
       <c r="AP109" s="3"/>
     </row>
-    <row r="110" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -7283,7 +7651,7 @@
       <c r="AO110" s="3"/>
       <c r="AP110" s="3"/>
     </row>
-    <row r="111" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -7325,7 +7693,7 @@
       <c r="AO111" s="3"/>
       <c r="AP111" s="3"/>
     </row>
-    <row r="112" spans="3:42" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:42" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>

--- a/VIRT.xlsx
+++ b/VIRT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDB897D-8A03-456E-8E43-92C80D4EA12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763A4E48-BD10-4F7B-80A1-05993EC082E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{F2317BC5-DDE7-4B11-8968-E77385A88B35}"/>
   </bookViews>
@@ -1990,7 +1990,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2016,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="6">
-        <v>41.35</v>
+        <v>35.450000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="H4" s="7">
         <f>+H2*H3</f>
-        <v>6320.9364066999997</v>
+        <v>5419.0373789000005</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="H7" s="7">
         <f>+H4-H5+H6</f>
-        <v>7563.7604067000002</v>
+        <v>6661.861378900001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -30008,7 +30008,7 @@
       <c r="I3" s="33"/>
       <c r="J3" s="36">
         <f>+Main!H2</f>
-        <v>41.35</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="33" t="s">
@@ -30018,7 +30018,7 @@
       <c r="N3" s="33"/>
       <c r="O3" s="36">
         <f>+J3</f>
-        <v>41.35</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
@@ -30058,7 +30058,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="37">
         <f ca="1">+TODAY()</f>
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="33" t="s">
@@ -30068,7 +30068,7 @@
       <c r="I4" s="33"/>
       <c r="J4" s="38">
         <f ca="1">V62</f>
-        <v>59.060605626809568</v>
+        <v>59.068525449527023</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33" t="s">
@@ -30127,7 +30127,7 @@
       <c r="I5" s="33"/>
       <c r="J5" s="41">
         <f ca="1">J4/J3-1</f>
-        <v>0.42830968867737762</v>
+        <v>0.66624895485266622</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33" t="s">
@@ -33180,43 +33180,43 @@
       <c r="L52" s="67"/>
       <c r="M52" s="67">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>207.12741058830122</v>
+        <v>203.00778494745509</v>
       </c>
       <c r="N52" s="67">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>722.21694796479017</v>
+        <v>722.59946382249666</v>
       </c>
       <c r="O52" s="67">
         <f t="shared" ref="O52:U52" ca="1" si="15">O51/(1+$E$18)^O53</f>
-        <v>685.50011315375639</v>
+        <v>685.86318226267133</v>
       </c>
       <c r="P52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>650.62898863966609</v>
+        <v>650.97358856402332</v>
       </c>
       <c r="Q52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>617.5116438062912</v>
+        <v>617.83870342008163</v>
       </c>
       <c r="R52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>586.06069191512472</v>
+        <v>586.3710938087213</v>
       </c>
       <c r="S52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>556.19306696487763</v>
+        <v>556.48764973347636</v>
       </c>
       <c r="T52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>527.82981144829944</v>
+        <v>528.10937186794638</v>
       </c>
       <c r="U52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>500.89587447668936</v>
+        <v>501.16116957338699</v>
       </c>
       <c r="V52" s="68">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>472.51195935390774</v>
+        <v>472.76222115947479</v>
       </c>
       <c r="W52" s="33"/>
       <c r="X52" s="33"/>
@@ -33257,43 +33257,43 @@
       <c r="L53" s="33"/>
       <c r="M53" s="95">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.2722222222222222</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="N53" s="95">
         <f ca="1">M53+1</f>
-        <v>1.2722222222222221</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="O53" s="95">
         <f ca="1">N53+1</f>
-        <v>2.2722222222222221</v>
+        <v>2.2666666666666666</v>
       </c>
       <c r="P53" s="95">
         <f t="shared" ref="P53:V53" ca="1" si="16">O53+1</f>
-        <v>3.2722222222222221</v>
+        <v>3.2666666666666666</v>
       </c>
       <c r="Q53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>4.2722222222222221</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="R53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2722222222222221</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="S53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>6.2722222222222221</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="T53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>7.2722222222222221</v>
+        <v>7.2666666666666666</v>
       </c>
       <c r="U53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2722222222222221</v>
+        <v>8.2666666666666657</v>
       </c>
       <c r="V53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>9.2722222222222221</v>
+        <v>9.2666666666666657</v>
       </c>
       <c r="W53" s="33"/>
       <c r="X53" s="33"/>
@@ -33343,7 +33343,7 @@
       <c r="U54" s="33"/>
       <c r="V54" s="48">
         <f ca="1">SUM(M52:V52)</f>
-        <v>5526.4765083117045</v>
+        <v>5525.1742291597338</v>
       </c>
       <c r="W54" s="33"/>
       <c r="X54" s="33"/>
@@ -33445,7 +33445,7 @@
       <c r="U56" s="71"/>
       <c r="V56" s="72">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>4744.6022028914731</v>
+        <v>4747.1151397399217</v>
       </c>
       <c r="W56" s="33"/>
       <c r="X56" s="33"/>
@@ -33495,7 +33495,7 @@
       <c r="U57" s="74"/>
       <c r="V57" s="75">
         <f ca="1">V54+V56</f>
-        <v>10271.078711203178</v>
+        <v>10272.289368899656</v>
       </c>
       <c r="W57" s="33"/>
       <c r="X57" s="33"/>
@@ -33645,7 +33645,7 @@
       <c r="U60" s="33"/>
       <c r="V60" s="76">
         <f ca="1">V57+V58-V59</f>
-        <v>9028.2547112031789</v>
+        <v>9029.4653688996568</v>
       </c>
       <c r="W60" s="33"/>
       <c r="X60" s="33"/>
@@ -33745,7 +33745,7 @@
       <c r="U62" s="33"/>
       <c r="V62" s="76">
         <f ca="1">V60/V61</f>
-        <v>59.060605626809568</v>
+        <v>59.068525449527023</v>
       </c>
       <c r="W62" s="33"/>
       <c r="X62" s="33"/>
@@ -34054,7 +34054,7 @@
       </c>
       <c r="C69" s="79">
         <f ca="1">+J4</f>
-        <v>59.060605626809568</v>
+        <v>59.068525449527023</v>
       </c>
       <c r="D69" s="80"/>
       <c r="E69" s="80"/>
@@ -34070,7 +34070,7 @@
       </c>
       <c r="N69" s="79">
         <f ca="1">+J4</f>
-        <v>59.060605626809568</v>
+        <v>59.068525449527023</v>
       </c>
       <c r="O69" s="80"/>
       <c r="P69" s="80"/>

--- a/VIRT.xlsx
+++ b/VIRT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763A4E48-BD10-4F7B-80A1-05993EC082E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09CF905-6015-4A9B-A16D-341DD27F95BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{F2317BC5-DDE7-4B11-8968-E77385A88B35}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="316">
   <si>
     <t xml:space="preserve">Virtu Financial </t>
   </si>
@@ -1002,6 +1002,15 @@
   <si>
     <t>=EV/Revenue</t>
   </si>
+  <si>
+    <t>Biggest Risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performance will suffer if markets stabilize -&gt; profits extremly from volatility </t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/virtu-financial-virt-down-4-153019856.html</t>
+  </si>
 </sst>
 </file>
 
@@ -1018,13 +1027,19 @@
     <numFmt numFmtId="171" formatCode="0.0"/>
     <numFmt numFmtId="172" formatCode="\F\Y#,##0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1395,172 +1410,173 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="14" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1987,10 +2003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7DA60B-4FB3-4488-9DA0-E5C9B71C2297}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2180,6 +2196,21 @@
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="104" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="104" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -30058,7 +30089,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="37">
         <f ca="1">+TODAY()</f>
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="33" t="s">
@@ -30068,7 +30099,7 @@
       <c r="I4" s="33"/>
       <c r="J4" s="38">
         <f ca="1">V62</f>
-        <v>59.068525449527023</v>
+        <v>59.084333704552556</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33" t="s">
@@ -30127,7 +30158,7 @@
       <c r="I5" s="33"/>
       <c r="J5" s="41">
         <f ca="1">J4/J3-1</f>
-        <v>0.66624895485266622</v>
+        <v>0.66669488588300574</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33" t="s">
@@ -33180,43 +33211,43 @@
       <c r="L52" s="67"/>
       <c r="M52" s="67">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>203.00778494745509</v>
+        <v>194.75526428624116</v>
       </c>
       <c r="N52" s="67">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>722.59946382249666</v>
+        <v>723.36510343369696</v>
       </c>
       <c r="O52" s="67">
         <f t="shared" ref="O52:U52" ca="1" si="15">O51/(1+$E$18)^O53</f>
-        <v>685.86318226267133</v>
+        <v>686.58989747143494</v>
       </c>
       <c r="P52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>650.97358856402332</v>
+        <v>651.66333605236662</v>
       </c>
       <c r="Q52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>617.83870342008163</v>
+        <v>618.49334241215718</v>
       </c>
       <c r="R52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>586.3710938087213</v>
+        <v>586.99239088789159</v>
       </c>
       <c r="S52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>556.48764973347636</v>
+        <v>557.07728342283156</v>
       </c>
       <c r="T52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>528.10937186794638</v>
+        <v>528.6689369858185</v>
       </c>
       <c r="U52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>501.16116957338699</v>
+        <v>501.69218137485041</v>
       </c>
       <c r="V52" s="68">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>472.76222115947479</v>
+        <v>473.26314248770808</v>
       </c>
       <c r="W52" s="33"/>
       <c r="X52" s="33"/>
@@ -33257,43 +33288,43 @@
       <c r="L53" s="33"/>
       <c r="M53" s="95">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.26666666666666666</v>
+        <v>0.25555555555555554</v>
       </c>
       <c r="N53" s="95">
         <f ca="1">M53+1</f>
-        <v>1.2666666666666666</v>
+        <v>1.2555555555555555</v>
       </c>
       <c r="O53" s="95">
         <f ca="1">N53+1</f>
-        <v>2.2666666666666666</v>
+        <v>2.2555555555555555</v>
       </c>
       <c r="P53" s="95">
         <f t="shared" ref="P53:V53" ca="1" si="16">O53+1</f>
-        <v>3.2666666666666666</v>
+        <v>3.2555555555555555</v>
       </c>
       <c r="Q53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>4.2666666666666666</v>
+        <v>4.2555555555555555</v>
       </c>
       <c r="R53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2666666666666666</v>
+        <v>5.2555555555555555</v>
       </c>
       <c r="S53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>6.2666666666666666</v>
+        <v>6.2555555555555555</v>
       </c>
       <c r="T53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>7.2666666666666666</v>
+        <v>7.2555555555555555</v>
       </c>
       <c r="U53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2666666666666657</v>
+        <v>8.2555555555555564</v>
       </c>
       <c r="V53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>9.2666666666666657</v>
+        <v>9.2555555555555564</v>
       </c>
       <c r="W53" s="33"/>
       <c r="X53" s="33"/>
@@ -33343,7 +33374,7 @@
       <c r="U54" s="33"/>
       <c r="V54" s="48">
         <f ca="1">SUM(M52:V52)</f>
-        <v>5525.1742291597338</v>
+        <v>5522.5608788149966</v>
       </c>
       <c r="W54" s="33"/>
       <c r="X54" s="33"/>
@@ -33445,7 +33476,7 @@
       <c r="U56" s="71"/>
       <c r="V56" s="72">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>4747.1151397399217</v>
+        <v>4752.1450070064793</v>
       </c>
       <c r="W56" s="33"/>
       <c r="X56" s="33"/>
@@ -33495,7 +33526,7 @@
       <c r="U57" s="74"/>
       <c r="V57" s="75">
         <f ca="1">V54+V56</f>
-        <v>10272.289368899656</v>
+        <v>10274.705885821477</v>
       </c>
       <c r="W57" s="33"/>
       <c r="X57" s="33"/>
@@ -33645,7 +33676,7 @@
       <c r="U60" s="33"/>
       <c r="V60" s="76">
         <f ca="1">V57+V58-V59</f>
-        <v>9029.4653688996568</v>
+        <v>9031.8818858214781</v>
       </c>
       <c r="W60" s="33"/>
       <c r="X60" s="33"/>
@@ -33745,7 +33776,7 @@
       <c r="U62" s="33"/>
       <c r="V62" s="76">
         <f ca="1">V60/V61</f>
-        <v>59.068525449527023</v>
+        <v>59.084333704552556</v>
       </c>
       <c r="W62" s="33"/>
       <c r="X62" s="33"/>
@@ -34054,7 +34085,7 @@
       </c>
       <c r="C69" s="79">
         <f ca="1">+J4</f>
-        <v>59.068525449527023</v>
+        <v>59.084333704552556</v>
       </c>
       <c r="D69" s="80"/>
       <c r="E69" s="80"/>
@@ -34070,7 +34101,7 @@
       </c>
       <c r="N69" s="79">
         <f ca="1">+J4</f>
-        <v>59.068525449527023</v>
+        <v>59.084333704552556</v>
       </c>
       <c r="O69" s="80"/>
       <c r="P69" s="80"/>

--- a/VIRT.xlsx
+++ b/VIRT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09CF905-6015-4A9B-A16D-341DD27F95BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FF674B-DB1D-4F5B-A8F2-6E7C8CC4FC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{F2317BC5-DDE7-4B11-8968-E77385A88B35}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{F2317BC5-DDE7-4B11-8968-E77385A88B35}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1558,6 +1558,7 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1576,7 +1577,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2005,7 +2005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7DA60B-4FB3-4488-9DA0-E5C9B71C2297}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -2199,12 +2199,12 @@
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="98" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="98" t="s">
         <v>314</v>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
   <dimension ref="A1:AP351"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
@@ -19203,11 +19203,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFEDBAA-4575-49B0-A45F-BCC90477D664}">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -19561,11 +19561,26 @@
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="E10" s="48">
+        <f>+Model!P49+Model!P51+Model!P52+Model!P42+Model!P43+Model!P44+Model!P45+Model!P46+Model!P47-Model!P58-Model!P59-Model!P60-Model!P64</f>
+        <v>5893.1750000000002</v>
+      </c>
+      <c r="F10" s="48">
+        <f>+Model!Q49+Model!Q51+Model!Q52+Model!Q42+Model!Q43+Model!Q44+Model!Q45+Model!Q46+Model!Q47-Model!Q58-Model!Q59-Model!Q60-Model!Q64</f>
+        <v>6295.902000000001</v>
+      </c>
+      <c r="G10" s="48">
+        <f>+Model!R49+Model!R51+Model!R52+Model!R42+Model!R43+Model!R44+Model!R45+Model!R46+Model!R47-Model!R58-Model!R59-Model!R60-Model!R64</f>
+        <v>8906.84</v>
+      </c>
+      <c r="H10" s="48">
+        <f>+Model!S49+Model!S51+Model!S52+Model!S42+Model!S43+Model!S44+Model!S45+Model!S46+Model!S47-Model!S58-Model!S59-Model!S60-Model!S64</f>
+        <v>8199.5000000000018</v>
+      </c>
+      <c r="I10" s="48">
+        <f>+Model!T49+Model!T51+Model!T52+Model!T42+Model!T43+Model!T44+Model!T45+Model!T46+Model!T47-Model!T58-Model!T59-Model!T60-Model!T64</f>
+        <v>8594.973</v>
+      </c>
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="70" t="s">
@@ -19587,11 +19602,26 @@
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="E11" s="48">
+        <f>+Model!P41+Model!P42+Model!P43+Model!P44+Model!P45+Model!P46+Model!P47+Model!P49+Model!P54-Model!P58-Model!P59-Model!P60-Model!P61-Model!P63-Model!P64-Model!P68+Model!P52+Model!P51</f>
+        <v>4299.0969999999998</v>
+      </c>
+      <c r="F11" s="48">
+        <f>+Model!Q41+Model!Q42+Model!Q43+Model!Q44+Model!Q45+Model!Q46+Model!Q47+Model!Q49+Model!Q54-Model!Q58-Model!Q59-Model!Q60-Model!Q61-Model!Q63-Model!Q64-Model!Q68+Model!Q52+Model!Q51</f>
+        <v>4717.2849999999999</v>
+      </c>
+      <c r="G11" s="48">
+        <f>+Model!R41+Model!R42+Model!R43+Model!R44+Model!R45+Model!R46+Model!R47+Model!R49+Model!R54-Model!R58-Model!R59-Model!R60-Model!R61-Model!R63-Model!R64-Model!R68+Model!R52+Model!R51</f>
+        <v>9267.4179999999997</v>
+      </c>
+      <c r="H11" s="48">
+        <f>+Model!S41+Model!S42+Model!S43+Model!S44+Model!S45+Model!S46+Model!S47+Model!S49+Model!S54-Model!S58-Model!S59-Model!S60-Model!S61-Model!S63-Model!S64-Model!S68+Model!S52+Model!S51</f>
+        <v>8298.5349999999999</v>
+      </c>
+      <c r="I11" s="48">
+        <f>+Model!T41+Model!T42+Model!T43+Model!T44+Model!T45+Model!T46+Model!T47+Model!T49+Model!T54-Model!T58-Model!T59-Model!T60-Model!T61-Model!T63-Model!T64-Model!T68+Model!T52+Model!T51</f>
+        <v>8754.5760000000009</v>
+      </c>
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="70" t="s">
@@ -19613,11 +19643,26 @@
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
+      <c r="E12" s="48">
+        <f>+Model!P41+Model!P42+Model!P43+Model!P44+Model!P45+Model!P46+Model!P47+Model!P49+Model!P54-Model!P58-Model!P59-Model!P60-Model!P61-Model!P63-Model!P64-Model!P68</f>
+        <v>2695.6720000000005</v>
+      </c>
+      <c r="F12" s="48">
+        <f>+Model!Q41+Model!Q42+Model!Q43+Model!Q44+Model!Q45+Model!Q46+Model!Q47+Model!Q49+Model!Q54-Model!Q58-Model!Q59-Model!Q60-Model!Q61-Model!Q63-Model!Q64-Model!Q68</f>
+        <v>3182.0270000000005</v>
+      </c>
+      <c r="G12" s="48">
+        <f>+Model!R41+Model!R42+Model!R43+Model!R44+Model!R45+Model!R46+Model!R47+Model!R49+Model!R54-Model!R58-Model!R59-Model!R60-Model!R61-Model!R63-Model!R64-Model!R68</f>
+        <v>7797.0120000000006</v>
+      </c>
+      <c r="H12" s="48">
+        <f>+Model!S41+Model!S42+Model!S43+Model!S44+Model!S45+Model!S46+Model!S47+Model!S49+Model!S54-Model!S58-Model!S59-Model!S60-Model!S61-Model!S63-Model!S64-Model!S68</f>
+        <v>6892.0890000000009</v>
+      </c>
+      <c r="I12" s="48">
+        <f>+Model!T41+Model!T42+Model!T43+Model!T44+Model!T45+Model!T46+Model!T47+Model!T49+Model!T54-Model!T58-Model!T59-Model!T60-Model!T61-Model!T63-Model!T64-Model!T68</f>
+        <v>7402.4620000000014</v>
+      </c>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="70"/>
@@ -19637,11 +19682,26 @@
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="E13" s="48">
+        <f>+E11+Model!P40+Model!P41-Model!P57-Model!P67</f>
+        <v>4926.076</v>
+      </c>
+      <c r="F13" s="48">
+        <f>+F11+Model!Q40+Model!Q41-Model!Q57-Model!Q67</f>
+        <v>5497.9829999999993</v>
+      </c>
+      <c r="G13" s="48">
+        <f>+G11+Model!R40+Model!R41-Model!R57-Model!R67</f>
+        <v>10305.66</v>
+      </c>
+      <c r="H13" s="48">
+        <f>+H11+Model!S40+Model!S41-Model!S57-Model!S67</f>
+        <v>7426.7899999999991</v>
+      </c>
+      <c r="I13" s="48">
+        <f>+I11+Model!T40+Model!T41-Model!T57-Model!T67</f>
+        <v>7889.5590000000011</v>
+      </c>
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="70" t="s">
@@ -19663,11 +19723,26 @@
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="E14" s="48">
+        <f>+Model!P19*(1-Model!P38)</f>
+        <v>1215.4390711002102</v>
+      </c>
+      <c r="F14" s="48">
+        <f>+Model!Q19*(1-Model!Q38)</f>
+        <v>899.06092396258839</v>
+      </c>
+      <c r="G14" s="48">
+        <f>+Model!R19*(1-Model!R38)</f>
+        <v>570.90195488489587</v>
+      </c>
+      <c r="H14" s="48">
+        <f>+Model!S19*(1-Model!S38)</f>
+        <v>351.28349888817473</v>
+      </c>
+      <c r="I14" s="48">
+        <f>+Model!T19*(1-Model!T38)</f>
+        <v>640.02230845620727</v>
+      </c>
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33" t="s">
@@ -19917,13 +19992,34 @@
       <c r="B24" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="C24" s="53" t="e">
+        <f t="shared" ref="C24:I24" si="3">+C14/C11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="53" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="53">
+        <f t="shared" si="3"/>
+        <v>0.28271962021331692</v>
+      </c>
+      <c r="F24" s="53">
+        <f t="shared" si="3"/>
+        <v>0.19058863815999849</v>
+      </c>
+      <c r="G24" s="53">
+        <f t="shared" si="3"/>
+        <v>6.1603129899276791E-2</v>
+      </c>
+      <c r="H24" s="53">
+        <f t="shared" si="3"/>
+        <v>4.2330784757571634E-2</v>
+      </c>
+      <c r="I24" s="53">
+        <f>+I14/I11</f>
+        <v>7.3107173717631466E-2</v>
+      </c>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
       <c r="L24" s="70" t="s">
@@ -19943,13 +20039,34 @@
       <c r="B25" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="C25" s="53" t="e">
+        <f t="shared" ref="C25:I25" si="4">+C14/C12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="53" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="53">
+        <f t="shared" si="4"/>
+        <v>0.45088537147702318</v>
+      </c>
+      <c r="F25" s="53">
+        <f t="shared" si="4"/>
+        <v>0.28254346175019518</v>
+      </c>
+      <c r="G25" s="53">
+        <f t="shared" si="4"/>
+        <v>7.3220607443581692E-2</v>
+      </c>
+      <c r="H25" s="53">
+        <f t="shared" si="4"/>
+        <v>5.0969089181549264E-2</v>
+      </c>
+      <c r="I25" s="53">
+        <f>+I14/I12</f>
+        <v>8.6460735422378004E-2</v>
+      </c>
       <c r="J25" s="33"/>
       <c r="K25" s="33"/>
       <c r="L25" s="70" t="s">
@@ -20903,7 +21020,8 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5934CDAB-6576-4A28-8231-029B9362BCA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -30089,7 +30207,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="37">
         <f ca="1">+TODAY()</f>
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="33" t="s">
@@ -30099,7 +30217,7 @@
       <c r="I4" s="33"/>
       <c r="J4" s="38">
         <f ca="1">V62</f>
-        <v>59.084333704552556</v>
+        <v>59.092222110248017</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33" t="s">
@@ -30158,7 +30276,7 @@
       <c r="I5" s="33"/>
       <c r="J5" s="41">
         <f ca="1">J4/J3-1</f>
-        <v>0.66669488588300574</v>
+        <v>0.66691740790544451</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33" t="s">
@@ -33211,43 +33329,43 @@
       <c r="L52" s="67"/>
       <c r="M52" s="67">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>194.75526428624116</v>
+        <v>190.62236220646091</v>
       </c>
       <c r="N52" s="67">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>723.36510343369696</v>
+        <v>723.74822740185425</v>
       </c>
       <c r="O52" s="67">
         <f t="shared" ref="O52:U52" ca="1" si="15">O51/(1+$E$18)^O53</f>
-        <v>686.58989747143494</v>
+        <v>686.95354377503372</v>
       </c>
       <c r="P52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>651.66333605236662</v>
+        <v>652.00848380973832</v>
       </c>
       <c r="Q52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>618.49334241215718</v>
+        <v>618.82092197398435</v>
       </c>
       <c r="R52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>586.99239088789159</v>
+        <v>587.30328624765889</v>
       </c>
       <c r="S52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>557.07728342283156</v>
+        <v>557.37233450890449</v>
       </c>
       <c r="T52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>528.6689369858185</v>
+        <v>528.94894184092993</v>
       </c>
       <c r="U52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>501.69218137485041</v>
+        <v>501.95789822849662</v>
       </c>
       <c r="V52" s="68">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>473.26314248770808</v>
+        <v>473.51380215081866</v>
       </c>
       <c r="W52" s="33"/>
       <c r="X52" s="33"/>
@@ -33288,43 +33406,43 @@
       <c r="L53" s="33"/>
       <c r="M53" s="95">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.25555555555555554</v>
+        <v>0.25</v>
       </c>
       <c r="N53" s="95">
         <f ca="1">M53+1</f>
-        <v>1.2555555555555555</v>
+        <v>1.25</v>
       </c>
       <c r="O53" s="95">
         <f ca="1">N53+1</f>
-        <v>2.2555555555555555</v>
+        <v>2.25</v>
       </c>
       <c r="P53" s="95">
         <f t="shared" ref="P53:V53" ca="1" si="16">O53+1</f>
-        <v>3.2555555555555555</v>
+        <v>3.25</v>
       </c>
       <c r="Q53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>4.2555555555555555</v>
+        <v>4.25</v>
       </c>
       <c r="R53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2555555555555555</v>
+        <v>5.25</v>
       </c>
       <c r="S53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>6.2555555555555555</v>
+        <v>6.25</v>
       </c>
       <c r="T53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>7.2555555555555555</v>
+        <v>7.25</v>
       </c>
       <c r="U53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2555555555555564</v>
+        <v>8.25</v>
       </c>
       <c r="V53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>9.2555555555555564</v>
+        <v>9.25</v>
       </c>
       <c r="W53" s="33"/>
       <c r="X53" s="33"/>
@@ -33374,7 +33492,7 @@
       <c r="U54" s="33"/>
       <c r="V54" s="48">
         <f ca="1">SUM(M52:V52)</f>
-        <v>5522.5608788149966</v>
+        <v>5521.2498021438796</v>
       </c>
       <c r="W54" s="33"/>
       <c r="X54" s="33"/>
@@ -33476,7 +33594,7 @@
       <c r="U56" s="71"/>
       <c r="V56" s="72">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>4752.1450070064793</v>
+        <v>4754.6619388348217</v>
       </c>
       <c r="W56" s="33"/>
       <c r="X56" s="33"/>
@@ -33526,7 +33644,7 @@
       <c r="U57" s="74"/>
       <c r="V57" s="75">
         <f ca="1">V54+V56</f>
-        <v>10274.705885821477</v>
+        <v>10275.911740978701</v>
       </c>
       <c r="W57" s="33"/>
       <c r="X57" s="33"/>
@@ -33676,7 +33794,7 @@
       <c r="U60" s="33"/>
       <c r="V60" s="76">
         <f ca="1">V57+V58-V59</f>
-        <v>9031.8818858214781</v>
+        <v>9033.0877409787026</v>
       </c>
       <c r="W60" s="33"/>
       <c r="X60" s="33"/>
@@ -33776,7 +33894,7 @@
       <c r="U62" s="33"/>
       <c r="V62" s="76">
         <f ca="1">V60/V61</f>
-        <v>59.084333704552556</v>
+        <v>59.092222110248017</v>
       </c>
       <c r="W62" s="33"/>
       <c r="X62" s="33"/>
@@ -34032,29 +34150,29 @@
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" s="33"/>
       <c r="B68" s="78"/>
-      <c r="C68" s="98" t="s">
+      <c r="C68" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="D68" s="98"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="98"/>
-      <c r="G68" s="98"/>
-      <c r="H68" s="98"/>
-      <c r="I68" s="98"/>
-      <c r="J68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="99"/>
+      <c r="I68" s="99"/>
+      <c r="J68" s="100"/>
       <c r="K68" s="33"/>
       <c r="L68" s="33"/>
       <c r="M68" s="78"/>
-      <c r="N68" s="100" t="s">
+      <c r="N68" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="O68" s="100"/>
-      <c r="P68" s="100"/>
-      <c r="Q68" s="100"/>
-      <c r="R68" s="100"/>
-      <c r="S68" s="100"/>
-      <c r="T68" s="100"/>
-      <c r="U68" s="101"/>
+      <c r="O68" s="101"/>
+      <c r="P68" s="101"/>
+      <c r="Q68" s="101"/>
+      <c r="R68" s="101"/>
+      <c r="S68" s="101"/>
+      <c r="T68" s="101"/>
+      <c r="U68" s="102"/>
       <c r="V68" s="33"/>
       <c r="W68" s="33"/>
       <c r="X68" s="33"/>
@@ -34080,12 +34198,12 @@
     </row>
     <row r="69" spans="1:43" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="33"/>
-      <c r="B69" s="102" t="s">
+      <c r="B69" s="103" t="s">
         <v>156</v>
       </c>
       <c r="C69" s="79">
         <f ca="1">+J4</f>
-        <v>59.084333704552556</v>
+        <v>59.092222110248017</v>
       </c>
       <c r="D69" s="80"/>
       <c r="E69" s="80"/>
@@ -34096,12 +34214,12 @@
       <c r="J69" s="80"/>
       <c r="K69" s="33"/>
       <c r="L69" s="33"/>
-      <c r="M69" s="102" t="s">
+      <c r="M69" s="103" t="s">
         <v>156</v>
       </c>
       <c r="N69" s="79">
         <f ca="1">+J4</f>
-        <v>59.084333704552556</v>
+        <v>59.092222110248017</v>
       </c>
       <c r="O69" s="80"/>
       <c r="P69" s="80"/>
@@ -34135,7 +34253,7 @@
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70" s="33"/>
-      <c r="B70" s="102"/>
+      <c r="B70" s="103"/>
       <c r="C70" s="81"/>
       <c r="D70" s="82"/>
       <c r="E70" s="82"/>
@@ -34146,7 +34264,7 @@
       <c r="J70" s="82"/>
       <c r="K70" s="33"/>
       <c r="L70" s="33"/>
-      <c r="M70" s="102"/>
+      <c r="M70" s="103"/>
       <c r="N70" s="81"/>
       <c r="O70" s="82"/>
       <c r="P70" s="82"/>
@@ -34180,7 +34298,7 @@
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="33"/>
-      <c r="B71" s="102"/>
+      <c r="B71" s="103"/>
       <c r="C71" s="81"/>
       <c r="D71" s="82"/>
       <c r="E71" s="82"/>
@@ -34191,7 +34309,7 @@
       <c r="J71" s="82"/>
       <c r="K71" s="33"/>
       <c r="L71" s="33"/>
-      <c r="M71" s="102"/>
+      <c r="M71" s="103"/>
       <c r="N71" s="81"/>
       <c r="O71" s="82"/>
       <c r="P71" s="82"/>
@@ -34225,7 +34343,7 @@
     </row>
     <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72" s="33"/>
-      <c r="B72" s="102"/>
+      <c r="B72" s="103"/>
       <c r="C72" s="81"/>
       <c r="D72" s="83"/>
       <c r="E72" s="83"/>
@@ -34236,7 +34354,7 @@
       <c r="J72" s="83"/>
       <c r="K72" s="33"/>
       <c r="L72" s="33"/>
-      <c r="M72" s="102"/>
+      <c r="M72" s="103"/>
       <c r="N72" s="81"/>
       <c r="O72" s="83"/>
       <c r="P72" s="83"/>
@@ -34270,7 +34388,7 @@
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73" s="33"/>
-      <c r="B73" s="102"/>
+      <c r="B73" s="103"/>
       <c r="C73" s="81"/>
       <c r="D73" s="82"/>
       <c r="E73" s="82"/>
@@ -34281,7 +34399,7 @@
       <c r="J73" s="82"/>
       <c r="K73" s="33"/>
       <c r="L73" s="33"/>
-      <c r="M73" s="102"/>
+      <c r="M73" s="103"/>
       <c r="N73" s="81"/>
       <c r="O73" s="82"/>
       <c r="P73" s="82"/>
@@ -34315,7 +34433,7 @@
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74" s="33"/>
-      <c r="B74" s="102"/>
+      <c r="B74" s="103"/>
       <c r="C74" s="81"/>
       <c r="D74" s="82"/>
       <c r="E74" s="82"/>
@@ -34326,7 +34444,7 @@
       <c r="J74" s="82"/>
       <c r="K74" s="33"/>
       <c r="L74" s="33"/>
-      <c r="M74" s="102"/>
+      <c r="M74" s="103"/>
       <c r="N74" s="81"/>
       <c r="O74" s="82"/>
       <c r="P74" s="82"/>
@@ -34360,7 +34478,7 @@
     </row>
     <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A75" s="33"/>
-      <c r="B75" s="102"/>
+      <c r="B75" s="103"/>
       <c r="C75" s="81"/>
       <c r="D75" s="82"/>
       <c r="E75" s="82"/>
@@ -34371,7 +34489,7 @@
       <c r="J75" s="82"/>
       <c r="K75" s="33"/>
       <c r="L75" s="33"/>
-      <c r="M75" s="102"/>
+      <c r="M75" s="103"/>
       <c r="N75" s="81"/>
       <c r="O75" s="82"/>
       <c r="P75" s="82"/>
@@ -34405,7 +34523,7 @@
     </row>
     <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76" s="33"/>
-      <c r="B76" s="103"/>
+      <c r="B76" s="104"/>
       <c r="C76" s="81"/>
       <c r="D76" s="82"/>
       <c r="E76" s="82"/>
@@ -34416,7 +34534,7 @@
       <c r="J76" s="82"/>
       <c r="K76" s="33"/>
       <c r="L76" s="33"/>
-      <c r="M76" s="103"/>
+      <c r="M76" s="104"/>
       <c r="N76" s="81"/>
       <c r="O76" s="82"/>
       <c r="P76" s="82"/>

--- a/VIRT.xlsx
+++ b/VIRT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FF674B-DB1D-4F5B-A8F2-6E7C8CC4FC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03521AA-8E1B-4E85-9132-7144B808F1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{F2317BC5-DDE7-4B11-8968-E77385A88B35}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{F2317BC5-DDE7-4B11-8968-E77385A88B35}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7DA60B-4FB3-4488-9DA0-E5C9B71C2297}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2032,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="6">
-        <v>35.450000000000003</v>
+        <v>34.51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="H4" s="7">
         <f>+H2*H3</f>
-        <v>5419.0373789000005</v>
+        <v>5275.3449914199991</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="H7" s="7">
         <f>+H4-H5+H6</f>
-        <v>6661.861378900001</v>
+        <v>6518.1689914199997</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -19203,7 +19203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFEDBAA-4575-49B0-A45F-BCC90477D664}">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -19993,7 +19993,7 @@
         <v>252</v>
       </c>
       <c r="C24" s="53" t="e">
-        <f t="shared" ref="C24:I24" si="3">+C14/C11</f>
+        <f t="shared" ref="C24:H24" si="3">+C14/C11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D24" s="53" t="e">
@@ -20040,7 +20040,7 @@
         <v>254</v>
       </c>
       <c r="C25" s="53" t="e">
-        <f t="shared" ref="C25:I25" si="4">+C14/C12</f>
+        <f t="shared" ref="C25:H25" si="4">+C14/C12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D25" s="53" t="e">
@@ -30157,7 +30157,7 @@
       <c r="I3" s="33"/>
       <c r="J3" s="36">
         <f>+Main!H2</f>
-        <v>35.450000000000003</v>
+        <v>34.51</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="33" t="s">
@@ -30167,7 +30167,7 @@
       <c r="N3" s="33"/>
       <c r="O3" s="36">
         <f>+J3</f>
-        <v>35.450000000000003</v>
+        <v>34.51</v>
       </c>
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
@@ -30207,7 +30207,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="37">
         <f ca="1">+TODAY()</f>
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="33" t="s">
@@ -30276,7 +30276,7 @@
       <c r="I5" s="33"/>
       <c r="J5" s="41">
         <f ca="1">J4/J3-1</f>
-        <v>0.66691740790544451</v>
+        <v>0.71232170704862408</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33" t="s">

--- a/VIRT.xlsx
+++ b/VIRT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03521AA-8E1B-4E85-9132-7144B808F1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10DACAE-2CEB-439A-B273-71979682B2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{F2317BC5-DDE7-4B11-8968-E77385A88B35}"/>
   </bookViews>
@@ -30207,7 +30207,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="37">
         <f ca="1">+TODAY()</f>
-        <v>45931</v>
+        <v>45937</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="33" t="s">
@@ -30217,7 +30217,7 @@
       <c r="I4" s="33"/>
       <c r="J4" s="38">
         <f ca="1">V62</f>
-        <v>59.092222110248017</v>
+        <v>59.115824280154861</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33" t="s">
@@ -30276,7 +30276,7 @@
       <c r="I5" s="33"/>
       <c r="J5" s="41">
         <f ca="1">J4/J3-1</f>
-        <v>0.71232170704862408</v>
+        <v>0.71300562967704617</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33" t="s">
@@ -33329,43 +33329,43 @@
       <c r="L52" s="67"/>
       <c r="M52" s="67">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>190.62236220646091</v>
+        <v>178.19704656147593</v>
       </c>
       <c r="N52" s="67">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>723.74822740185425</v>
+        <v>724.89881724572967</v>
       </c>
       <c r="O52" s="67">
         <f t="shared" ref="O52:U52" ca="1" si="15">O51/(1+$E$18)^O53</f>
-        <v>686.95354377503372</v>
+        <v>688.04563870633228</v>
       </c>
       <c r="P52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>652.00848380973832</v>
+        <v>653.04502429604145</v>
       </c>
       <c r="Q52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>618.82092197398435</v>
+        <v>619.80470202489641</v>
       </c>
       <c r="R52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>587.30328624765889</v>
+        <v>588.23696065382228</v>
       </c>
       <c r="S52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>557.37233450890449</v>
+        <v>558.25842572552176</v>
       </c>
       <c r="T52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>528.94894184092993</v>
+        <v>529.78984653315365</v>
       </c>
       <c r="U52" s="67">
         <f t="shared" ca="1" si="15"/>
-        <v>501.95789822849662</v>
+        <v>502.7558934952043</v>
       </c>
       <c r="V52" s="68">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>473.51380215081866</v>
+        <v>474.26657797956972</v>
       </c>
       <c r="W52" s="33"/>
       <c r="X52" s="33"/>
@@ -33406,43 +33406,43 @@
       <c r="L53" s="33"/>
       <c r="M53" s="95">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.25</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="N53" s="95">
         <f ca="1">M53+1</f>
-        <v>1.25</v>
+        <v>1.2333333333333334</v>
       </c>
       <c r="O53" s="95">
         <f ca="1">N53+1</f>
-        <v>2.25</v>
+        <v>2.2333333333333334</v>
       </c>
       <c r="P53" s="95">
         <f t="shared" ref="P53:V53" ca="1" si="16">O53+1</f>
-        <v>3.25</v>
+        <v>3.2333333333333334</v>
       </c>
       <c r="Q53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>4.25</v>
+        <v>4.2333333333333334</v>
       </c>
       <c r="R53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>5.25</v>
+        <v>5.2333333333333334</v>
       </c>
       <c r="S53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>6.25</v>
+        <v>6.2333333333333334</v>
       </c>
       <c r="T53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>7.25</v>
+        <v>7.2333333333333334</v>
       </c>
       <c r="U53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>8.25</v>
+        <v>8.2333333333333343</v>
       </c>
       <c r="V53" s="95">
         <f t="shared" ca="1" si="16"/>
-        <v>9.25</v>
+        <v>9.2333333333333343</v>
       </c>
       <c r="W53" s="33"/>
       <c r="X53" s="33"/>
@@ -33492,7 +33492,7 @@
       <c r="U54" s="33"/>
       <c r="V54" s="48">
         <f ca="1">SUM(M52:V52)</f>
-        <v>5521.2498021438796</v>
+        <v>5517.2989332217467</v>
       </c>
       <c r="W54" s="33"/>
       <c r="X54" s="33"/>
@@ -33594,7 +33594,7 @@
       <c r="U56" s="71"/>
       <c r="V56" s="72">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>4754.6619388348217</v>
+        <v>4762.2207355693199</v>
       </c>
       <c r="W56" s="33"/>
       <c r="X56" s="33"/>
@@ -33644,7 +33644,7 @@
       <c r="U57" s="74"/>
       <c r="V57" s="75">
         <f ca="1">V54+V56</f>
-        <v>10275.911740978701</v>
+        <v>10279.519668791067</v>
       </c>
       <c r="W57" s="33"/>
       <c r="X57" s="33"/>
@@ -33794,7 +33794,7 @@
       <c r="U60" s="33"/>
       <c r="V60" s="76">
         <f ca="1">V57+V58-V59</f>
-        <v>9033.0877409787026</v>
+        <v>9036.6956687910679</v>
       </c>
       <c r="W60" s="33"/>
       <c r="X60" s="33"/>
@@ -33894,7 +33894,7 @@
       <c r="U62" s="33"/>
       <c r="V62" s="76">
         <f ca="1">V60/V61</f>
-        <v>59.092222110248017</v>
+        <v>59.115824280154861</v>
       </c>
       <c r="W62" s="33"/>
       <c r="X62" s="33"/>
@@ -34203,7 +34203,7 @@
       </c>
       <c r="C69" s="79">
         <f ca="1">+J4</f>
-        <v>59.092222110248017</v>
+        <v>59.115824280154861</v>
       </c>
       <c r="D69" s="80"/>
       <c r="E69" s="80"/>
@@ -34219,7 +34219,7 @@
       </c>
       <c r="N69" s="79">
         <f ca="1">+J4</f>
-        <v>59.092222110248017</v>
+        <v>59.115824280154861</v>
       </c>
       <c r="O69" s="80"/>
       <c r="P69" s="80"/>
